--- a/data/nzd0065/nzd0065.xlsx
+++ b/data/nzd0065/nzd0065.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC194"/>
+  <dimension ref="A1:AC196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16807,8 +16807,12 @@
       <c r="U194" t="n">
         <v>350.56</v>
       </c>
-      <c r="V194" t="inlineStr"/>
-      <c r="W194" t="inlineStr"/>
+      <c r="V194" t="n">
+        <v>363.49</v>
+      </c>
+      <c r="W194" t="n">
+        <v>373.9955555555555</v>
+      </c>
       <c r="X194" t="n">
         <v>364.28</v>
       </c>
@@ -16825,6 +16829,190 @@
         <v>317.86</v>
       </c>
       <c r="AC194" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:18:09+00:00</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>384.75</v>
+      </c>
+      <c r="C195" t="n">
+        <v>377.22</v>
+      </c>
+      <c r="D195" t="n">
+        <v>384.48</v>
+      </c>
+      <c r="E195" t="n">
+        <v>390.92</v>
+      </c>
+      <c r="F195" t="n">
+        <v>392.0171428571429</v>
+      </c>
+      <c r="G195" t="n">
+        <v>387.22</v>
+      </c>
+      <c r="H195" t="n">
+        <v>385.4571428571429</v>
+      </c>
+      <c r="I195" t="n">
+        <v>366.7371428571428</v>
+      </c>
+      <c r="J195" t="n">
+        <v>365.99</v>
+      </c>
+      <c r="K195" t="n">
+        <v>370.45</v>
+      </c>
+      <c r="L195" t="n">
+        <v>363.2366666666667</v>
+      </c>
+      <c r="M195" t="n">
+        <v>363.7071428571429</v>
+      </c>
+      <c r="N195" t="n">
+        <v>351.97</v>
+      </c>
+      <c r="O195" t="n">
+        <v>349.44</v>
+      </c>
+      <c r="P195" t="n">
+        <v>334.3444444444444</v>
+      </c>
+      <c r="Q195" t="n">
+        <v>339.5571428571428</v>
+      </c>
+      <c r="R195" t="n">
+        <v>333.93</v>
+      </c>
+      <c r="S195" t="n">
+        <v>335.4244444444445</v>
+      </c>
+      <c r="T195" t="n">
+        <v>341.59</v>
+      </c>
+      <c r="U195" t="n">
+        <v>346.5771428571429</v>
+      </c>
+      <c r="V195" t="n">
+        <v>349.9171428571428</v>
+      </c>
+      <c r="W195" t="n">
+        <v>345.0044444444445</v>
+      </c>
+      <c r="X195" t="n">
+        <v>357.75</v>
+      </c>
+      <c r="Y195" t="n">
+        <v>373.4071428571429</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>348.14</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>321.8069230769231</v>
+      </c>
+      <c r="AB195" t="n">
+        <v>348.74</v>
+      </c>
+      <c r="AC195" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:17:39+00:00</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>393.2</v>
+      </c>
+      <c r="C196" t="n">
+        <v>383.6</v>
+      </c>
+      <c r="D196" t="n">
+        <v>386.02</v>
+      </c>
+      <c r="E196" t="n">
+        <v>383.92</v>
+      </c>
+      <c r="F196" t="n">
+        <v>388.6471428571429</v>
+      </c>
+      <c r="G196" t="n">
+        <v>377.07</v>
+      </c>
+      <c r="H196" t="n">
+        <v>379.0571428571428</v>
+      </c>
+      <c r="I196" t="n">
+        <v>372.9571428571429</v>
+      </c>
+      <c r="J196" t="n">
+        <v>371.86</v>
+      </c>
+      <c r="K196" t="n">
+        <v>390.71</v>
+      </c>
+      <c r="L196" t="n">
+        <v>368.2433333333333</v>
+      </c>
+      <c r="M196" t="n">
+        <v>361.9171428571429</v>
+      </c>
+      <c r="N196" t="n">
+        <v>351.05</v>
+      </c>
+      <c r="O196" t="n">
+        <v>345.11</v>
+      </c>
+      <c r="P196" t="n">
+        <v>341.9488888888889</v>
+      </c>
+      <c r="Q196" t="n">
+        <v>339.6271428571428</v>
+      </c>
+      <c r="R196" t="n">
+        <v>342.99</v>
+      </c>
+      <c r="S196" t="n">
+        <v>342.4588888888889</v>
+      </c>
+      <c r="T196" t="n">
+        <v>347.9</v>
+      </c>
+      <c r="U196" t="n">
+        <v>358.4171428571428</v>
+      </c>
+      <c r="V196" t="n">
+        <v>359.0071428571428</v>
+      </c>
+      <c r="W196" t="n">
+        <v>346.5788888888889</v>
+      </c>
+      <c r="X196" t="n">
+        <v>353.83</v>
+      </c>
+      <c r="Y196" t="n">
+        <v>365.2771428571429</v>
+      </c>
+      <c r="Z196" t="inlineStr"/>
+      <c r="AA196" t="n">
+        <v>309.4276923076923</v>
+      </c>
+      <c r="AB196" t="n">
+        <v>352.13</v>
+      </c>
+      <c r="AC196" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -16841,7 +17029,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B197"/>
+  <dimension ref="A1:B199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18819,6 +19007,26 @@
       </c>
       <c r="B197" t="n">
         <v>-0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>1.57</v>
       </c>
     </row>
   </sheetData>
@@ -18981,28 +19189,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>-1.45208124473048</v>
+        <v>-1.383986932689108</v>
       </c>
       <c r="J2" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K2" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2207745433514233</v>
+        <v>0.2075988733062667</v>
       </c>
       <c r="M2" t="n">
-        <v>16.47153545549394</v>
+        <v>16.5167905237719</v>
       </c>
       <c r="N2" t="n">
-        <v>420.3659995545832</v>
+        <v>421.6226704884439</v>
       </c>
       <c r="O2" t="n">
-        <v>20.50282906221927</v>
+        <v>20.5334524736695</v>
       </c>
       <c r="P2" t="n">
-        <v>403.1096969214235</v>
+        <v>402.513201947498</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -19052,28 +19260,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.9727617653597159</v>
+        <v>-0.9319800853397083</v>
       </c>
       <c r="J3" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K3" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L3" t="n">
-        <v>0.124257709255125</v>
+        <v>0.1166779554960697</v>
       </c>
       <c r="M3" t="n">
-        <v>14.95456849296723</v>
+        <v>14.96740006389568</v>
       </c>
       <c r="N3" t="n">
-        <v>387.8636661960481</v>
+        <v>387.1818898231578</v>
       </c>
       <c r="O3" t="n">
-        <v>19.69425464941611</v>
+        <v>19.67693801949779</v>
       </c>
       <c r="P3" t="n">
-        <v>386.7566418685508</v>
+        <v>386.3870584655797</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -19129,28 +19337,28 @@
         <v>0.0446</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.4747077241658008</v>
+        <v>-0.4280853398114537</v>
       </c>
       <c r="J4" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K4" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05606959836126524</v>
+        <v>0.04615374825685625</v>
       </c>
       <c r="M4" t="n">
-        <v>11.65792679851133</v>
+        <v>11.75037763391214</v>
       </c>
       <c r="N4" t="n">
-        <v>217.7638082639972</v>
+        <v>220.2056789467283</v>
       </c>
       <c r="O4" t="n">
-        <v>14.75682243113324</v>
+        <v>14.83932879030343</v>
       </c>
       <c r="P4" t="n">
-        <v>376.3247300310416</v>
+        <v>375.9019742196718</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -19206,28 +19414,28 @@
         <v>0.0489</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1257748176302487</v>
+        <v>-0.07772652903926527</v>
       </c>
       <c r="J5" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K5" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003770919205613343</v>
+        <v>0.001442280084367531</v>
       </c>
       <c r="M5" t="n">
-        <v>12.39872206860891</v>
+        <v>12.52933992065479</v>
       </c>
       <c r="N5" t="n">
-        <v>236.895962829468</v>
+        <v>239.8905556892491</v>
       </c>
       <c r="O5" t="n">
-        <v>15.39142497722248</v>
+        <v>15.48840068209914</v>
       </c>
       <c r="P5" t="n">
-        <v>368.2513563725478</v>
+        <v>367.8066466518972</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -19283,28 +19491,28 @@
         <v>0.0401</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1087957954261441</v>
+        <v>-0.05343687372060296</v>
       </c>
       <c r="J6" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K6" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002627580251710282</v>
+        <v>0.0006310955828802145</v>
       </c>
       <c r="M6" t="n">
-        <v>12.20888599748315</v>
+        <v>12.35113262811979</v>
       </c>
       <c r="N6" t="n">
-        <v>252.0178087256379</v>
+        <v>256.59425033938</v>
       </c>
       <c r="O6" t="n">
-        <v>15.87506877861126</v>
+        <v>16.01855955881739</v>
       </c>
       <c r="P6" t="n">
-        <v>367.1948990275773</v>
+        <v>366.6774665602405</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -19360,28 +19568,28 @@
         <v>0.0424</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2598619926901416</v>
+        <v>-0.2096160487867284</v>
       </c>
       <c r="J7" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K7" t="n">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01976651610732172</v>
+        <v>0.0128046130585161</v>
       </c>
       <c r="M7" t="n">
-        <v>10.75462120774357</v>
+        <v>10.87499325008533</v>
       </c>
       <c r="N7" t="n">
-        <v>186.1760576463957</v>
+        <v>190.4471539107555</v>
       </c>
       <c r="O7" t="n">
-        <v>13.64463475679711</v>
+        <v>13.80025919723088</v>
       </c>
       <c r="P7" t="n">
-        <v>365.3832902282533</v>
+        <v>364.9070422379148</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -19437,28 +19645,28 @@
         <v>0.0369</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2419798161998836</v>
+        <v>-0.1859556738558253</v>
       </c>
       <c r="J8" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K8" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01868682988621606</v>
+        <v>0.01089210848742228</v>
       </c>
       <c r="M8" t="n">
-        <v>10.29418574506082</v>
+        <v>10.49725416230854</v>
       </c>
       <c r="N8" t="n">
-        <v>170.505242367343</v>
+        <v>176.1472473944407</v>
       </c>
       <c r="O8" t="n">
-        <v>13.05776559627806</v>
+        <v>13.27204759614886</v>
       </c>
       <c r="P8" t="n">
-        <v>362.5191362094499</v>
+        <v>361.9895502365775</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -19514,28 +19722,28 @@
         <v>0.038</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.7128900539068128</v>
+        <v>-0.6590742117609502</v>
       </c>
       <c r="J9" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K9" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1047355139512094</v>
+        <v>0.09026005949775717</v>
       </c>
       <c r="M9" t="n">
-        <v>13.16888614877683</v>
+        <v>13.30290266746884</v>
       </c>
       <c r="N9" t="n">
-        <v>243.4160577647128</v>
+        <v>247.945836959428</v>
       </c>
       <c r="O9" t="n">
-        <v>15.60179661977148</v>
+        <v>15.74629597586137</v>
       </c>
       <c r="P9" t="n">
-        <v>362.4895692231374</v>
+        <v>361.9787636688525</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -19591,28 +19799,28 @@
         <v>0.0273</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.70902333112884</v>
+        <v>-0.6293109763716027</v>
       </c>
       <c r="J10" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K10" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L10" t="n">
-        <v>0.07342775245991517</v>
+        <v>0.05795503371373811</v>
       </c>
       <c r="M10" t="n">
-        <v>15.0731138053049</v>
+        <v>15.28910963267306</v>
       </c>
       <c r="N10" t="n">
-        <v>348.8834269538373</v>
+        <v>358.4839150791697</v>
       </c>
       <c r="O10" t="n">
-        <v>18.6784214256408</v>
+        <v>18.9336714632733</v>
       </c>
       <c r="P10" t="n">
-        <v>353.0081102600558</v>
+        <v>352.2484531526183</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -19668,28 +19876,28 @@
         <v>0.0212</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.8327963798137682</v>
+        <v>-0.7071269505437229</v>
       </c>
       <c r="J11" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K11" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L11" t="n">
-        <v>0.07621689472771365</v>
+        <v>0.05380470977442608</v>
       </c>
       <c r="M11" t="n">
-        <v>17.53334122381262</v>
+        <v>17.95749836448978</v>
       </c>
       <c r="N11" t="n">
-        <v>470.5976929178716</v>
+        <v>499.0487989940326</v>
       </c>
       <c r="O11" t="n">
-        <v>21.69326376822703</v>
+        <v>22.33940014848278</v>
       </c>
       <c r="P11" t="n">
-        <v>349.7782052026011</v>
+        <v>348.6103667219636</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -19745,28 +19953,28 @@
         <v>0.0314</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.898125469800769</v>
+        <v>-0.8192412180222824</v>
       </c>
       <c r="J12" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K12" t="n">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1413623662794408</v>
+        <v>0.1172481179210707</v>
       </c>
       <c r="M12" t="n">
-        <v>13.28909877086307</v>
+        <v>13.50631086948103</v>
       </c>
       <c r="N12" t="n">
-        <v>272.744949112554</v>
+        <v>284.5335863631917</v>
       </c>
       <c r="O12" t="n">
-        <v>16.51499164736556</v>
+        <v>16.86812338000857</v>
       </c>
       <c r="P12" t="n">
-        <v>352.1293408583289</v>
+        <v>351.3835642190055</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -19822,28 +20030,28 @@
         <v>0.0377</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.7242710270707315</v>
+        <v>-0.6551491040653459</v>
       </c>
       <c r="J13" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K13" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1066554640337182</v>
+        <v>0.08727103631377087</v>
       </c>
       <c r="M13" t="n">
-        <v>12.280111684758</v>
+        <v>12.44061833574183</v>
       </c>
       <c r="N13" t="n">
-        <v>242.3831393298595</v>
+        <v>250.6543689730566</v>
       </c>
       <c r="O13" t="n">
-        <v>15.56865888025875</v>
+        <v>15.8320677415509</v>
       </c>
       <c r="P13" t="n">
-        <v>349.7024067213191</v>
+        <v>349.0502579832045</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -19899,28 +20107,28 @@
         <v>0.0462</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.7197104078428533</v>
+        <v>-0.6614882056686598</v>
       </c>
       <c r="J14" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K14" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1010157794999436</v>
+        <v>0.08636219158801894</v>
       </c>
       <c r="M14" t="n">
-        <v>12.93451682371208</v>
+        <v>13.06273562761484</v>
       </c>
       <c r="N14" t="n">
-        <v>252.7880449817184</v>
+        <v>257.287021508398</v>
       </c>
       <c r="O14" t="n">
-        <v>15.89930957562995</v>
+        <v>16.04016899874805</v>
       </c>
       <c r="P14" t="n">
-        <v>343.9059749292686</v>
+        <v>343.3637281724372</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -19976,28 +20184,28 @@
         <v>0.0426</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.6848472538792235</v>
+        <v>-0.6305514367826337</v>
       </c>
       <c r="J15" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K15" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L15" t="n">
-        <v>0.07262754068652177</v>
+        <v>0.06246534875269105</v>
       </c>
       <c r="M15" t="n">
-        <v>14.80725577510493</v>
+        <v>14.91401011509796</v>
       </c>
       <c r="N15" t="n">
-        <v>330.4866310391814</v>
+        <v>333.3253772817382</v>
       </c>
       <c r="O15" t="n">
-        <v>18.17929126889113</v>
+        <v>18.25720069675902</v>
       </c>
       <c r="P15" t="n">
-        <v>340.4279832182361</v>
+        <v>339.9139848772667</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -20053,28 +20261,28 @@
         <v>0.0499</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.6841333085289463</v>
+        <v>-0.6389339956243194</v>
       </c>
       <c r="J16" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K16" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L16" t="n">
-        <v>0.06484197796366997</v>
+        <v>0.0576499477411635</v>
       </c>
       <c r="M16" t="n">
-        <v>15.44406369659843</v>
+        <v>15.47522815598655</v>
       </c>
       <c r="N16" t="n">
-        <v>376.4262395636244</v>
+        <v>376.6690314177475</v>
       </c>
       <c r="O16" t="n">
-        <v>19.4017071301374</v>
+        <v>19.40796309296129</v>
       </c>
       <c r="P16" t="n">
-        <v>335.5584081816979</v>
+        <v>335.1324057719883</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -20130,28 +20338,28 @@
         <v>0.0388</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.6339870141475743</v>
+        <v>-0.6045365597369251</v>
       </c>
       <c r="J17" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K17" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L17" t="n">
-        <v>0.07003838941208695</v>
+        <v>0.06522580326079253</v>
       </c>
       <c r="M17" t="n">
-        <v>13.71747849250649</v>
+        <v>13.70232355203791</v>
       </c>
       <c r="N17" t="n">
-        <v>298.1395635804114</v>
+        <v>296.4215027098851</v>
       </c>
       <c r="O17" t="n">
-        <v>17.26671837902071</v>
+        <v>17.216895850004</v>
       </c>
       <c r="P17" t="n">
-        <v>342.8462272795766</v>
+        <v>342.572326730046</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -20201,28 +20409,28 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>-1.153453903426765</v>
+        <v>-1.093861725106554</v>
       </c>
       <c r="J18" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K18" t="n">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1625190310342048</v>
+        <v>0.1490983555237493</v>
       </c>
       <c r="M18" t="n">
-        <v>14.37810334711303</v>
+        <v>14.4613503787004</v>
       </c>
       <c r="N18" t="n">
-        <v>350.8988836082199</v>
+        <v>353.7230681749825</v>
       </c>
       <c r="O18" t="n">
-        <v>18.73229520395779</v>
+        <v>18.80752690214698</v>
       </c>
       <c r="P18" t="n">
-        <v>343.8541661259792</v>
+        <v>343.2467492543716</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -20278,28 +20486,28 @@
         <v>0.0528</v>
       </c>
       <c r="I19" t="n">
-        <v>-1.255243351237863</v>
+        <v>-1.183828455973008</v>
       </c>
       <c r="J19" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K19" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1666540456948161</v>
+        <v>0.1512694969682152</v>
       </c>
       <c r="M19" t="n">
-        <v>15.80400397613643</v>
+        <v>15.93340657337476</v>
       </c>
       <c r="N19" t="n">
-        <v>418.1611221518699</v>
+        <v>423.2050019844353</v>
       </c>
       <c r="O19" t="n">
-        <v>20.44898829164587</v>
+        <v>20.57194696630427</v>
       </c>
       <c r="P19" t="n">
-        <v>341.73354492978</v>
+        <v>341.0445540873568</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -20349,28 +20557,28 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>-1.276872560206706</v>
+        <v>-1.202895686017458</v>
       </c>
       <c r="J20" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K20" t="n">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2142589769776194</v>
+        <v>0.1941053669225347</v>
       </c>
       <c r="M20" t="n">
-        <v>14.18320342779075</v>
+        <v>14.33736513658657</v>
       </c>
       <c r="N20" t="n">
-        <v>325.4075907186629</v>
+        <v>331.8207993464389</v>
       </c>
       <c r="O20" t="n">
-        <v>18.03905736779677</v>
+        <v>18.21594903776465</v>
       </c>
       <c r="P20" t="n">
-        <v>348.1798505998353</v>
+        <v>347.4813083189824</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -20426,28 +20634,28 @@
         <v>0.0369</v>
       </c>
       <c r="I21" t="n">
-        <v>-1.059102647366028</v>
+        <v>-0.9830714785524015</v>
       </c>
       <c r="J21" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K21" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1949159516816518</v>
+        <v>0.1693228213073797</v>
       </c>
       <c r="M21" t="n">
-        <v>12.61406296905776</v>
+        <v>12.84097403397924</v>
       </c>
       <c r="N21" t="n">
-        <v>258.3531504744712</v>
+        <v>267.8835969705627</v>
       </c>
       <c r="O21" t="n">
-        <v>16.07336773904185</v>
+        <v>16.36714993426048</v>
       </c>
       <c r="P21" t="n">
-        <v>347.5230479085029</v>
+        <v>346.8106575954583</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -20503,28 +20711,28 @@
         <v>0.0414</v>
       </c>
       <c r="I22" t="n">
-        <v>-1.069289502045748</v>
+        <v>-0.9538246106345905</v>
       </c>
       <c r="J22" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K22" t="n">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1914845756227795</v>
+        <v>0.1529718402190766</v>
       </c>
       <c r="M22" t="n">
-        <v>13.57547521360088</v>
+        <v>13.97525490008404</v>
       </c>
       <c r="N22" t="n">
-        <v>271.8409093819085</v>
+        <v>288.7582821074815</v>
       </c>
       <c r="O22" t="n">
-        <v>16.4875986541979</v>
+        <v>16.99288916304351</v>
       </c>
       <c r="P22" t="n">
-        <v>348.8239134367233</v>
+        <v>347.7569022389029</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -20580,28 +20788,28 @@
         <v>0.0554</v>
       </c>
       <c r="I23" t="n">
-        <v>-1.353421346032222</v>
+        <v>-1.208561404148439</v>
       </c>
       <c r="J23" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K23" t="n">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2907509526558666</v>
+        <v>0.2285786321404585</v>
       </c>
       <c r="M23" t="n">
-        <v>12.69939037339285</v>
+        <v>13.17743644809401</v>
       </c>
       <c r="N23" t="n">
-        <v>249.5559685963843</v>
+        <v>280.4469201723571</v>
       </c>
       <c r="O23" t="n">
-        <v>15.79734055454855</v>
+        <v>16.74654950048986</v>
       </c>
       <c r="P23" t="n">
-        <v>345.7019156095714</v>
+        <v>344.3595336995728</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -20657,28 +20865,28 @@
         <v>0.0559</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.997769478610814</v>
+        <v>-0.9218019388800919</v>
       </c>
       <c r="J24" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K24" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1507993542646301</v>
+        <v>0.1291923464386773</v>
       </c>
       <c r="M24" t="n">
-        <v>13.91451019408731</v>
+        <v>14.12566333782951</v>
       </c>
       <c r="N24" t="n">
-        <v>314.3047142385884</v>
+        <v>324.75810013053</v>
       </c>
       <c r="O24" t="n">
-        <v>17.72864107140162</v>
+        <v>18.02104603319491</v>
       </c>
       <c r="P24" t="n">
-        <v>345.6280393283567</v>
+        <v>344.9142204224158</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -20734,28 +20942,28 @@
         <v>0.0414</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.3445571327104912</v>
+        <v>-0.295082459578328</v>
       </c>
       <c r="J25" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K25" t="n">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L25" t="n">
-        <v>0.02799956222607269</v>
+        <v>0.0207423292571296</v>
       </c>
       <c r="M25" t="n">
-        <v>12.20643318561246</v>
+        <v>12.29116652662977</v>
       </c>
       <c r="N25" t="n">
-        <v>237.7913794105859</v>
+        <v>240.2837799330399</v>
       </c>
       <c r="O25" t="n">
-        <v>15.42048570605303</v>
+        <v>15.50108963695907</v>
       </c>
       <c r="P25" t="n">
-        <v>357.3782246219019</v>
+        <v>356.9262828766442</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -20811,28 +21019,28 @@
         <v>0.0474</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.6570703425722872</v>
+        <v>-0.63134579898564</v>
       </c>
       <c r="J26" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K26" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L26" t="n">
-        <v>0.1183790686778037</v>
+        <v>0.1097330357308097</v>
       </c>
       <c r="M26" t="n">
-        <v>10.62040258713103</v>
+        <v>10.68796814359505</v>
       </c>
       <c r="N26" t="n">
-        <v>181.7107176570891</v>
+        <v>183.8061360121378</v>
       </c>
       <c r="O26" t="n">
-        <v>13.48001178252783</v>
+        <v>13.55751216160759</v>
       </c>
       <c r="P26" t="n">
-        <v>341.4130388022824</v>
+        <v>341.1749614333704</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -20882,28 +21090,28 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>-1.054618961693868</v>
+        <v>-1.014370190698596</v>
       </c>
       <c r="J27" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K27" t="n">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L27" t="n">
-        <v>0.108136499967738</v>
+        <v>0.1024723632346748</v>
       </c>
       <c r="M27" t="n">
-        <v>17.45185651915426</v>
+        <v>17.41127184949664</v>
       </c>
       <c r="N27" t="n">
-        <v>499.7781149506157</v>
+        <v>497.0705210585176</v>
       </c>
       <c r="O27" t="n">
-        <v>22.35571772389819</v>
+        <v>22.29507840440391</v>
       </c>
       <c r="P27" t="n">
-        <v>325.8456972010238</v>
+        <v>325.4565419404379</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -20959,28 +21167,28 @@
         <v>0.0321</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.5057810930738639</v>
+        <v>-0.4451661900554491</v>
       </c>
       <c r="J28" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K28" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L28" t="n">
-        <v>0.02586899833292411</v>
+        <v>0.02028378125635943</v>
       </c>
       <c r="M28" t="n">
-        <v>17.92488549814621</v>
+        <v>18.00129433027023</v>
       </c>
       <c r="N28" t="n">
-        <v>539.3292229783104</v>
+        <v>541.7018409907741</v>
       </c>
       <c r="O28" t="n">
-        <v>23.22346276889625</v>
+        <v>23.27448905971459</v>
       </c>
       <c r="P28" t="n">
-        <v>335.709423514091</v>
+        <v>335.1314287583746</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -21017,7 +21225,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC194"/>
+  <dimension ref="A1:AC196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46106,8 +46314,16 @@
           <t>-35.257111631625136,173.12652794197137</t>
         </is>
       </c>
-      <c r="V194" t="inlineStr"/>
-      <c r="W194" t="inlineStr"/>
+      <c r="V194" t="inlineStr">
+        <is>
+          <t>-35.25662398189704,173.1258423503901</t>
+        </is>
+      </c>
+      <c r="W194" t="inlineStr">
+        <is>
+          <t>-35.25612229454572,173.12517719571963</t>
+        </is>
+      </c>
       <c r="X194" t="inlineStr">
         <is>
           <t>-35.25550356111058,173.12468249015566</t>
@@ -46134,6 +46350,296 @@
         </is>
       </c>
       <c r="AC194" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:18:09+00:00</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>-35.26799612363893,173.13719514156008</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>-35.267390118108565,173.1366820188426</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>-35.26686972239779,173.13604421781534</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>-35.26634457575751,173.13541332966133</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>-35.265788497533414,173.13482748122757</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>-35.26519829619317,173.13429132045854</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>-35.26462565511986,173.13372958108408</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>-35.26395485429043,173.1333107854</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>-35.26338808541566,173.13274048309583</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>-35.26285145382998,173.13212628641008</t>
+        </is>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>-35.26224724819527,173.13161049161621</t>
+        </is>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>-35.261687515791984,173.1310299251232</t>
+        </is>
+      </c>
+      <c r="N195" t="inlineStr">
+        <is>
+          <t>-35.26105711744235,173.13055226318846</t>
+        </is>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>-35.260480009745294,173.12999698887162</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>-35.25983016490228,173.12954763510422</t>
+        </is>
+      </c>
+      <c r="Q195" t="inlineStr">
+        <is>
+          <t>-35.25929786693803,173.1289270936261</t>
+        </is>
+      </c>
+      <c r="R195" t="inlineStr">
+        <is>
+          <t>-35.25870282094024,173.12839792564014</t>
+        </is>
+      </c>
+      <c r="S195" t="inlineStr">
+        <is>
+          <t>-35.2581489927744,173.1278087269477</t>
+        </is>
+      </c>
+      <c r="T195" t="inlineStr">
+        <is>
+          <t>-35.257622198005855,173.12718015404482</t>
+        </is>
+      </c>
+      <c r="U195" t="inlineStr">
+        <is>
+          <t>-35.257088578129704,173.12656151467786</t>
+        </is>
+      </c>
+      <c r="V195" t="inlineStr">
+        <is>
+          <t>-35.256545420164535,173.12595675981134</t>
+        </is>
+      </c>
+      <c r="W195" t="inlineStr">
+        <is>
+          <t>-35.25595449043668,173.12542156911772</t>
+        </is>
+      </c>
+      <c r="X195" t="inlineStr">
+        <is>
+          <t>-35.25546576484207,173.12473753298207</t>
+        </is>
+      </c>
+      <c r="Y195" t="inlineStr">
+        <is>
+          <t>-35.254993887050304,173.1240289550855</t>
+        </is>
+      </c>
+      <c r="Z195" t="inlineStr">
+        <is>
+          <t>-35.25428513298191,173.12366533561385</t>
+        </is>
+      </c>
+      <c r="AA195" t="inlineStr">
+        <is>
+          <t>-35.25357020625459,173.123310698638</t>
+        </is>
+      </c>
+      <c r="AB195" t="inlineStr">
+        <is>
+          <t>-35.253163581959804,173.12250707605577</t>
+        </is>
+      </c>
+      <c r="AC195" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:17:39+00:00</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>-35.268045037669346,173.13712390851265</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>-35.26742704951767,173.13662823604986</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>-35.26687863683205,173.13603123580125</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>-35.266304055789924,173.13547233861502</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>-35.26576899015534,173.13485588972995</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>-35.26513954272803,173.13437688274064</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>-35.26458860876415,173.13378353148582</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>-35.26399085860378,173.13325835264095</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>-35.26342206361583,173.13269100092376</t>
+        </is>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>-35.26296872716458,173.13195550161626</t>
+        </is>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>-35.26227622878699,173.1315682873937</t>
+        </is>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>-35.26167715459783,173.13104501405377</t>
+        </is>
+      </c>
+      <c r="N196" t="inlineStr">
+        <is>
+          <t>-35.261051792153275,173.1305600183517</t>
+        </is>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>-35.26045494625642,173.13003348855818</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>-35.25987418181769,173.12948353384658</t>
+        </is>
+      </c>
+      <c r="Q196" t="inlineStr">
+        <is>
+          <t>-35.259298272118194,173.1289265035669</t>
+        </is>
+      </c>
+      <c r="R196" t="inlineStr">
+        <is>
+          <t>-35.25875526260359,173.1283215554197</t>
+        </is>
+      </c>
+      <c r="S196" t="inlineStr">
+        <is>
+          <t>-35.258189709807354,173.12774943112964</t>
+        </is>
+      </c>
+      <c r="T196" t="inlineStr">
+        <is>
+          <t>-35.2576587215995,173.127126964979</t>
+        </is>
+      </c>
+      <c r="U196" t="inlineStr">
+        <is>
+          <t>-35.25715711015752,173.12646171168404</t>
+        </is>
+      </c>
+      <c r="V196" t="inlineStr">
+        <is>
+          <t>-35.25659803445969,173.1258801376752</t>
+        </is>
+      </c>
+      <c r="W196" t="inlineStr">
+        <is>
+          <t>-35.25596360352708,173.12540829775372</t>
+        </is>
+      </c>
+      <c r="X196" t="inlineStr">
+        <is>
+          <t>-35.25544307549269,173.12477057551177</t>
+        </is>
+      </c>
+      <c r="Y196" t="inlineStr">
+        <is>
+          <t>-35.25494683007576,173.1240974844949</t>
+        </is>
+      </c>
+      <c r="Z196" t="inlineStr"/>
+      <c r="AA196" t="inlineStr">
+        <is>
+          <t>-35.25349855469377,173.12341504409645</t>
+        </is>
+      </c>
+      <c r="AB196" t="inlineStr">
+        <is>
+          <t>-35.25318320328038,173.12247850145806</t>
+        </is>
+      </c>
+      <c r="AC196" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0065/nzd0065.xlsx
+++ b/data/nzd0065/nzd0065.xlsx
@@ -19040,7 +19040,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W28"/>
+  <dimension ref="A1:X28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19131,35 +19131,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -19212,27 +19217,28 @@
       <c r="P2" t="n">
         <v>402.513201947498</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (173.14043847269917 -35.26576889874184, 173.13263043308183 -35.27113039573228)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>173.1404384726992</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-35.26576889874184</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>173.1326304330818</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-35.27113039573228</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>173.1365344528905</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-35.26844964723706</v>
       </c>
     </row>
@@ -19283,27 +19289,28 @@
       <c r="P3" t="n">
         <v>386.3870584655797</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (173.1398618607337 -35.265206491379196, 173.13205383122832 -35.270567977663056)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>173.1398618607337</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-35.2652064913792</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>173.1320538312283</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-35.27056797766306</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>173.135957845981</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-35.26788723452113</v>
       </c>
     </row>
@@ -19360,27 +19367,28 @@
       <c r="P4" t="n">
         <v>375.9019742196718</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (173.13928524876786 -35.264644080112404, 173.13147722937538 -35.270005555690005)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>173.1392852487679</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-35.2646440801124</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>173.1314772293754</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-35.27000555569001</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>173.1353812390716</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-35.2673248179012</v>
       </c>
     </row>
@@ -19437,27 +19445,28 @@
       <c r="P5" t="n">
         <v>367.8066466518972</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (173.13870863680177 -35.26408166494153, 173.13090062752292 -35.26944312981306)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>173.1387086368018</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-35.26408166494153</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>173.1309006275229</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-35.26944312981306</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>173.1348046321623</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-35.26676239737729</v>
       </c>
     </row>
@@ -19514,27 +19523,28 @@
       <c r="P6" t="n">
         <v>366.6774665602405</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (173.13813202483544 -35.26351924586661, 173.13032402567103 -35.26888070003223)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>173.1381320248354</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-35.26351924586661</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>173.130324025671</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-35.26888070003223</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>173.1342280252532</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-35.26619997294942</v>
       </c>
     </row>
@@ -19591,27 +19601,28 @@
       <c r="P7" t="n">
         <v>364.9070422379148</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (173.13755541286883 -35.262956822887624, 173.1297474238197 -35.26831826634759)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>173.1375554128688</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-35.26295682288762</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>173.1297474238197</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-35.26831826634759</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>173.1336514183443</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-35.2656375446176</v>
       </c>
     </row>
@@ -19668,27 +19679,28 @@
       <c r="P8" t="n">
         <v>361.9895502365775</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (173.13697880090197 -35.26239439600465, 173.1291708219689 -35.267755828759185)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>173.136978800902</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-35.26239439600465</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>173.1291708219689</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-35.26775582875919</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>173.1330748114354</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-35.26507511238192</v>
       </c>
     </row>
@@ -19745,27 +19757,28 @@
       <c r="P9" t="n">
         <v>361.9787636688525</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (173.13640218893474 -35.26183196521763, 173.1285942201187 -35.267193387267056)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>173.1364021889347</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-35.26183196521763</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>173.1285942201187</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-35.26719338726706</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>173.1324982045267</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-35.26451267624235</v>
       </c>
     </row>
@@ -19822,27 +19835,28 @@
       <c r="P10" t="n">
         <v>352.2484531526183</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (173.13582557696736 -35.26126953052675, 173.12801761826896 -35.266630941871114)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>173.1358255769674</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-35.26126953052675</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>173.128017618269</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-35.26663094187111</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>173.1319215976181</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-35.26395023619893</v>
       </c>
     </row>
@@ -19899,27 +19913,28 @@
       <c r="P11" t="n">
         <v>348.6103667219636</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (173.1352489649997 -35.26070709193191, 173.1274410164198 -35.2660684925715)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>173.1352489649997</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-35.26070709193191</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>173.1274410164198</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-35.2660684925715</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>173.1313449907097</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-35.26338779225171</v>
       </c>
     </row>
@@ -19976,27 +19991,28 @@
       <c r="P12" t="n">
         <v>351.3835642190055</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (173.1346723530317 -35.26014464943315, 173.12686441457112 -35.26550603936823)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>173.1346723530317</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-35.26014464943315</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>173.1268644145711</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-35.26550603936823</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>173.1307683838014</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-35.2628253444007</v>
       </c>
     </row>
@@ -20053,27 +20069,28 @@
       <c r="P13" t="n">
         <v>349.0502579832045</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (173.13409574106348 -35.259582203030504, 173.12628781272298 -35.26494358226126)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>173.1340957410635</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-35.2595822030305</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>173.126287812723</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-35.26494358226126</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>173.1301917768932</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-35.26226289264588</v>
       </c>
     </row>
@@ -20130,27 +20147,28 @@
       <c r="P14" t="n">
         <v>343.3637281724372</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (173.1335191290949 -35.25901975272405, 173.1257112108754 -35.26438112125067)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>173.1335191290949</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-35.25901975272405</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>173.1257112108754</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-35.26438112125067</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>173.1296151699852</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-35.26170043698736</v>
       </c>
     </row>
@@ -20207,27 +20225,28 @@
       <c r="P15" t="n">
         <v>339.9139848772667</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (173.13294251712614 -35.258457298513775, 173.12513460902835 -35.263818656336454)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>173.1329425171261</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-35.25845729851378</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>173.1251346090284</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-35.26381865633645</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>173.1290385630772</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-35.26113797742511</v>
       </c>
     </row>
@@ -20284,27 +20303,28 @@
       <c r="P16" t="n">
         <v>335.1324057719883</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (173.13236590515712 -35.25789484039971, 173.12455800718186 -35.26325618751867)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>173.1323659051571</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-35.25789484039971</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>173.1245580071819</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-35.26325618751867</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>173.1284619561695</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-35.26057551395919</v>
       </c>
     </row>
@@ -20361,27 +20381,28 @@
       <c r="P17" t="n">
         <v>342.572326730046</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (173.1317892931878 -35.25733237838185, 173.12398140533597 -35.26269371479741)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>173.1317892931878</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-35.25733237838185</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>173.123981405336</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-35.26269371479741</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>173.1278853492619</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-35.26001304658963</v>
       </c>
     </row>
@@ -20432,27 +20453,28 @@
       <c r="P18" t="n">
         <v>343.2467492543716</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (173.13121268121822 -35.256769912460264, 173.12340480349053 -35.2621312381726)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>173.1312126812182</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-35.25676991246026</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>173.1234048034905</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-35.2621312381726</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>173.1273087423544</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-35.25945057531644</v>
       </c>
     </row>
@@ -20509,27 +20531,28 @@
       <c r="P19" t="n">
         <v>341.0445540873568</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (173.1306360692483 -35.256207442634974, 173.12282820164566 -35.26156875764427)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>173.1306360692483</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-35.25620744263497</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>173.1228282016457</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-35.26156875764427</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>173.126732135447</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-35.25888810013962</v>
       </c>
     </row>
@@ -20580,27 +20603,28 @@
       <c r="P20" t="n">
         <v>347.4813083189824</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
         <is>
           <t>LINESTRING (173.1300594572782 -35.25564496890599, 173.12225159980127 -35.261006273212494)</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>173.1300594572782</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>-35.25564496890599</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>173.1222515998013</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>-35.26100627321249</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>173.1261555285398</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>-35.25832562105924</v>
       </c>
     </row>
@@ -20657,27 +20681,28 @@
       <c r="P21" t="n">
         <v>346.8106575954583</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
         <is>
           <t>LINESTRING (173.12948284530776 -35.2550824912733, 173.1216749979576 -35.260443784877374)</t>
         </is>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>173.1294828453078</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>-35.2550824912733</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>173.1216749979576</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>-35.26044378487737</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>173.1255789216327</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>-35.25776313807533</v>
       </c>
     </row>
@@ -20734,27 +20759,28 @@
       <c r="P22" t="n">
         <v>347.7569022389029</v>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
         <is>
           <t>LINESTRING (173.12890623333712 -35.254520009737064, 173.12109839611423 -35.25988129263869)</t>
         </is>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>173.1289062333371</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>-35.25452000973706</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>173.1210983961142</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>-35.25988129263869</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>173.1250023147257</v>
       </c>
-      <c r="W22" t="n">
+      <c r="X22" t="n">
         <v>-35.25720065118787</v>
       </c>
     </row>
@@ -20811,27 +20837,28 @@
       <c r="P23" t="n">
         <v>344.3595336995728</v>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
         <is>
           <t>LINESTRING (173.12832962136616 -35.253957524297185, 173.12052179427153 -35.259318796496665)</t>
         </is>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>173.1283296213662</v>
       </c>
-      <c r="S23" t="n">
+      <c r="T23" t="n">
         <v>-35.25395752429718</v>
       </c>
-      <c r="T23" t="n">
+      <c r="U23" t="n">
         <v>173.1205217942715</v>
       </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
         <v>-35.25931879649666</v>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>173.1244257078188</v>
       </c>
-      <c r="W23" t="n">
+      <c r="X23" t="n">
         <v>-35.25663816039692</v>
       </c>
     </row>
@@ -20888,27 +20915,28 @@
       <c r="P24" t="n">
         <v>344.9142204224158</v>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
         <is>
           <t>LINESTRING (173.12775300939498 -35.25339503495377, 173.1199451924293 -35.25875629645129)</t>
         </is>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>173.127753009395</v>
       </c>
-      <c r="S24" t="n">
+      <c r="T24" t="n">
         <v>-35.25339503495377</v>
       </c>
-      <c r="T24" t="n">
+      <c r="U24" t="n">
         <v>173.1199451924293</v>
       </c>
-      <c r="U24" t="n">
+      <c r="V24" t="n">
         <v>-35.25875629645129</v>
       </c>
-      <c r="V24" t="n">
+      <c r="W24" t="n">
         <v>173.1238491009121</v>
       </c>
-      <c r="W24" t="n">
+      <c r="X24" t="n">
         <v>-35.25607566570253</v>
       </c>
     </row>
@@ -20965,27 +20993,28 @@
       <c r="P25" t="n">
         <v>356.9262828766442</v>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
         <is>
           <t>LINESTRING (173.12717639742348 -35.25283254170677, 173.11936859058767 -35.258193792502595)</t>
         </is>
       </c>
-      <c r="R25" t="n">
+      <c r="S25" t="n">
         <v>173.1271763974235</v>
       </c>
-      <c r="S25" t="n">
+      <c r="T25" t="n">
         <v>-35.25283254170677</v>
       </c>
-      <c r="T25" t="n">
+      <c r="U25" t="n">
         <v>173.1193685905877</v>
       </c>
-      <c r="U25" t="n">
+      <c r="V25" t="n">
         <v>-35.2581937925026</v>
       </c>
-      <c r="V25" t="n">
+      <c r="W25" t="n">
         <v>173.1232724940056</v>
       </c>
-      <c r="W25" t="n">
+      <c r="X25" t="n">
         <v>-35.25551316710468</v>
       </c>
     </row>
@@ -21042,27 +21071,28 @@
       <c r="P26" t="n">
         <v>341.1749614333704</v>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
         <is>
           <t>LINESTRING (173.1265997854517 -35.25227004455625, 173.11879198874658 -35.25763128465062)</t>
         </is>
       </c>
-      <c r="R26" t="n">
+      <c r="S26" t="n">
         <v>173.1265997854517</v>
       </c>
-      <c r="S26" t="n">
+      <c r="T26" t="n">
         <v>-35.25227004455625</v>
       </c>
-      <c r="T26" t="n">
+      <c r="U26" t="n">
         <v>173.1187919887466</v>
       </c>
-      <c r="U26" t="n">
+      <c r="V26" t="n">
         <v>-35.25763128465062</v>
       </c>
-      <c r="V26" t="n">
+      <c r="W26" t="n">
         <v>173.1226958870992</v>
       </c>
-      <c r="W26" t="n">
+      <c r="X26" t="n">
         <v>-35.25495066460343</v>
       </c>
     </row>
@@ -21113,27 +21143,28 @@
       <c r="P27" t="n">
         <v>325.4565419404379</v>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
         <is>
           <t>LINESTRING (173.12602317347972 -35.25170754350224, 173.118215386906 -35.25706877289533)</t>
         </is>
       </c>
-      <c r="R27" t="n">
+      <c r="S27" t="n">
         <v>173.1260231734797</v>
       </c>
-      <c r="S27" t="n">
+      <c r="T27" t="n">
         <v>-35.25170754350224</v>
       </c>
-      <c r="T27" t="n">
+      <c r="U27" t="n">
         <v>173.118215386906</v>
       </c>
-      <c r="U27" t="n">
+      <c r="V27" t="n">
         <v>-35.25706877289533</v>
       </c>
-      <c r="V27" t="n">
+      <c r="W27" t="n">
         <v>173.1221192801929</v>
       </c>
-      <c r="W27" t="n">
+      <c r="X27" t="n">
         <v>-35.25438815819879</v>
       </c>
     </row>
@@ -21190,27 +21221,28 @@
       <c r="P28" t="n">
         <v>335.1314287583746</v>
       </c>
-      <c r="Q28" t="inlineStr">
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
         <is>
           <t>LINESTRING (173.1254465615074 -35.25114503854479, 173.11763878506596 -35.256506257236786)</t>
         </is>
       </c>
-      <c r="R28" t="n">
+      <c r="S28" t="n">
         <v>173.1254465615074</v>
       </c>
-      <c r="S28" t="n">
+      <c r="T28" t="n">
         <v>-35.25114503854479</v>
       </c>
-      <c r="T28" t="n">
+      <c r="U28" t="n">
         <v>173.117638785066</v>
       </c>
-      <c r="U28" t="n">
+      <c r="V28" t="n">
         <v>-35.25650625723679</v>
       </c>
-      <c r="V28" t="n">
+      <c r="W28" t="n">
         <v>173.1215426732867</v>
       </c>
-      <c r="W28" t="n">
+      <c r="X28" t="n">
         <v>-35.25382564789079</v>
       </c>
     </row>

--- a/data/nzd0065/nzd0065.xlsx
+++ b/data/nzd0065/nzd0065.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC196"/>
+  <dimension ref="A1:AC200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17018,6 +17018,366 @@
         </is>
       </c>
     </row>
+    <row r="197">
+      <c r="A197" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:50+00:00</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>411.61</v>
+      </c>
+      <c r="C197" t="n">
+        <v>398.06</v>
+      </c>
+      <c r="D197" t="n">
+        <v>380.24</v>
+      </c>
+      <c r="E197" t="n">
+        <v>374.08</v>
+      </c>
+      <c r="F197" t="n">
+        <v>370.9242857142857</v>
+      </c>
+      <c r="G197" t="n">
+        <v>370.46</v>
+      </c>
+      <c r="H197" t="n">
+        <v>369.5942857142857</v>
+      </c>
+      <c r="I197" t="n">
+        <v>371.1842857142857</v>
+      </c>
+      <c r="J197" t="n">
+        <v>373.17</v>
+      </c>
+      <c r="K197" t="n">
+        <v>367.11</v>
+      </c>
+      <c r="L197" t="n">
+        <v>360.02</v>
+      </c>
+      <c r="M197" t="n">
+        <v>355.7542857142857</v>
+      </c>
+      <c r="N197" t="n">
+        <v>353.33</v>
+      </c>
+      <c r="O197" t="n">
+        <v>354.37</v>
+      </c>
+      <c r="P197" t="n">
+        <v>350.8366666666667</v>
+      </c>
+      <c r="Q197" t="n">
+        <v>352.8842857142857</v>
+      </c>
+      <c r="R197" t="n">
+        <v>349.97</v>
+      </c>
+      <c r="S197" t="n">
+        <v>350.5066666666667</v>
+      </c>
+      <c r="T197" t="n">
+        <v>365.09</v>
+      </c>
+      <c r="U197" t="n">
+        <v>364.1242857142857</v>
+      </c>
+      <c r="V197" t="n">
+        <v>357.9042857142857</v>
+      </c>
+      <c r="W197" t="n">
+        <v>348.6566666666667</v>
+      </c>
+      <c r="X197" t="n">
+        <v>349.52</v>
+      </c>
+      <c r="Y197" t="n">
+        <v>360.9942857142857</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>336.36</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>320.9146153846153</v>
+      </c>
+      <c r="AB197" t="n">
+        <v>329.87</v>
+      </c>
+      <c r="AC197" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:17:16+00:00</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>407.72</v>
+      </c>
+      <c r="C198" t="n">
+        <v>388.47</v>
+      </c>
+      <c r="D198" t="n">
+        <v>376.32</v>
+      </c>
+      <c r="E198" t="n">
+        <v>368.55</v>
+      </c>
+      <c r="F198" t="n">
+        <v>371.3971428571429</v>
+      </c>
+      <c r="G198" t="n">
+        <v>373.24</v>
+      </c>
+      <c r="H198" t="n">
+        <v>372.3971428571429</v>
+      </c>
+      <c r="I198" t="n">
+        <v>361.5971428571429</v>
+      </c>
+      <c r="J198" t="n">
+        <v>357.9</v>
+      </c>
+      <c r="K198" t="n">
+        <v>360.68</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
+        <v>350.55</v>
+      </c>
+      <c r="O198" t="n">
+        <v>351.73</v>
+      </c>
+      <c r="P198" t="n">
+        <v>352.64</v>
+      </c>
+      <c r="Q198" t="n">
+        <v>340.8071428571428</v>
+      </c>
+      <c r="R198" t="n">
+        <v>350.66</v>
+      </c>
+      <c r="S198" t="n">
+        <v>336.49</v>
+      </c>
+      <c r="T198" t="n">
+        <v>351.58</v>
+      </c>
+      <c r="U198" t="n">
+        <v>348.2671428571429</v>
+      </c>
+      <c r="V198" t="n">
+        <v>345.0271428571428</v>
+      </c>
+      <c r="W198" t="n">
+        <v>343.01</v>
+      </c>
+      <c r="X198" t="n">
+        <v>356.17</v>
+      </c>
+      <c r="Y198" t="n">
+        <v>360.8971428571429</v>
+      </c>
+      <c r="Z198" t="n">
+        <v>335.08</v>
+      </c>
+      <c r="AA198" t="n">
+        <v>319.7915384615384</v>
+      </c>
+      <c r="AB198" t="n">
+        <v>324.51</v>
+      </c>
+      <c r="AC198" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:17:25+00:00</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr"/>
+      <c r="C199" t="inlineStr"/>
+      <c r="D199" t="n">
+        <v>398.16</v>
+      </c>
+      <c r="E199" t="n">
+        <v>390.58</v>
+      </c>
+      <c r="F199" t="n">
+        <v>382.3471428571429</v>
+      </c>
+      <c r="G199" t="n">
+        <v>379.1</v>
+      </c>
+      <c r="H199" t="n">
+        <v>369.1771428571428</v>
+      </c>
+      <c r="I199" t="n">
+        <v>366.2071428571429</v>
+      </c>
+      <c r="J199" t="n">
+        <v>360.42</v>
+      </c>
+      <c r="K199" t="n">
+        <v>354.28</v>
+      </c>
+      <c r="L199" t="n">
+        <v>365.3166666666667</v>
+      </c>
+      <c r="M199" t="n">
+        <v>367.3071428571428</v>
+      </c>
+      <c r="N199" t="n">
+        <v>357.98</v>
+      </c>
+      <c r="O199" t="n">
+        <v>346.42</v>
+      </c>
+      <c r="P199" t="n">
+        <v>340.2877777777778</v>
+      </c>
+      <c r="Q199" t="n">
+        <v>346.3471428571428</v>
+      </c>
+      <c r="R199" t="n">
+        <v>314.12</v>
+      </c>
+      <c r="S199" t="n">
+        <v>306.2877777777778</v>
+      </c>
+      <c r="T199" t="inlineStr"/>
+      <c r="U199" t="n">
+        <v>346.6471428571429</v>
+      </c>
+      <c r="V199" t="n">
+        <v>335.3971428571429</v>
+      </c>
+      <c r="W199" t="n">
+        <v>324.6977777777778</v>
+      </c>
+      <c r="X199" t="n">
+        <v>354.04</v>
+      </c>
+      <c r="Y199" t="n">
+        <v>378.6071428571428</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>359.54</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>333.7307692307692</v>
+      </c>
+      <c r="AB199" t="n">
+        <v>358.76</v>
+      </c>
+      <c r="AC199" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:41+00:00</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>412.4</v>
+      </c>
+      <c r="C200" t="n">
+        <v>413</v>
+      </c>
+      <c r="D200" t="n">
+        <v>401.24</v>
+      </c>
+      <c r="E200" t="n">
+        <v>376.49</v>
+      </c>
+      <c r="F200" t="n">
+        <v>358.86</v>
+      </c>
+      <c r="G200" t="n">
+        <v>348.43</v>
+      </c>
+      <c r="H200" t="n">
+        <v>345.91</v>
+      </c>
+      <c r="I200" t="n">
+        <v>348.07</v>
+      </c>
+      <c r="J200" t="n">
+        <v>344.06</v>
+      </c>
+      <c r="K200" t="n">
+        <v>340.83</v>
+      </c>
+      <c r="L200" t="n">
+        <v>357.08</v>
+      </c>
+      <c r="M200" t="n">
+        <v>360.19</v>
+      </c>
+      <c r="N200" t="n">
+        <v>356.79</v>
+      </c>
+      <c r="O200" t="n">
+        <v>354.07</v>
+      </c>
+      <c r="P200" t="n">
+        <v>344.27</v>
+      </c>
+      <c r="Q200" t="n">
+        <v>336.93</v>
+      </c>
+      <c r="R200" t="n">
+        <v>344.67</v>
+      </c>
+      <c r="S200" t="inlineStr"/>
+      <c r="T200" t="n">
+        <v>363.7</v>
+      </c>
+      <c r="U200" t="n">
+        <v>358.63</v>
+      </c>
+      <c r="V200" t="n">
+        <v>345.88</v>
+      </c>
+      <c r="W200" t="n">
+        <v>342.01</v>
+      </c>
+      <c r="X200" t="n">
+        <v>335.28</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>344.26</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>327.24</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>304.7353846153846</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>325.86</v>
+      </c>
+      <c r="AC200" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17029,7 +17389,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B199"/>
+  <dimension ref="A1:B203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19027,6 +19387,46 @@
       </c>
       <c r="B199" t="n">
         <v>1.57</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>-0.63</v>
       </c>
     </row>
   </sheetData>
@@ -19194,28 +19594,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>-1.383986932689108</v>
+        <v>-1.198943417802847</v>
       </c>
       <c r="J2" t="n">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K2" t="n">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2075988733062667</v>
+        <v>0.1591514501414176</v>
       </c>
       <c r="M2" t="n">
-        <v>16.5167905237719</v>
+        <v>17.05168916980702</v>
       </c>
       <c r="N2" t="n">
-        <v>421.6226704884439</v>
+        <v>450.9200971750389</v>
       </c>
       <c r="O2" t="n">
-        <v>20.5334524736695</v>
+        <v>21.23487925972358</v>
       </c>
       <c r="P2" t="n">
-        <v>402.513201947498</v>
+        <v>400.8776406894166</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19266,28 +19666,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.9319800853397083</v>
+        <v>-0.8116312345654089</v>
       </c>
       <c r="J3" t="n">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K3" t="n">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1166779554960697</v>
+        <v>0.08871595588966086</v>
       </c>
       <c r="M3" t="n">
-        <v>14.96740006389568</v>
+        <v>15.27330090662226</v>
       </c>
       <c r="N3" t="n">
-        <v>387.1818898231578</v>
+        <v>405.6405187164755</v>
       </c>
       <c r="O3" t="n">
-        <v>19.67693801949779</v>
+        <v>20.14051932588819</v>
       </c>
       <c r="P3" t="n">
-        <v>386.3870584655797</v>
+        <v>385.284402017122</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19344,28 +19744,28 @@
         <v>0.0446</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.4280853398114537</v>
+        <v>-0.3263295510273013</v>
       </c>
       <c r="J4" t="n">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K4" t="n">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04615374825685625</v>
+        <v>0.02681290354352273</v>
       </c>
       <c r="M4" t="n">
-        <v>11.75037763391214</v>
+        <v>12.01306622932904</v>
       </c>
       <c r="N4" t="n">
-        <v>220.2056789467283</v>
+        <v>230.3101546050958</v>
       </c>
       <c r="O4" t="n">
-        <v>14.83932879030343</v>
+        <v>15.17597293767671</v>
       </c>
       <c r="P4" t="n">
-        <v>375.9019742196718</v>
+        <v>374.9675336935002</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19422,28 +19822,28 @@
         <v>0.0489</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.07772652903926527</v>
+        <v>-0.03001589772483386</v>
       </c>
       <c r="J5" t="n">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K5" t="n">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001442280084367531</v>
+        <v>0.0002212699523899131</v>
       </c>
       <c r="M5" t="n">
-        <v>12.52933992065479</v>
+        <v>12.518370897525</v>
       </c>
       <c r="N5" t="n">
-        <v>239.8905556892491</v>
+        <v>238.794214371096</v>
       </c>
       <c r="O5" t="n">
-        <v>15.48840068209914</v>
+        <v>15.45296781757783</v>
       </c>
       <c r="P5" t="n">
-        <v>367.8066466518972</v>
+        <v>367.3589144737857</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -19500,28 +19900,28 @@
         <v>0.0401</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.05343687372060296</v>
+        <v>-0.03076195991038804</v>
       </c>
       <c r="J6" t="n">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K6" t="n">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0006310955828802145</v>
+        <v>0.0002169588606949491</v>
       </c>
       <c r="M6" t="n">
-        <v>12.35113262811979</v>
+        <v>12.26763470664986</v>
       </c>
       <c r="N6" t="n">
-        <v>256.59425033938</v>
+        <v>253.0307947184591</v>
       </c>
       <c r="O6" t="n">
-        <v>16.01855955881739</v>
+        <v>15.90694171481304</v>
       </c>
       <c r="P6" t="n">
-        <v>366.6774665602405</v>
+        <v>366.4632646008557</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -19578,28 +19978,28 @@
         <v>0.0424</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2096160487867284</v>
+        <v>-0.1757873724939759</v>
       </c>
       <c r="J7" t="n">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K7" t="n">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0128046130585161</v>
+        <v>0.009225701020741828</v>
       </c>
       <c r="M7" t="n">
-        <v>10.87499325008533</v>
+        <v>10.92648182947551</v>
       </c>
       <c r="N7" t="n">
-        <v>190.4471539107555</v>
+        <v>190.6269433885525</v>
       </c>
       <c r="O7" t="n">
-        <v>13.80025919723088</v>
+        <v>13.80677164975768</v>
       </c>
       <c r="P7" t="n">
-        <v>364.9070422379148</v>
+        <v>364.5829777549636</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -19656,28 +20056,28 @@
         <v>0.0369</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1859556738558253</v>
+        <v>-0.1570832173270712</v>
       </c>
       <c r="J8" t="n">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K8" t="n">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01089210848742228</v>
+        <v>0.007987334579987904</v>
       </c>
       <c r="M8" t="n">
-        <v>10.49725416230854</v>
+        <v>10.5564758709986</v>
       </c>
       <c r="N8" t="n">
-        <v>176.1472473944407</v>
+        <v>175.7759887655221</v>
       </c>
       <c r="O8" t="n">
-        <v>13.27204759614886</v>
+        <v>13.25805373218566</v>
       </c>
       <c r="P8" t="n">
-        <v>361.9895502365775</v>
+        <v>361.7142783288475</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -19734,28 +20134,28 @@
         <v>0.038</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.6590742117609502</v>
+        <v>-0.5920923976419966</v>
       </c>
       <c r="J9" t="n">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K9" t="n">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="L9" t="n">
-        <v>0.09026005949775717</v>
+        <v>0.0750299827706552</v>
       </c>
       <c r="M9" t="n">
-        <v>13.30290266746884</v>
+        <v>13.36354747622457</v>
       </c>
       <c r="N9" t="n">
-        <v>247.945836959428</v>
+        <v>249.838791391687</v>
       </c>
       <c r="O9" t="n">
-        <v>15.74629597586137</v>
+        <v>15.80628961495034</v>
       </c>
       <c r="P9" t="n">
-        <v>361.9787636688525</v>
+        <v>361.3367675593255</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -19812,28 +20212,28 @@
         <v>0.0273</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.6293109763716027</v>
+        <v>-0.5282520495072039</v>
       </c>
       <c r="J10" t="n">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K10" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05795503371373811</v>
+        <v>0.04188440066583665</v>
       </c>
       <c r="M10" t="n">
-        <v>15.28910963267306</v>
+        <v>15.44033585876642</v>
       </c>
       <c r="N10" t="n">
-        <v>358.4839150791697</v>
+        <v>364.03257019771</v>
       </c>
       <c r="O10" t="n">
-        <v>18.9336714632733</v>
+        <v>19.0796375803554</v>
       </c>
       <c r="P10" t="n">
-        <v>352.2484531526183</v>
+        <v>351.276059596466</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -19890,28 +20290,28 @@
         <v>0.0212</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.7071269505437229</v>
+        <v>-0.5923998941767852</v>
       </c>
       <c r="J11" t="n">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K11" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05380470977442608</v>
+        <v>0.03900572379129297</v>
       </c>
       <c r="M11" t="n">
-        <v>17.95749836448978</v>
+        <v>18.1393113579986</v>
       </c>
       <c r="N11" t="n">
-        <v>499.0487989940326</v>
+        <v>503.5679347237463</v>
       </c>
       <c r="O11" t="n">
-        <v>22.33940014848278</v>
+        <v>22.44031939887992</v>
       </c>
       <c r="P11" t="n">
-        <v>348.6103667219636</v>
+        <v>347.5346644528001</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -19968,28 +20368,28 @@
         <v>0.0314</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.8192412180222824</v>
+        <v>-0.7234445630095168</v>
       </c>
       <c r="J12" t="n">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K12" t="n">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1172481179210707</v>
+        <v>0.09226619085689136</v>
       </c>
       <c r="M12" t="n">
-        <v>13.50631086948103</v>
+        <v>13.72925310858824</v>
       </c>
       <c r="N12" t="n">
-        <v>284.5335863631917</v>
+        <v>294.8851818280328</v>
       </c>
       <c r="O12" t="n">
-        <v>16.86812338000857</v>
+        <v>17.17222122580631</v>
       </c>
       <c r="P12" t="n">
-        <v>351.3835642190055</v>
+        <v>350.4672408571653</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -20046,28 +20446,28 @@
         <v>0.0377</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.6551491040653459</v>
+        <v>-0.563092340894346</v>
       </c>
       <c r="J13" t="n">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K13" t="n">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L13" t="n">
-        <v>0.08727103631377087</v>
+        <v>0.06478205775510026</v>
       </c>
       <c r="M13" t="n">
-        <v>12.44061833574183</v>
+        <v>12.68798402985682</v>
       </c>
       <c r="N13" t="n">
-        <v>250.6543689730566</v>
+        <v>260.1955601474361</v>
       </c>
       <c r="O13" t="n">
-        <v>15.8320677415509</v>
+        <v>16.13057841949371</v>
       </c>
       <c r="P13" t="n">
-        <v>349.0502579832045</v>
+        <v>348.1709211725851</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -20124,28 +20524,28 @@
         <v>0.0462</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.6614882056686598</v>
+        <v>-0.5406695331524386</v>
       </c>
       <c r="J14" t="n">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K14" t="n">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L14" t="n">
-        <v>0.08636219158801894</v>
+        <v>0.05848867495125232</v>
       </c>
       <c r="M14" t="n">
-        <v>13.06273562761484</v>
+        <v>13.36560788156222</v>
       </c>
       <c r="N14" t="n">
-        <v>257.287021508398</v>
+        <v>268.3660583825415</v>
       </c>
       <c r="O14" t="n">
-        <v>16.04016899874805</v>
+        <v>16.38188201589004</v>
       </c>
       <c r="P14" t="n">
-        <v>343.3637281724372</v>
+        <v>342.2258790254257</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -20202,28 +20602,28 @@
         <v>0.0426</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.6305514367826337</v>
+        <v>-0.5115380330266329</v>
       </c>
       <c r="J15" t="n">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K15" t="n">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L15" t="n">
-        <v>0.06246534875269105</v>
+        <v>0.04183533197540479</v>
       </c>
       <c r="M15" t="n">
-        <v>14.91401011509796</v>
+        <v>15.17484496770064</v>
       </c>
       <c r="N15" t="n">
-        <v>333.3253772817382</v>
+        <v>342.6304902667636</v>
       </c>
       <c r="O15" t="n">
-        <v>18.25720069675902</v>
+        <v>18.51028066418128</v>
       </c>
       <c r="P15" t="n">
-        <v>339.9139848772667</v>
+        <v>338.7738469016056</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -20280,28 +20680,28 @@
         <v>0.0499</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.6389339956243194</v>
+        <v>-0.517577016090468</v>
       </c>
       <c r="J16" t="n">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K16" t="n">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0576499477411635</v>
+        <v>0.03855922980146331</v>
       </c>
       <c r="M16" t="n">
-        <v>15.47522815598655</v>
+        <v>15.70606580284694</v>
       </c>
       <c r="N16" t="n">
-        <v>376.6690314177475</v>
+        <v>385.880270734027</v>
       </c>
       <c r="O16" t="n">
-        <v>19.40796309296129</v>
+        <v>19.64383543847858</v>
       </c>
       <c r="P16" t="n">
-        <v>335.1324057719883</v>
+        <v>333.9772514370871</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -20358,28 +20758,28 @@
         <v>0.0388</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.6045365597369251</v>
+        <v>-0.5299195381344252</v>
       </c>
       <c r="J17" t="n">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K17" t="n">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="L17" t="n">
-        <v>0.06522580326079253</v>
+        <v>0.05205515673061611</v>
       </c>
       <c r="M17" t="n">
-        <v>13.70232355203791</v>
+        <v>13.74746665932721</v>
       </c>
       <c r="N17" t="n">
-        <v>296.4215027098851</v>
+        <v>296.6804480748777</v>
       </c>
       <c r="O17" t="n">
-        <v>17.216895850004</v>
+        <v>17.22441430281093</v>
       </c>
       <c r="P17" t="n">
-        <v>342.572326730046</v>
+        <v>341.8710525001207</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -20430,28 +20830,28 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>-1.093861725106554</v>
+        <v>-0.9777936620387717</v>
       </c>
       <c r="J18" t="n">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K18" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1490983555237493</v>
+        <v>0.1219912252696037</v>
       </c>
       <c r="M18" t="n">
-        <v>14.4613503787004</v>
+        <v>14.69771494859209</v>
       </c>
       <c r="N18" t="n">
-        <v>353.7230681749825</v>
+        <v>364.7213736845669</v>
       </c>
       <c r="O18" t="n">
-        <v>18.80752690214698</v>
+        <v>19.09767979846156</v>
       </c>
       <c r="P18" t="n">
-        <v>343.2467492543716</v>
+        <v>342.052893807368</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -20508,28 +20908,28 @@
         <v>0.0528</v>
       </c>
       <c r="I19" t="n">
-        <v>-1.183828455973008</v>
+        <v>-1.112297807859192</v>
       </c>
       <c r="J19" t="n">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K19" t="n">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1512694969682152</v>
+        <v>0.1367867636343046</v>
       </c>
       <c r="M19" t="n">
-        <v>15.93340657337476</v>
+        <v>16.04181746133916</v>
       </c>
       <c r="N19" t="n">
-        <v>423.2050019844353</v>
+        <v>428.782134189726</v>
       </c>
       <c r="O19" t="n">
-        <v>20.57194696630427</v>
+        <v>20.70705517908633</v>
       </c>
       <c r="P19" t="n">
-        <v>341.0445540873568</v>
+        <v>340.3498402885387</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -20580,28 +20980,28 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>-1.202895686017458</v>
+        <v>-1.043259807214762</v>
       </c>
       <c r="J20" t="n">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K20" t="n">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1941053669225347</v>
+        <v>0.1455615836484457</v>
       </c>
       <c r="M20" t="n">
-        <v>14.33736513658657</v>
+        <v>14.83727223687883</v>
       </c>
       <c r="N20" t="n">
-        <v>331.8207993464389</v>
+        <v>360.4673226581216</v>
       </c>
       <c r="O20" t="n">
-        <v>18.21594903776465</v>
+        <v>18.98597700035797</v>
       </c>
       <c r="P20" t="n">
-        <v>347.4813083189824</v>
+        <v>345.9590828417779</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -20658,28 +21058,28 @@
         <v>0.0369</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.9830714785524015</v>
+        <v>-0.8353022542988181</v>
       </c>
       <c r="J21" t="n">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K21" t="n">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1693228213073797</v>
+        <v>0.1233998451785626</v>
       </c>
       <c r="M21" t="n">
-        <v>12.84097403397924</v>
+        <v>13.29219449649235</v>
       </c>
       <c r="N21" t="n">
-        <v>267.8835969705627</v>
+        <v>287.1381645926728</v>
       </c>
       <c r="O21" t="n">
-        <v>16.36714993426048</v>
+        <v>16.94515165446072</v>
       </c>
       <c r="P21" t="n">
-        <v>346.8106575954583</v>
+        <v>345.4121206981888</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -20736,28 +21136,28 @@
         <v>0.0414</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.9538246106345905</v>
+        <v>-0.8604499035624488</v>
       </c>
       <c r="J22" t="n">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K22" t="n">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1529718402190766</v>
+        <v>0.1284719299241434</v>
       </c>
       <c r="M22" t="n">
-        <v>13.97525490008404</v>
+        <v>14.17935861653058</v>
       </c>
       <c r="N22" t="n">
-        <v>288.7582821074815</v>
+        <v>294.5222304990983</v>
       </c>
       <c r="O22" t="n">
-        <v>16.99288916304351</v>
+        <v>17.16164999349125</v>
       </c>
       <c r="P22" t="n">
-        <v>347.7569022389029</v>
+        <v>346.8823939022475</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -20814,28 +21214,28 @@
         <v>0.0554</v>
       </c>
       <c r="I23" t="n">
-        <v>-1.208561404148439</v>
+        <v>-1.098325205339369</v>
       </c>
       <c r="J23" t="n">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K23" t="n">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2285786321404585</v>
+        <v>0.1947696037217024</v>
       </c>
       <c r="M23" t="n">
-        <v>13.17743644809401</v>
+        <v>13.4530307871214</v>
       </c>
       <c r="N23" t="n">
-        <v>280.4469201723571</v>
+        <v>290.4965630317499</v>
       </c>
       <c r="O23" t="n">
-        <v>16.74654950048986</v>
+        <v>17.04395972278009</v>
       </c>
       <c r="P23" t="n">
-        <v>344.3595336995728</v>
+        <v>343.3230311474953</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -20892,28 +21292,28 @@
         <v>0.0559</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.9218019388800919</v>
+        <v>-0.8098404318876489</v>
       </c>
       <c r="J24" t="n">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K24" t="n">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1291923464386773</v>
+        <v>0.1019614526881935</v>
       </c>
       <c r="M24" t="n">
-        <v>14.12566333782951</v>
+        <v>14.39312576415714</v>
       </c>
       <c r="N24" t="n">
-        <v>324.75810013053</v>
+        <v>334.7584187034605</v>
       </c>
       <c r="O24" t="n">
-        <v>18.02104603319491</v>
+        <v>18.29640452940032</v>
       </c>
       <c r="P24" t="n">
-        <v>344.9142204224158</v>
+        <v>343.8500345505157</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -20970,28 +21370,28 @@
         <v>0.0414</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.295082459578328</v>
+        <v>-0.2417013324398614</v>
       </c>
       <c r="J25" t="n">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K25" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0207423292571296</v>
+        <v>0.01430172481250713</v>
       </c>
       <c r="M25" t="n">
-        <v>12.29116652662977</v>
+        <v>12.30650982639607</v>
       </c>
       <c r="N25" t="n">
-        <v>240.2837799330399</v>
+        <v>241.2046663106533</v>
       </c>
       <c r="O25" t="n">
-        <v>15.50108963695907</v>
+        <v>15.53076515535063</v>
       </c>
       <c r="P25" t="n">
-        <v>356.9262828766442</v>
+        <v>356.4325319236821</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -21048,28 +21448,28 @@
         <v>0.0474</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.63134579898564</v>
+        <v>-0.5697245427405735</v>
       </c>
       <c r="J26" t="n">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K26" t="n">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L26" t="n">
-        <v>0.1097330357308097</v>
+        <v>0.09152732669067354</v>
       </c>
       <c r="M26" t="n">
-        <v>10.68796814359505</v>
+        <v>10.74879910303246</v>
       </c>
       <c r="N26" t="n">
-        <v>183.8061360121378</v>
+        <v>187.4776414642648</v>
       </c>
       <c r="O26" t="n">
-        <v>13.55751216160759</v>
+        <v>13.69224749499748</v>
       </c>
       <c r="P26" t="n">
-        <v>341.1749614333704</v>
+        <v>340.5941480684491</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -21120,28 +21520,28 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>-1.014370190698596</v>
+        <v>-0.9203524255601588</v>
       </c>
       <c r="J27" t="n">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K27" t="n">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L27" t="n">
-        <v>0.1024723632346748</v>
+        <v>0.08781541788521641</v>
       </c>
       <c r="M27" t="n">
-        <v>17.41127184949664</v>
+        <v>17.39427076249675</v>
       </c>
       <c r="N27" t="n">
-        <v>497.0705210585176</v>
+        <v>496.7244912919936</v>
       </c>
       <c r="O27" t="n">
-        <v>22.29507840440391</v>
+        <v>22.28731682576424</v>
       </c>
       <c r="P27" t="n">
-        <v>325.4565419404379</v>
+        <v>324.5350198930962</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -21198,28 +21598,28 @@
         <v>0.0321</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.4451661900554491</v>
+        <v>-0.3990208905900017</v>
       </c>
       <c r="J28" t="n">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K28" t="n">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="L28" t="n">
-        <v>0.02028378125635943</v>
+        <v>0.01686811567396007</v>
       </c>
       <c r="M28" t="n">
-        <v>18.00129433027023</v>
+        <v>17.8037615267179</v>
       </c>
       <c r="N28" t="n">
-        <v>541.7018409907741</v>
+        <v>536.1517808570245</v>
       </c>
       <c r="O28" t="n">
-        <v>23.27448905971459</v>
+        <v>23.15495154080493</v>
       </c>
       <c r="P28" t="n">
-        <v>335.1314287583746</v>
+        <v>334.6857541833566</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -21257,7 +21657,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC196"/>
+  <dimension ref="A1:AC200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46677,6 +47077,570 @@
         </is>
       </c>
     </row>
+    <row r="197">
+      <c r="A197" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:50+00:00</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>-35.26815160643465,173.13696871290196</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>-35.26751075290455,173.13650633944545</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>-35.26684517875341,173.13607996048876</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>-35.26624709624372,173.13555528824475</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>-35.265666400586554,173.1350052900485</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>-35.265101280586514,173.1344326035298</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>-35.26453383303677,173.1338633009183</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>-35.263980596467185,173.13327329730666</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>-35.263429646482244,173.13267995804836</t>
+        </is>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>-35.262832120492924,173.13215444140783</t>
+        </is>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>-35.262228628832595,173.13163760682986</t>
+        </is>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>-35.26164148164519,173.13109696426108</t>
+        </is>
+      </c>
+      <c r="N197" t="inlineStr">
+        <is>
+          <t>-35.261064989607924,173.13054079903227</t>
+        </is>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>-35.26050854622147,173.12995543146442</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>-35.25992562702669,173.12940861471137</t>
+        </is>
+      </c>
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>-35.25937500822668,173.1288147534772</t>
+        </is>
+      </c>
+      <c r="R197" t="inlineStr">
+        <is>
+          <t>-35.258795664646726,173.1282627182511</t>
+        </is>
+      </c>
+      <c r="S197" t="inlineStr">
+        <is>
+          <t>-35.25823629221821,173.1276815934941</t>
+        </is>
+      </c>
+      <c r="T197" t="inlineStr">
+        <is>
+          <t>-35.25775822077896,173.1269820645717</t>
+        </is>
+      </c>
+      <c r="U197" t="inlineStr">
+        <is>
+          <t>-35.25719014408685,173.1264136043653</t>
+        </is>
+      </c>
+      <c r="V197" t="inlineStr">
+        <is>
+          <t>-35.2565916509583,173.12588943396983</t>
+        </is>
+      </c>
+      <c r="W197" t="inlineStr">
+        <is>
+          <t>-35.25597562997441,173.12539078366962</t>
+        </is>
+      </c>
+      <c r="X197" t="inlineStr">
+        <is>
+          <t>-35.25541812877411,173.12480690541477</t>
+        </is>
+      </c>
+      <c r="Y197" t="inlineStr">
+        <is>
+          <t>-35.25492204060132,173.1241335855295</t>
+        </is>
+      </c>
+      <c r="Z197" t="inlineStr">
+        <is>
+          <t>-35.25421694968036,173.12376463085712</t>
+        </is>
+      </c>
+      <c r="AA197" t="inlineStr">
+        <is>
+          <t>-35.253565041539375,173.12331821997216</t>
+        </is>
+      </c>
+      <c r="AB197" t="inlineStr">
+        <is>
+          <t>-35.253054362272714,173.12266613263566</t>
+        </is>
+      </c>
+      <c r="AC197" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:17:16+00:00</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>-35.268129088662235,173.13700150549022</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>-35.2674552400912,173.13658718238054</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>-35.26682248745009,173.1361130055827</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>-35.26621508541676,173.13560190521127</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>-35.26566913774416,173.13500130395752</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>-35.265117372685474,173.1344091687716</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>-35.26455005737459,173.13383967357044</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>-35.26392510151266,173.13335411404364</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>-35.26334125682369,173.13280867907108</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>-35.26279490090633,173.13220864395555</t>
+        </is>
+      </c>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="inlineStr">
+        <is>
+          <t>-35.261048897974206,173.1305642331139</t>
+        </is>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>-35.26049326502709,173.1299776853332</t>
+        </is>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>-35.259936065272555,173.12939341358012</t>
+        </is>
+      </c>
+      <c r="Q198" t="inlineStr">
+        <is>
+          <t>-35.25930510229756,173.1289165568541</t>
+        </is>
+      </c>
+      <c r="R198" t="inlineStr">
+        <is>
+          <t>-35.2587996585434,173.1282569019662</t>
+        </is>
+      </c>
+      <c r="S198" t="inlineStr">
+        <is>
+          <t>-35.25815516046457,173.1277997450072</t>
+        </is>
+      </c>
+      <c r="T198" t="inlineStr">
+        <is>
+          <t>-35.257680022194755,173.12709594502633</t>
+        </is>
+      </c>
+      <c r="U198" t="inlineStr">
+        <is>
+          <t>-35.25709836015563,173.12654726915946</t>
+        </is>
+      </c>
+      <c r="V198" t="inlineStr">
+        <is>
+          <t>-35.256517116084595,173.1259979789393</t>
+        </is>
+      </c>
+      <c r="W198" t="inlineStr">
+        <is>
+          <t>-35.25594294632922,173.12543838075666</t>
+        </is>
+      </c>
+      <c r="X198" t="inlineStr">
+        <is>
+          <t>-35.25545661964622,173.12475085114676</t>
+        </is>
+      </c>
+      <c r="Y198" t="inlineStr">
+        <is>
+          <t>-35.254921478331596,173.12413440436526</t>
+        </is>
+      </c>
+      <c r="Z198" t="inlineStr">
+        <is>
+          <t>-35.25420954096354,173.1237754201435</t>
+        </is>
+      </c>
+      <c r="AA198" t="inlineStr">
+        <is>
+          <t>-35.25355854112129,173.12332768647758</t>
+        </is>
+      </c>
+      <c r="AB198" t="inlineStr">
+        <is>
+          <t>-35.253023338518304,173.12271131238123</t>
+        </is>
+      </c>
+      <c r="AC198" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:17:25+00:00</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr"/>
+      <c r="C199" t="inlineStr"/>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>-35.2669489103102,173.13592889696727</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>-35.26634260764547,173.13541619581187</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>-35.26573252233857,173.1349089975762</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>-35.26515129342593,173.13435977029408</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>-35.26453141840507,173.13386681732197</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>-35.26395178639773,173.13331525314098</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>-35.26335584373163,173.13278743632824</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>-35.262757854948326,173.13226259356503</t>
+        </is>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>-35.26225928807006,173.13159295804138</t>
+        </is>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>-35.261708353942076,173.130999578659</t>
+        </is>
+      </c>
+      <c r="N199" t="inlineStr">
+        <is>
+          <t>-35.26109190545984,173.13050160171673</t>
+        </is>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>-35.260462528975935,173.1300224459302</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>-35.25986456678722,173.12949753609973</t>
+        </is>
+      </c>
+      <c r="Q199" t="inlineStr">
+        <is>
+          <t>-35.259337169399934,173.12886985785815</t>
+        </is>
+      </c>
+      <c r="R199" t="inlineStr">
+        <is>
+          <t>-35.25858815528023,173.12856491139746</t>
+        </is>
+      </c>
+      <c r="S199" t="inlineStr">
+        <is>
+          <t>-35.257980342525734,173.12805432957538</t>
+        </is>
+      </c>
+      <c r="T199" t="inlineStr"/>
+      <c r="U199" t="inlineStr">
+        <is>
+          <t>-35.25708898330242,173.12656092462683</t>
+        </is>
+      </c>
+      <c r="V199" t="inlineStr">
+        <is>
+          <t>-35.25646137610676,173.12607915272093</t>
+        </is>
+      </c>
+      <c r="W199" t="inlineStr">
+        <is>
+          <t>-35.255836952662456,173.12559273853992</t>
+        </is>
+      </c>
+      <c r="X199" t="inlineStr">
+        <is>
+          <t>-35.25544429099378,173.1247688053767</t>
+        </is>
+      </c>
+      <c r="Y199" t="inlineStr">
+        <is>
+          <t>-35.25502398497177,173.12398512319538</t>
+        </is>
+      </c>
+      <c r="Z199" t="inlineStr">
+        <is>
+          <t>-35.25435111674413,173.12356924328452</t>
+        </is>
+      </c>
+      <c r="AA199" t="inlineStr">
+        <is>
+          <t>-35.25363922194265,173.1232101914767</t>
+        </is>
+      </c>
+      <c r="AB199" t="inlineStr">
+        <is>
+          <t>-35.253221577701865,173.12242261658545</t>
+        </is>
+      </c>
+      <c r="AC199" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:41+00:00</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>-35.2681561794516,173.13696205322245</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>-35.26759723469746,173.1363803962172</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>-35.26696673915243,173.13590293288573</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>-35.26626104670696,173.13553497234005</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>-35.26559656581114,173.13510698946945</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>-35.26497375922367,173.13461831101608</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>-35.26439673637031,173.1340629528359</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>-35.26384679986706,173.13346814361063</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>-35.26326114453228,173.1329253454276</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>-35.26268000047342,173.13237597188106</t>
+        </is>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>-35.262211610922726,173.1316623898433</t>
+        </is>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>-35.261667157242705,173.13105957312203</t>
+        </is>
+      </c>
+      <c r="N200" t="inlineStr">
+        <is>
+          <t>-35.26108501731831,173.1305116328602</t>
+        </is>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>-35.26050680972233,173.1299579603136</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>-35.2598876171318,173.12946396815082</t>
+        </is>
+      </c>
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>-35.25928266027652,173.1289492389042</t>
+        </is>
+      </c>
+      <c r="R200" t="inlineStr">
+        <is>
+          <t>-35.2587649868802,173.12830739404347</t>
+        </is>
+      </c>
+      <c r="S200" t="inlineStr"/>
+      <c r="T200" t="inlineStr">
+        <is>
+          <t>-35.257750175185706,173.12699378137174</t>
+        </is>
+      </c>
+      <c r="U200" t="inlineStr">
+        <is>
+          <t>-35.25715834221182,173.12645991744432</t>
+        </is>
+      </c>
+      <c r="V200" t="inlineStr">
+        <is>
+          <t>-35.25652205255529,173.12599078997866</t>
+        </is>
+      </c>
+      <c r="W200" t="inlineStr">
+        <is>
+          <t>-35.255937158196474,173.12544680998886</t>
+        </is>
+      </c>
+      <c r="X200" t="inlineStr">
+        <is>
+          <t>-35.25533570612708,173.12492693723289</t>
+        </is>
+      </c>
+      <c r="Y200" t="inlineStr">
+        <is>
+          <t>-35.25482518129022,173.12427464186288</t>
+        </is>
+      </c>
+      <c r="Z200" t="inlineStr">
+        <is>
+          <t>-35.25416416255192,173.1238415044796</t>
+        </is>
+      </c>
+      <c r="AA200" t="inlineStr">
+        <is>
+          <t>-35.253471395375975,173.12345459585956</t>
+        </is>
+      </c>
+      <c r="AB200" t="inlineStr">
+        <is>
+          <t>-35.25303115233865,173.12269993315752</t>
+        </is>
+      </c>
+      <c r="AC200" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0065/nzd0065.xlsx
+++ b/data/nzd0065/nzd0065.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -25585,7 +25585,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>-35.26513954272803,173.13437688274064</t>
+          <t>-35.265139542728036,173.13437688274064</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -33796,7 +33796,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>-35.26099923383856,173.1306365583865</t>
+          <t>-35.260999233838554,173.1306365583865</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -45740,7 +45740,7 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>-35.26236261937921,173.1328381654029</t>
+          <t>-35.26236261937922,173.1328381654029</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
@@ -45854,7 +45854,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>-35.26322218815321,173.13298207688933</t>
+          <t>-35.2632221881532,173.13298207688933</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -46967,7 +46967,7 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>-35.26513954272803,173.13437688274064</t>
+          <t>-35.265139542728036,173.13437688274064</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">

--- a/data/nzd0065/nzd0065.xlsx
+++ b/data/nzd0065/nzd0065.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC200"/>
+  <dimension ref="A1:AC201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17378,6 +17378,77 @@
         </is>
       </c>
     </row>
+    <row r="201">
+      <c r="A201" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:36+00:00</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>382.97</v>
+      </c>
+      <c r="C201" t="n">
+        <v>378.23</v>
+      </c>
+      <c r="D201" t="n">
+        <v>377.88</v>
+      </c>
+      <c r="E201" t="n">
+        <v>367.62</v>
+      </c>
+      <c r="F201" t="n">
+        <v>360.1357142857143</v>
+      </c>
+      <c r="G201" t="n">
+        <v>350.44</v>
+      </c>
+      <c r="H201" t="n">
+        <v>348.1157142857143</v>
+      </c>
+      <c r="I201" t="n">
+        <v>349.0557142857143</v>
+      </c>
+      <c r="J201" t="n">
+        <v>345.56</v>
+      </c>
+      <c r="K201" t="n">
+        <v>328.01</v>
+      </c>
+      <c r="L201" t="n">
+        <v>360.1366666666667</v>
+      </c>
+      <c r="M201" t="n">
+        <v>349.7057142857143</v>
+      </c>
+      <c r="N201" t="n">
+        <v>328.22</v>
+      </c>
+      <c r="O201" t="inlineStr"/>
+      <c r="P201" t="n">
+        <v>308.1844444444445</v>
+      </c>
+      <c r="Q201" t="n">
+        <v>301.1257142857143</v>
+      </c>
+      <c r="R201" t="inlineStr"/>
+      <c r="S201" t="inlineStr"/>
+      <c r="T201" t="n">
+        <v>326.82</v>
+      </c>
+      <c r="U201" t="inlineStr"/>
+      <c r="V201" t="inlineStr"/>
+      <c r="W201" t="inlineStr"/>
+      <c r="X201" t="inlineStr"/>
+      <c r="Y201" t="inlineStr"/>
+      <c r="Z201" t="inlineStr"/>
+      <c r="AA201" t="inlineStr"/>
+      <c r="AB201" t="inlineStr"/>
+      <c r="AC201" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17389,7 +17460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B203"/>
+  <dimension ref="A1:B204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19427,6 +19498,16 @@
       </c>
       <c r="B203" t="n">
         <v>-0.63</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>0.92</v>
       </c>
     </row>
   </sheetData>
@@ -19594,28 +19675,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>-1.198943417802847</v>
+        <v>-1.180723282678409</v>
       </c>
       <c r="J2" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K2" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1591514501414176</v>
+        <v>0.156939583913554</v>
       </c>
       <c r="M2" t="n">
-        <v>17.05168916980702</v>
+        <v>17.02249137945097</v>
       </c>
       <c r="N2" t="n">
-        <v>450.9200971750389</v>
+        <v>448.8137980616563</v>
       </c>
       <c r="O2" t="n">
-        <v>21.23487925972358</v>
+        <v>21.18522593841416</v>
       </c>
       <c r="P2" t="n">
-        <v>400.8776406894166</v>
+        <v>400.7150190907799</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19666,28 +19747,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.8116312345654089</v>
+        <v>-0.7967732375904509</v>
       </c>
       <c r="J3" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K3" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08871595588966086</v>
+        <v>0.08649235584201664</v>
       </c>
       <c r="M3" t="n">
-        <v>15.27330090662226</v>
+        <v>15.25479969906542</v>
       </c>
       <c r="N3" t="n">
-        <v>405.6405187164755</v>
+        <v>404.3391800492756</v>
       </c>
       <c r="O3" t="n">
-        <v>20.14051932588819</v>
+        <v>20.10818689114649</v>
       </c>
       <c r="P3" t="n">
-        <v>385.284402017122</v>
+        <v>385.1468910652368</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19744,28 +19825,28 @@
         <v>0.0446</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3263295510273013</v>
+        <v>-0.3143915673013619</v>
       </c>
       <c r="J4" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K4" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02681290354352273</v>
+        <v>0.02514390872378069</v>
       </c>
       <c r="M4" t="n">
-        <v>12.01306622932904</v>
+        <v>12.00887796040274</v>
       </c>
       <c r="N4" t="n">
-        <v>230.3101546050958</v>
+        <v>229.703714081612</v>
       </c>
       <c r="O4" t="n">
-        <v>15.17597293767671</v>
+        <v>15.15597948275241</v>
       </c>
       <c r="P4" t="n">
-        <v>374.9675336935002</v>
+        <v>374.8569432432848</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19822,28 +19903,28 @@
         <v>0.0489</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.03001589772483386</v>
+        <v>-0.0289558661241745</v>
       </c>
       <c r="J5" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K5" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0002212699523899131</v>
+        <v>0.0002082202234612307</v>
       </c>
       <c r="M5" t="n">
-        <v>12.518370897525</v>
+        <v>12.4536169447199</v>
       </c>
       <c r="N5" t="n">
-        <v>238.794214371096</v>
+        <v>237.4510142728077</v>
       </c>
       <c r="O5" t="n">
-        <v>15.45296781757783</v>
+        <v>15.40944561860704</v>
       </c>
       <c r="P5" t="n">
-        <v>367.3589144737857</v>
+        <v>367.348876287833</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -19900,28 +19981,28 @@
         <v>0.0401</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.03076195991038804</v>
+        <v>-0.03641831738146861</v>
       </c>
       <c r="J6" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K6" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0002169588606949491</v>
+        <v>0.0003072166079067795</v>
       </c>
       <c r="M6" t="n">
-        <v>12.26763470664986</v>
+        <v>12.23037791805648</v>
       </c>
       <c r="N6" t="n">
-        <v>253.0307947184591</v>
+        <v>251.7856804348327</v>
       </c>
       <c r="O6" t="n">
-        <v>15.90694171481304</v>
+        <v>15.86775599871742</v>
       </c>
       <c r="P6" t="n">
-        <v>366.4632646008557</v>
+        <v>366.5173136023142</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -19978,28 +20059,28 @@
         <v>0.0424</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1757873724939759</v>
+        <v>-0.1857146875317902</v>
       </c>
       <c r="J7" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K7" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L7" t="n">
-        <v>0.009225701020741828</v>
+        <v>0.01036993650904006</v>
       </c>
       <c r="M7" t="n">
-        <v>10.92648182947551</v>
+        <v>10.92106717916569</v>
       </c>
       <c r="N7" t="n">
-        <v>190.6269433885525</v>
+        <v>190.0617009394485</v>
       </c>
       <c r="O7" t="n">
-        <v>13.80677164975768</v>
+        <v>13.78628669872524</v>
       </c>
       <c r="P7" t="n">
-        <v>364.5829777549636</v>
+        <v>364.679291921048</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20056,28 +20137,28 @@
         <v>0.0369</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1570832173270712</v>
+        <v>-0.1669855818712709</v>
       </c>
       <c r="J8" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K8" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L8" t="n">
-        <v>0.007987334579987904</v>
+        <v>0.009089991336928338</v>
       </c>
       <c r="M8" t="n">
-        <v>10.5564758709986</v>
+        <v>10.546748896305</v>
       </c>
       <c r="N8" t="n">
-        <v>175.7759887655221</v>
+        <v>175.2909792024228</v>
       </c>
       <c r="O8" t="n">
-        <v>13.25805373218566</v>
+        <v>13.23974996751913</v>
       </c>
       <c r="P8" t="n">
-        <v>361.7142783288475</v>
+        <v>361.8099986967349</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -20134,28 +20215,28 @@
         <v>0.038</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.5920923976419966</v>
+        <v>-0.5891233147807974</v>
       </c>
       <c r="J9" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K9" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0750299827706552</v>
+        <v>0.07505931571471203</v>
       </c>
       <c r="M9" t="n">
-        <v>13.36354747622457</v>
+        <v>13.30391384813082</v>
       </c>
       <c r="N9" t="n">
-        <v>249.838791391687</v>
+        <v>248.475021130896</v>
       </c>
       <c r="O9" t="n">
-        <v>15.80628961495034</v>
+        <v>15.76309046890539</v>
       </c>
       <c r="P9" t="n">
-        <v>361.3367675593255</v>
+        <v>361.3079741315535</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -20212,28 +20293,28 @@
         <v>0.0273</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.5282520495072039</v>
+        <v>-0.5194865552623952</v>
       </c>
       <c r="J10" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K10" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04188440066583665</v>
+        <v>0.04098548666543034</v>
       </c>
       <c r="M10" t="n">
-        <v>15.44033585876642</v>
+        <v>15.39185249913966</v>
       </c>
       <c r="N10" t="n">
-        <v>364.03257019771</v>
+        <v>362.1824591742496</v>
       </c>
       <c r="O10" t="n">
-        <v>19.0796375803554</v>
+        <v>19.03109190704122</v>
       </c>
       <c r="P10" t="n">
-        <v>351.276059596466</v>
+        <v>351.1907583291122</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -20290,28 +20371,28 @@
         <v>0.0212</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.5923998941767852</v>
+        <v>-0.597312610410797</v>
       </c>
       <c r="J11" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K11" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03900572379129297</v>
+        <v>0.04009719632761954</v>
       </c>
       <c r="M11" t="n">
-        <v>18.1393113579986</v>
+        <v>18.05273091323107</v>
       </c>
       <c r="N11" t="n">
-        <v>503.5679347237463</v>
+        <v>500.5531518532998</v>
       </c>
       <c r="O11" t="n">
-        <v>22.44031939887992</v>
+        <v>22.37304520742091</v>
       </c>
       <c r="P11" t="n">
-        <v>347.5346644528001</v>
+        <v>347.5812443227434</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -20368,28 +20449,28 @@
         <v>0.0314</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.7234445630095168</v>
+        <v>-0.6937038694477581</v>
       </c>
       <c r="J12" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K12" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L12" t="n">
-        <v>0.09226619085689136</v>
+        <v>0.08516755995917613</v>
       </c>
       <c r="M12" t="n">
-        <v>13.72925310858824</v>
+        <v>13.79676904645872</v>
       </c>
       <c r="N12" t="n">
-        <v>294.8851818280328</v>
+        <v>297.6854602058103</v>
       </c>
       <c r="O12" t="n">
-        <v>17.17222122580631</v>
+        <v>17.25356369582268</v>
       </c>
       <c r="P12" t="n">
-        <v>350.4672408571653</v>
+        <v>350.1800850238924</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -20446,28 +20527,28 @@
         <v>0.0377</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.563092340894346</v>
+        <v>-0.5460390936733065</v>
       </c>
       <c r="J13" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K13" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L13" t="n">
-        <v>0.06478205775510026</v>
+        <v>0.06150218846564293</v>
       </c>
       <c r="M13" t="n">
-        <v>12.68798402985682</v>
+        <v>12.71053008628379</v>
       </c>
       <c r="N13" t="n">
-        <v>260.1955601474361</v>
+        <v>260.1471467982916</v>
       </c>
       <c r="O13" t="n">
-        <v>16.13057841949371</v>
+        <v>16.12907767971534</v>
       </c>
       <c r="P13" t="n">
-        <v>348.1709211725851</v>
+        <v>348.006597564103</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -20524,28 +20605,28 @@
         <v>0.0462</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.5406695331524386</v>
+        <v>-0.5407927332837578</v>
       </c>
       <c r="J14" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K14" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L14" t="n">
-        <v>0.05848867495125232</v>
+        <v>0.05917052753189245</v>
       </c>
       <c r="M14" t="n">
-        <v>13.36560788156222</v>
+        <v>13.29118161961459</v>
       </c>
       <c r="N14" t="n">
-        <v>268.3660583825415</v>
+        <v>266.8584569088991</v>
       </c>
       <c r="O14" t="n">
-        <v>16.38188201589004</v>
+        <v>16.33580291595424</v>
       </c>
       <c r="P14" t="n">
-        <v>342.2258790254257</v>
+        <v>342.2270500135189</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -20605,7 +20686,7 @@
         <v>-0.5115380330266329</v>
       </c>
       <c r="J15" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K15" t="n">
         <v>171</v>
@@ -20680,28 +20761,28 @@
         <v>0.0499</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.517577016090468</v>
+        <v>-0.5310456510910204</v>
       </c>
       <c r="J16" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K16" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L16" t="n">
-        <v>0.03855922980146331</v>
+        <v>0.04086804090406071</v>
       </c>
       <c r="M16" t="n">
-        <v>15.70606580284694</v>
+        <v>15.69270959234163</v>
       </c>
       <c r="N16" t="n">
-        <v>385.880270734027</v>
+        <v>384.5047997927174</v>
       </c>
       <c r="O16" t="n">
-        <v>19.64383543847858</v>
+        <v>19.60879394028907</v>
       </c>
       <c r="P16" t="n">
-        <v>333.9772514370871</v>
+        <v>334.106812374415</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -20758,28 +20839,28 @@
         <v>0.0388</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.5299195381344252</v>
+        <v>-0.5595615997197623</v>
       </c>
       <c r="J17" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K17" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L17" t="n">
-        <v>0.05205515673061611</v>
+        <v>0.05756115070909773</v>
       </c>
       <c r="M17" t="n">
-        <v>13.74746665932721</v>
+        <v>13.83659517916101</v>
       </c>
       <c r="N17" t="n">
-        <v>296.6804480748777</v>
+        <v>299.2033452339167</v>
       </c>
       <c r="O17" t="n">
-        <v>17.22441430281093</v>
+        <v>17.29749534568276</v>
       </c>
       <c r="P17" t="n">
-        <v>341.8710525001207</v>
+        <v>342.1526390162185</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -20833,7 +20914,7 @@
         <v>-0.9777936620387717</v>
       </c>
       <c r="J18" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K18" t="n">
         <v>156</v>
@@ -20911,7 +20992,7 @@
         <v>-1.112297807859192</v>
       </c>
       <c r="J19" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K19" t="n">
         <v>162</v>
@@ -20980,28 +21061,28 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>-1.043259807214762</v>
+        <v>-1.033859409993214</v>
       </c>
       <c r="J20" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K20" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1455615836484457</v>
+        <v>0.1448520703442435</v>
       </c>
       <c r="M20" t="n">
-        <v>14.83727223687883</v>
+        <v>14.78720327532264</v>
       </c>
       <c r="N20" t="n">
-        <v>360.4673226581216</v>
+        <v>358.5132426544927</v>
       </c>
       <c r="O20" t="n">
-        <v>18.98597700035797</v>
+        <v>18.93444592942959</v>
       </c>
       <c r="P20" t="n">
-        <v>345.9590828417779</v>
+        <v>345.8685500993621</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -21061,7 +21142,7 @@
         <v>-0.8353022542988181</v>
       </c>
       <c r="J21" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K21" t="n">
         <v>161</v>
@@ -21139,7 +21220,7 @@
         <v>-0.8604499035624488</v>
       </c>
       <c r="J22" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K22" t="n">
         <v>175</v>
@@ -21217,7 +21298,7 @@
         <v>-1.098325205339369</v>
       </c>
       <c r="J23" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K23" t="n">
         <v>172</v>
@@ -21295,7 +21376,7 @@
         <v>-0.8098404318876489</v>
       </c>
       <c r="J24" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K24" t="n">
         <v>176</v>
@@ -21373,7 +21454,7 @@
         <v>-0.2417013324398614</v>
       </c>
       <c r="J25" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K25" t="n">
         <v>156</v>
@@ -21451,7 +21532,7 @@
         <v>-0.5697245427405735</v>
       </c>
       <c r="J26" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K26" t="n">
         <v>171</v>
@@ -21523,7 +21604,7 @@
         <v>-0.9203524255601588</v>
       </c>
       <c r="J27" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K27" t="n">
         <v>154</v>
@@ -21601,7 +21682,7 @@
         <v>-0.3990208905900017</v>
       </c>
       <c r="J28" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K28" t="n">
         <v>168</v>
@@ -21657,7 +21738,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC200"/>
+  <dimension ref="A1:AC201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47641,6 +47722,109 @@
         </is>
       </c>
     </row>
+    <row r="201">
+      <c r="A201" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:36+00:00</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>-35.26798581984965,173.13721014685385</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>-35.2673959646185,173.13667350464198</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>-35.266831517663725,173.13609985498633</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>-35.26620970203903,173.1356097449507</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>-35.265603950356876,173.13509623547145</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>-35.26498539418513,173.13460136723413</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>-35.264409504178076,173.1340443593086</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>-35.26385250566175,173.1334598343561</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>-35.263269827228285,173.13291270096366</t>
+        </is>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>-35.26260579261433,173.13248403933792</t>
+        </is>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>-35.26222930414638,173.13163662337672</t>
+        </is>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>-35.26160647019977,173.13114795104516</t>
+        </is>
+      </c>
+      <c r="N201" t="inlineStr">
+        <is>
+          <t>-35.26091964378695,173.13075246408795</t>
+        </is>
+      </c>
+      <c r="O201" t="inlineStr"/>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>-35.25967874233651,173.12976814889512</t>
+        </is>
+      </c>
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>-35.25907541432541,173.1292510472715</t>
+        </is>
+      </c>
+      <c r="R201" t="inlineStr"/>
+      <c r="S201" t="inlineStr"/>
+      <c r="T201" t="inlineStr">
+        <is>
+          <t>-35.2575367060791,173.12730465504714</t>
+        </is>
+      </c>
+      <c r="U201" t="inlineStr"/>
+      <c r="V201" t="inlineStr"/>
+      <c r="W201" t="inlineStr"/>
+      <c r="X201" t="inlineStr"/>
+      <c r="Y201" t="inlineStr"/>
+      <c r="Z201" t="inlineStr"/>
+      <c r="AA201" t="inlineStr"/>
+      <c r="AB201" t="inlineStr"/>
+      <c r="AC201" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0065/nzd0065.xlsx
+++ b/data/nzd0065/nzd0065.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC201"/>
+  <dimension ref="A1:AC204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17344,7 +17344,9 @@
       <c r="R200" t="n">
         <v>344.67</v>
       </c>
-      <c r="S200" t="inlineStr"/>
+      <c r="S200" t="n">
+        <v>351.59</v>
+      </c>
       <c r="T200" t="n">
         <v>363.7</v>
       </c>
@@ -17423,7 +17425,9 @@
       <c r="N201" t="n">
         <v>328.22</v>
       </c>
-      <c r="O201" t="inlineStr"/>
+      <c r="O201" t="n">
+        <v>313.2</v>
+      </c>
       <c r="P201" t="n">
         <v>308.1844444444445</v>
       </c>
@@ -17435,7 +17439,9 @@
       <c r="T201" t="n">
         <v>326.82</v>
       </c>
-      <c r="U201" t="inlineStr"/>
+      <c r="U201" t="n">
+        <v>313.8957142857143</v>
+      </c>
       <c r="V201" t="inlineStr"/>
       <c r="W201" t="inlineStr"/>
       <c r="X201" t="inlineStr"/>
@@ -17446,6 +17452,247 @@
       <c r="AC201" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>387.99</v>
+      </c>
+      <c r="C202" t="n">
+        <v>370.6</v>
+      </c>
+      <c r="D202" t="n">
+        <v>369.07</v>
+      </c>
+      <c r="E202" t="n">
+        <v>362.36</v>
+      </c>
+      <c r="F202" t="n">
+        <v>355.5714285714286</v>
+      </c>
+      <c r="G202" t="n">
+        <v>353.03</v>
+      </c>
+      <c r="H202" t="n">
+        <v>354.2914285714286</v>
+      </c>
+      <c r="I202" t="n">
+        <v>354.1114285714286</v>
+      </c>
+      <c r="J202" t="n">
+        <v>352.81</v>
+      </c>
+      <c r="K202" t="n">
+        <v>335.39</v>
+      </c>
+      <c r="L202" t="n">
+        <v>352.26</v>
+      </c>
+      <c r="M202" t="n">
+        <v>342.1214285714286</v>
+      </c>
+      <c r="N202" t="n">
+        <v>333.4</v>
+      </c>
+      <c r="O202" t="n">
+        <v>329.87</v>
+      </c>
+      <c r="P202" t="n">
+        <v>325.9866666666667</v>
+      </c>
+      <c r="Q202" t="n">
+        <v>331.8514285714285</v>
+      </c>
+      <c r="R202" t="n">
+        <v>314.27</v>
+      </c>
+      <c r="S202" t="n">
+        <v>334.8566666666667</v>
+      </c>
+      <c r="T202" t="n">
+        <v>336.82</v>
+      </c>
+      <c r="U202" t="n">
+        <v>336.2214285714285</v>
+      </c>
+      <c r="V202" t="n">
+        <v>332.7614285714285</v>
+      </c>
+      <c r="W202" t="n">
+        <v>322.3066666666667</v>
+      </c>
+      <c r="X202" t="n">
+        <v>324.98</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>327.5414285714286</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>326.63</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>312.6807692307692</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>345.71</v>
+      </c>
+      <c r="AC202" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:17:49+00:00</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>385.53</v>
+      </c>
+      <c r="C203" t="n">
+        <v>370.61</v>
+      </c>
+      <c r="D203" t="inlineStr"/>
+      <c r="E203" t="inlineStr"/>
+      <c r="F203" t="inlineStr"/>
+      <c r="G203" t="inlineStr"/>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="inlineStr"/>
+      <c r="O203" t="inlineStr"/>
+      <c r="P203" t="n">
+        <v>324.3177777777778</v>
+      </c>
+      <c r="Q203" t="n">
+        <v>324.2271428571428</v>
+      </c>
+      <c r="R203" t="n">
+        <v>321.11</v>
+      </c>
+      <c r="S203" t="n">
+        <v>318.5077777777778</v>
+      </c>
+      <c r="T203" t="n">
+        <v>316.19</v>
+      </c>
+      <c r="U203" t="n">
+        <v>322.0671428571428</v>
+      </c>
+      <c r="V203" t="n">
+        <v>325.2071428571429</v>
+      </c>
+      <c r="W203" t="inlineStr"/>
+      <c r="X203" t="inlineStr"/>
+      <c r="Y203" t="inlineStr"/>
+      <c r="Z203" t="inlineStr"/>
+      <c r="AA203" t="inlineStr"/>
+      <c r="AB203" t="inlineStr"/>
+      <c r="AC203" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>388.52</v>
+      </c>
+      <c r="C204" t="n">
+        <v>376.77</v>
+      </c>
+      <c r="D204" t="n">
+        <v>378.53</v>
+      </c>
+      <c r="E204" t="n">
+        <v>379.21</v>
+      </c>
+      <c r="F204" t="n">
+        <v>380.4</v>
+      </c>
+      <c r="G204" t="n">
+        <v>378.07</v>
+      </c>
+      <c r="H204" t="n">
+        <v>379.37</v>
+      </c>
+      <c r="I204" t="n">
+        <v>360.73</v>
+      </c>
+      <c r="J204" t="n">
+        <v>358.86</v>
+      </c>
+      <c r="K204" t="n">
+        <v>350.83</v>
+      </c>
+      <c r="L204" t="n">
+        <v>350.5933333333333</v>
+      </c>
+      <c r="M204" t="n">
+        <v>351.4</v>
+      </c>
+      <c r="N204" t="n">
+        <v>348.31</v>
+      </c>
+      <c r="O204" t="n">
+        <v>348.29</v>
+      </c>
+      <c r="P204" t="n">
+        <v>345.1955555555556</v>
+      </c>
+      <c r="Q204" t="n">
+        <v>344.92</v>
+      </c>
+      <c r="R204" t="n">
+        <v>338.96</v>
+      </c>
+      <c r="S204" t="n">
+        <v>334.9855555555555</v>
+      </c>
+      <c r="T204" t="n">
+        <v>342.1</v>
+      </c>
+      <c r="U204" t="n">
+        <v>346.16</v>
+      </c>
+      <c r="V204" t="n">
+        <v>343.21</v>
+      </c>
+      <c r="W204" t="n">
+        <v>328.0255555555556</v>
+      </c>
+      <c r="X204" t="n">
+        <v>342.44</v>
+      </c>
+      <c r="Y204" t="inlineStr"/>
+      <c r="Z204" t="n">
+        <v>344.13</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>313.7784615384616</v>
+      </c>
+      <c r="AB204" t="n">
+        <v>343.79</v>
+      </c>
+      <c r="AC204" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -17460,7 +17707,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B204"/>
+  <dimension ref="A1:B207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19508,6 +19755,36 @@
       </c>
       <c r="B204" t="n">
         <v>0.92</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
@@ -19675,28 +19952,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>-1.180723282678409</v>
+        <v>-1.112778955990724</v>
       </c>
       <c r="J2" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K2" t="n">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L2" t="n">
-        <v>0.156939583913554</v>
+        <v>0.1461247074231625</v>
       </c>
       <c r="M2" t="n">
-        <v>17.02249137945097</v>
+        <v>17.01329909974984</v>
       </c>
       <c r="N2" t="n">
-        <v>448.8137980616563</v>
+        <v>445.052915680454</v>
       </c>
       <c r="O2" t="n">
-        <v>21.18522593841416</v>
+        <v>21.09627729435822</v>
       </c>
       <c r="P2" t="n">
-        <v>400.7150190907799</v>
+        <v>400.1061768990687</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19747,28 +20024,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.7967732375904509</v>
+        <v>-0.7718992214260448</v>
       </c>
       <c r="J3" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K3" t="n">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08649235584201664</v>
+        <v>0.08399821601810364</v>
       </c>
       <c r="M3" t="n">
-        <v>15.25479969906542</v>
+        <v>15.10828700620288</v>
       </c>
       <c r="N3" t="n">
-        <v>404.3391800492756</v>
+        <v>398.4737581653804</v>
       </c>
       <c r="O3" t="n">
-        <v>20.10818689114649</v>
+        <v>19.96180748743411</v>
       </c>
       <c r="P3" t="n">
-        <v>385.1468910652368</v>
+        <v>384.9155783448717</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19825,28 +20102,28 @@
         <v>0.0446</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3143915673013619</v>
+        <v>-0.2998767013310973</v>
       </c>
       <c r="J4" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K4" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02514390872378069</v>
+        <v>0.0233668153730815</v>
       </c>
       <c r="M4" t="n">
-        <v>12.00887796040274</v>
+        <v>11.95015374243652</v>
       </c>
       <c r="N4" t="n">
-        <v>229.703714081612</v>
+        <v>227.8832247402034</v>
       </c>
       <c r="O4" t="n">
-        <v>15.15597948275241</v>
+        <v>15.09580156004322</v>
       </c>
       <c r="P4" t="n">
-        <v>374.8569432432848</v>
+        <v>374.7217665385804</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19903,28 +20180,28 @@
         <v>0.0489</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.0289558661241745</v>
+        <v>-0.02053441311782783</v>
       </c>
       <c r="J5" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K5" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0002082202234612307</v>
+        <v>0.0001065939122117943</v>
       </c>
       <c r="M5" t="n">
-        <v>12.4536169447199</v>
+        <v>12.41078170545259</v>
       </c>
       <c r="N5" t="n">
-        <v>237.4510142728077</v>
+        <v>235.780212914105</v>
       </c>
       <c r="O5" t="n">
-        <v>15.40944561860704</v>
+        <v>15.35513636911457</v>
       </c>
       <c r="P5" t="n">
-        <v>367.348876287833</v>
+        <v>367.2685089700759</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -19981,28 +20258,28 @@
         <v>0.0401</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.03641831738146861</v>
+        <v>-0.03154877761748855</v>
       </c>
       <c r="J6" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K6" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0003072166079067795</v>
+        <v>0.0002339523393523057</v>
       </c>
       <c r="M6" t="n">
-        <v>12.23037791805648</v>
+        <v>12.23214616629332</v>
       </c>
       <c r="N6" t="n">
-        <v>251.7856804348327</v>
+        <v>250.7686740449544</v>
       </c>
       <c r="O6" t="n">
-        <v>15.86775599871742</v>
+        <v>15.83567725248764</v>
       </c>
       <c r="P6" t="n">
-        <v>366.5173136023142</v>
+        <v>366.4701688031926</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20059,28 +20336,28 @@
         <v>0.0424</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1857146875317902</v>
+        <v>-0.1742627822597677</v>
       </c>
       <c r="J7" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K7" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01036993650904006</v>
+        <v>0.00923543541868288</v>
       </c>
       <c r="M7" t="n">
-        <v>10.92106717916569</v>
+        <v>10.93701034010706</v>
       </c>
       <c r="N7" t="n">
-        <v>190.0617009394485</v>
+        <v>190.0369277250153</v>
       </c>
       <c r="O7" t="n">
-        <v>13.78628669872524</v>
+        <v>13.78538819638444</v>
       </c>
       <c r="P7" t="n">
-        <v>364.679291921048</v>
+        <v>364.5672851319824</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20137,28 +20414,28 @@
         <v>0.0369</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1669855818712709</v>
+        <v>-0.1480875026350467</v>
       </c>
       <c r="J8" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K8" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L8" t="n">
-        <v>0.009089991336928338</v>
+        <v>0.007207636098490289</v>
       </c>
       <c r="M8" t="n">
-        <v>10.546748896305</v>
+        <v>10.57679479382315</v>
       </c>
       <c r="N8" t="n">
-        <v>175.2909792024228</v>
+        <v>176.0303966825935</v>
       </c>
       <c r="O8" t="n">
-        <v>13.23974996751913</v>
+        <v>13.26764473004133</v>
       </c>
       <c r="P8" t="n">
-        <v>361.8099986967349</v>
+        <v>361.6261421635419</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -20215,28 +20492,28 @@
         <v>0.038</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.5891233147807974</v>
+        <v>-0.5667833581663969</v>
       </c>
       <c r="J9" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K9" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L9" t="n">
-        <v>0.07505931571471203</v>
+        <v>0.0708363451432551</v>
       </c>
       <c r="M9" t="n">
-        <v>13.30391384813082</v>
+        <v>13.27235178800845</v>
       </c>
       <c r="N9" t="n">
-        <v>248.475021130896</v>
+        <v>247.2024616130398</v>
       </c>
       <c r="O9" t="n">
-        <v>15.76309046890539</v>
+        <v>15.72267348808846</v>
       </c>
       <c r="P9" t="n">
-        <v>361.3079741315535</v>
+        <v>361.0902988477028</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -20293,28 +20570,28 @@
         <v>0.0273</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.5194865552623952</v>
+        <v>-0.4803414966877945</v>
       </c>
       <c r="J10" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K10" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04098548666543034</v>
+        <v>0.03567471414922141</v>
       </c>
       <c r="M10" t="n">
-        <v>15.39185249913966</v>
+        <v>15.40676546144442</v>
       </c>
       <c r="N10" t="n">
-        <v>362.1824591742496</v>
+        <v>361.7111952731685</v>
       </c>
       <c r="O10" t="n">
-        <v>19.03109190704122</v>
+        <v>19.01870645635945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.1907583291122</v>
+        <v>350.8081524815015</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -20371,28 +20648,28 @@
         <v>0.0212</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.597312610410797</v>
+        <v>-0.5730602540207506</v>
       </c>
       <c r="J11" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K11" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04009719632761954</v>
+        <v>0.03774486321031401</v>
       </c>
       <c r="M11" t="n">
-        <v>18.05273091323107</v>
+        <v>17.96349821538863</v>
       </c>
       <c r="N11" t="n">
-        <v>500.5531518532998</v>
+        <v>496.5568787683173</v>
       </c>
       <c r="O11" t="n">
-        <v>22.37304520742091</v>
+        <v>22.28355624150502</v>
       </c>
       <c r="P11" t="n">
-        <v>347.5812443227434</v>
+        <v>347.3500715568811</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -20449,28 +20726,28 @@
         <v>0.0314</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.6937038694477581</v>
+        <v>-0.6545003466482011</v>
       </c>
       <c r="J12" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K12" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L12" t="n">
-        <v>0.08516755995917613</v>
+        <v>0.07714218203692191</v>
       </c>
       <c r="M12" t="n">
-        <v>13.79676904645872</v>
+        <v>13.83750106311733</v>
       </c>
       <c r="N12" t="n">
-        <v>297.6854602058103</v>
+        <v>298.3248681358905</v>
       </c>
       <c r="O12" t="n">
-        <v>17.25356369582268</v>
+        <v>17.27208349145784</v>
       </c>
       <c r="P12" t="n">
-        <v>350.1800850238924</v>
+        <v>349.800063987664</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -20527,28 +20804,28 @@
         <v>0.0377</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.5460390936733065</v>
+        <v>-0.5193983214737525</v>
       </c>
       <c r="J13" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K13" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L13" t="n">
-        <v>0.06150218846564293</v>
+        <v>0.05676261431033847</v>
       </c>
       <c r="M13" t="n">
-        <v>12.71053008628379</v>
+        <v>12.71517255381582</v>
       </c>
       <c r="N13" t="n">
-        <v>260.1471467982916</v>
+        <v>259.2540822894215</v>
       </c>
       <c r="O13" t="n">
-        <v>16.12907767971534</v>
+        <v>16.10136895699933</v>
       </c>
       <c r="P13" t="n">
-        <v>348.006597564103</v>
+        <v>347.7487203878723</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -20605,28 +20882,28 @@
         <v>0.0462</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.5407927332837578</v>
+        <v>-0.514556001833323</v>
       </c>
       <c r="J14" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K14" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L14" t="n">
-        <v>0.05917052753189245</v>
+        <v>0.0546144073882836</v>
       </c>
       <c r="M14" t="n">
-        <v>13.29118161961459</v>
+        <v>13.2770405876611</v>
       </c>
       <c r="N14" t="n">
-        <v>266.8584569088991</v>
+        <v>266.2081438109603</v>
       </c>
       <c r="O14" t="n">
-        <v>16.33580291595424</v>
+        <v>16.31588624043941</v>
       </c>
       <c r="P14" t="n">
-        <v>342.2270500135189</v>
+        <v>341.9764686423069</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -20683,28 +20960,28 @@
         <v>0.0426</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.5115380330266329</v>
+        <v>-0.4962304623736912</v>
       </c>
       <c r="J15" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K15" t="n">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L15" t="n">
-        <v>0.04183533197540479</v>
+        <v>0.04032025283137564</v>
       </c>
       <c r="M15" t="n">
-        <v>15.17484496770064</v>
+        <v>15.13480361251025</v>
       </c>
       <c r="N15" t="n">
-        <v>342.6304902667636</v>
+        <v>340.660216899309</v>
       </c>
       <c r="O15" t="n">
-        <v>18.51028066418128</v>
+        <v>18.45698287638879</v>
       </c>
       <c r="P15" t="n">
-        <v>338.7738469016056</v>
+        <v>338.6242761960562</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -20761,28 +21038,28 @@
         <v>0.0499</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.5310456510910204</v>
+        <v>-0.4956605058636253</v>
       </c>
       <c r="J16" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K16" t="n">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L16" t="n">
-        <v>0.04086804090406071</v>
+        <v>0.03662040126201016</v>
       </c>
       <c r="M16" t="n">
-        <v>15.69270959234163</v>
+        <v>15.59554986465011</v>
       </c>
       <c r="N16" t="n">
-        <v>384.5047997927174</v>
+        <v>381.5252178487651</v>
       </c>
       <c r="O16" t="n">
-        <v>19.60879394028907</v>
+        <v>19.53267052527035</v>
       </c>
       <c r="P16" t="n">
-        <v>334.106812374415</v>
+        <v>333.7646584356851</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -20839,28 +21116,28 @@
         <v>0.0388</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.5595615997197623</v>
+        <v>-0.5409292947386327</v>
       </c>
       <c r="J17" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K17" t="n">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L17" t="n">
-        <v>0.05756115070909773</v>
+        <v>0.05546000894266256</v>
       </c>
       <c r="M17" t="n">
-        <v>13.83659517916101</v>
+        <v>13.73091769216905</v>
       </c>
       <c r="N17" t="n">
-        <v>299.2033452339167</v>
+        <v>295.8432773997767</v>
       </c>
       <c r="O17" t="n">
-        <v>17.29749534568276</v>
+        <v>17.20009527298546</v>
       </c>
       <c r="P17" t="n">
-        <v>342.1526390162185</v>
+        <v>341.9747155638496</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -20911,28 +21188,28 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>-0.9777936620387717</v>
+        <v>-0.9502710692360838</v>
       </c>
       <c r="J18" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K18" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1219912252696037</v>
+        <v>0.1187659723685539</v>
       </c>
       <c r="M18" t="n">
-        <v>14.69771494859209</v>
+        <v>14.59636158758523</v>
       </c>
       <c r="N18" t="n">
-        <v>364.7213736845669</v>
+        <v>361.0158233830304</v>
       </c>
       <c r="O18" t="n">
-        <v>19.09767979846156</v>
+        <v>19.00041640025372</v>
       </c>
       <c r="P18" t="n">
-        <v>342.052893807368</v>
+        <v>341.7651266755647</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -20989,28 +21266,28 @@
         <v>0.0528</v>
       </c>
       <c r="I19" t="n">
-        <v>-1.112297807859192</v>
+        <v>-1.008019877592479</v>
       </c>
       <c r="J19" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K19" t="n">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1367867636343046</v>
+        <v>0.1165598520705163</v>
       </c>
       <c r="M19" t="n">
-        <v>16.04181746133916</v>
+        <v>16.15200900994949</v>
       </c>
       <c r="N19" t="n">
-        <v>428.782134189726</v>
+        <v>433.8010674430477</v>
       </c>
       <c r="O19" t="n">
-        <v>20.70705517908633</v>
+        <v>20.82789157459409</v>
       </c>
       <c r="P19" t="n">
-        <v>340.3498402885387</v>
+        <v>339.3244886086866</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -21061,28 +21338,28 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>-1.033859409993214</v>
+        <v>-0.9902036289021701</v>
       </c>
       <c r="J20" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K20" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1448520703442435</v>
+        <v>0.1373335407586429</v>
       </c>
       <c r="M20" t="n">
-        <v>14.78720327532264</v>
+        <v>14.76000629455146</v>
       </c>
       <c r="N20" t="n">
-        <v>358.5132426544927</v>
+        <v>356.8696714633041</v>
       </c>
       <c r="O20" t="n">
-        <v>18.93444592942959</v>
+        <v>18.89099445405943</v>
       </c>
       <c r="P20" t="n">
-        <v>345.8685500993621</v>
+        <v>345.4464145478012</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -21139,28 +21416,28 @@
         <v>0.0369</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.8353022542988181</v>
+        <v>-0.810671074802928</v>
       </c>
       <c r="J21" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K21" t="n">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1233998451785626</v>
+        <v>0.1203783623645611</v>
       </c>
       <c r="M21" t="n">
-        <v>13.29219449649235</v>
+        <v>13.25418441252219</v>
       </c>
       <c r="N21" t="n">
-        <v>287.1381645926728</v>
+        <v>284.6867446072908</v>
       </c>
       <c r="O21" t="n">
-        <v>16.94515165446072</v>
+        <v>16.87266264130504</v>
       </c>
       <c r="P21" t="n">
-        <v>345.4121206981888</v>
+        <v>345.1750330976337</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -21217,28 +21494,28 @@
         <v>0.0414</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.8604499035624488</v>
+        <v>-0.833175735487066</v>
       </c>
       <c r="J22" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K22" t="n">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1284719299241434</v>
+        <v>0.1242023573076948</v>
       </c>
       <c r="M22" t="n">
-        <v>14.17935861653058</v>
+        <v>14.08873098287989</v>
       </c>
       <c r="N22" t="n">
-        <v>294.5222304990983</v>
+        <v>291.7827054097692</v>
       </c>
       <c r="O22" t="n">
-        <v>17.16164999349125</v>
+        <v>17.08164820530411</v>
       </c>
       <c r="P22" t="n">
-        <v>346.8823939022475</v>
+        <v>346.6229316475955</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -21295,28 +21572,28 @@
         <v>0.0554</v>
       </c>
       <c r="I23" t="n">
-        <v>-1.098325205339369</v>
+        <v>-1.077043184649055</v>
       </c>
       <c r="J23" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K23" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L23" t="n">
-        <v>0.1947696037217024</v>
+        <v>0.1915904821441959</v>
       </c>
       <c r="M23" t="n">
-        <v>13.4530307871214</v>
+        <v>13.4109489789298</v>
       </c>
       <c r="N23" t="n">
-        <v>290.4965630317499</v>
+        <v>288.3967082826624</v>
       </c>
       <c r="O23" t="n">
-        <v>17.04395972278009</v>
+        <v>16.98224685613368</v>
       </c>
       <c r="P23" t="n">
-        <v>343.3230311474953</v>
+        <v>343.119881472806</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -21373,28 +21650,28 @@
         <v>0.0559</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.8098404318876489</v>
+        <v>-0.7879887070028766</v>
       </c>
       <c r="J24" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K24" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1019614526881935</v>
+        <v>0.09843968609520903</v>
       </c>
       <c r="M24" t="n">
-        <v>14.39312576415714</v>
+        <v>14.35041220530136</v>
       </c>
       <c r="N24" t="n">
-        <v>334.7584187034605</v>
+        <v>333.1093965790312</v>
       </c>
       <c r="O24" t="n">
-        <v>18.29640452940032</v>
+        <v>18.25128479255724</v>
       </c>
       <c r="P24" t="n">
-        <v>343.8500345505157</v>
+        <v>343.6389347821613</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -21451,28 +21728,28 @@
         <v>0.0414</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.2417013324398614</v>
+        <v>-0.2674689560593445</v>
       </c>
       <c r="J25" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K25" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01430172481250713</v>
+        <v>0.017441511597728</v>
       </c>
       <c r="M25" t="n">
-        <v>12.30650982639607</v>
+        <v>12.38735956991778</v>
       </c>
       <c r="N25" t="n">
-        <v>241.2046663106533</v>
+        <v>242.8811071490688</v>
       </c>
       <c r="O25" t="n">
-        <v>15.53076515535063</v>
+        <v>15.58464331157659</v>
       </c>
       <c r="P25" t="n">
-        <v>356.4325319236821</v>
+        <v>356.6741705456453</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -21529,28 +21806,28 @@
         <v>0.0474</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.5697245427405735</v>
+        <v>-0.5497364074561041</v>
       </c>
       <c r="J26" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K26" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L26" t="n">
-        <v>0.09152732669067354</v>
+        <v>0.08677991959385545</v>
       </c>
       <c r="M26" t="n">
-        <v>10.74879910303246</v>
+        <v>10.72410258360976</v>
       </c>
       <c r="N26" t="n">
-        <v>187.4776414642648</v>
+        <v>187.1997728111473</v>
       </c>
       <c r="O26" t="n">
-        <v>13.69224749499748</v>
+        <v>13.68209679877859</v>
       </c>
       <c r="P26" t="n">
-        <v>340.5941480684491</v>
+        <v>340.4027951166878</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -21601,28 +21878,28 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>-0.9203524255601588</v>
+        <v>-0.8917807807654577</v>
       </c>
       <c r="J27" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K27" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L27" t="n">
-        <v>0.08781541788521641</v>
+        <v>0.0844498697398014</v>
       </c>
       <c r="M27" t="n">
-        <v>17.39427076249675</v>
+        <v>17.3034532680496</v>
       </c>
       <c r="N27" t="n">
-        <v>496.7244912919936</v>
+        <v>492.2633308825806</v>
       </c>
       <c r="O27" t="n">
-        <v>22.28731682576424</v>
+        <v>22.18700815528269</v>
       </c>
       <c r="P27" t="n">
-        <v>324.5350198930962</v>
+        <v>324.2507654790288</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -21679,28 +21956,28 @@
         <v>0.0321</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.3990208905900017</v>
+        <v>-0.3566784145747566</v>
       </c>
       <c r="J28" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K28" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01686811567396007</v>
+        <v>0.01370013161324324</v>
       </c>
       <c r="M28" t="n">
-        <v>17.8037615267179</v>
+        <v>17.81613629576876</v>
       </c>
       <c r="N28" t="n">
-        <v>536.1517808570245</v>
+        <v>534.5630613904783</v>
       </c>
       <c r="O28" t="n">
-        <v>23.15495154080493</v>
+        <v>23.12061983145085</v>
       </c>
       <c r="P28" t="n">
-        <v>334.6857541833566</v>
+        <v>334.271243597809</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -21738,7 +22015,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC201"/>
+  <dimension ref="A1:AC204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47670,7 +47947,11 @@
           <t>-35.2587649868802,173.12830739404347</t>
         </is>
       </c>
-      <c r="S200" t="inlineStr"/>
+      <c r="S200" t="inlineStr">
+        <is>
+          <t>-35.25824256280075,173.12767246167886</t>
+        </is>
+      </c>
       <c r="T200" t="inlineStr">
         <is>
           <t>-35.257750175185706,173.12699378137174</t>
@@ -47793,7 +48074,11 @@
           <t>-35.26091964378695,173.13075246408795</t>
         </is>
       </c>
-      <c r="O201" t="inlineStr"/>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>-35.26027024015762,173.13030247285266</t>
+        </is>
+      </c>
       <c r="P201" t="inlineStr">
         <is>
           <t>-35.25967874233651,173.12976814889512</t>
@@ -47811,7 +48096,11 @@
           <t>-35.2575367060791,173.12730465504714</t>
         </is>
       </c>
-      <c r="U201" t="inlineStr"/>
+      <c r="U201" t="inlineStr">
+        <is>
+          <t>-35.25689941177367,173.12683699559713</t>
+        </is>
+      </c>
       <c r="V201" t="inlineStr"/>
       <c r="W201" t="inlineStr"/>
       <c r="X201" t="inlineStr"/>
@@ -47825,6 +48114,371 @@
         </is>
       </c>
     </row>
+    <row r="202">
+      <c r="A202" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>-35.26801487884612,173.13716782854377</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>-35.267351797404764,173.13673782476087</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>-35.26678052009227,173.13617412209825</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>-35.26617925410803,173.1356540858229</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>-35.26557752972128,173.13513471141275</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>-35.26500038649513,173.1345795341946</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>-35.264445252370656,173.1339922998095</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>-35.26388177059106,173.1334172162918</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>-35.2633117935736,173.13285158601647</t>
+        </is>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>-35.26264851134694,173.13242182892273</t>
+        </is>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>-35.26218371080094,173.13170302047556</t>
+        </is>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>-35.26156256942205,173.13121188316</t>
+        </is>
+      </c>
+      <c r="N202" t="inlineStr">
+        <is>
+          <t>-35.260949627543106,173.13070879927577</t>
+        </is>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>-35.26036673194887,173.13016195378881</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>-35.25978178741733,173.1296180864649</t>
+        </is>
+      </c>
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>-35.25925326402698,173.12899204826823</t>
+        </is>
+      </c>
+      <c r="R202" t="inlineStr">
+        <is>
+          <t>-35.25858902352184,173.1285636469942</t>
+        </is>
+      </c>
+      <c r="S202" t="inlineStr">
+        <is>
+          <t>-35.25814570634068,173.12781351294464</t>
+        </is>
+      </c>
+      <c r="T202" t="inlineStr">
+        <is>
+          <t>-35.257594588237225,173.12722036191235</t>
+        </is>
+      </c>
+      <c r="U202" t="inlineStr">
+        <is>
+          <t>-35.25702863734402,173.126648806034</t>
+        </is>
+      </c>
+      <c r="V202" t="inlineStr">
+        <is>
+          <t>-35.25644612016204,173.1261013698247</t>
+        </is>
+      </c>
+      <c r="W202" t="inlineStr">
+        <is>
+          <t>-35.255823112567086,173.1256128937162</t>
+        </is>
+      </c>
+      <c r="X202" t="inlineStr">
+        <is>
+          <t>-35.255276088547966,173.12501375784868</t>
+        </is>
+      </c>
+      <c r="Y202" t="inlineStr">
+        <is>
+          <t>-35.25472841276955,173.12441556540236</t>
+        </is>
+      </c>
+      <c r="Z202" t="inlineStr">
+        <is>
+          <t>-35.254160631832164,173.12384664624247</t>
+        </is>
+      </c>
+      <c r="AA202" t="inlineStr">
+        <is>
+          <t>-35.25351738366237,173.12338762368648</t>
+        </is>
+      </c>
+      <c r="AB202" t="inlineStr">
+        <is>
+          <t>-35.25314604431357,173.1225326161713</t>
+        </is>
+      </c>
+      <c r="AC202" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:17:49+00:00</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>-35.26800063878196,173.13718856620548</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>-35.26735185529105,173.1367377404619</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr"/>
+      <c r="E203" t="inlineStr"/>
+      <c r="F203" t="inlineStr"/>
+      <c r="G203" t="inlineStr"/>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="inlineStr"/>
+      <c r="O203" t="inlineStr"/>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>-35.259772127350914,173.1296321542485</t>
+        </is>
+      </c>
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>-35.25920913241366,173.1290563164453</t>
+        </is>
+      </c>
+      <c r="R203" t="inlineStr">
+        <is>
+          <t>-35.25862861532503,173.1285059901769</t>
+        </is>
+      </c>
+      <c r="S203" t="inlineStr">
+        <is>
+          <t>-35.25805107497566,173.12795132326607</t>
+        </is>
+      </c>
+      <c r="T203" t="inlineStr">
+        <is>
+          <t>-35.257475177280305,173.1273942585179</t>
+        </is>
+      </c>
+      <c r="U203" t="inlineStr">
+        <is>
+          <t>-35.25694670962342,173.126768116456</t>
+        </is>
+      </c>
+      <c r="V203" t="inlineStr">
+        <is>
+          <t>-35.2564023946999,173.12616504676757</t>
+        </is>
+      </c>
+      <c r="W203" t="inlineStr"/>
+      <c r="X203" t="inlineStr"/>
+      <c r="Y203" t="inlineStr"/>
+      <c r="Z203" t="inlineStr"/>
+      <c r="AA203" t="inlineStr"/>
+      <c r="AB203" t="inlineStr"/>
+      <c r="AC203" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>-35.26801794682694,173.13716336067262</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>-35.2673875132277,173.13668581229794</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>-35.26683528025231,173.13609437557028</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>-35.26627679162402,173.13551204317787</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>-35.265721251214934,173.13492541162424</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>-35.26514533124946,173.13436845296465</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>-35.264590419736116,173.13378089417935</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>-35.263920082073625,173.13336142379225</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>-35.26334681374144,173.1328005865985</t>
+        </is>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>-35.26273788485156,173.13229167575602</t>
+        </is>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>-35.26217406345273,173.13171706978866</t>
+        </is>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>-35.26161627737584,173.13113366896977</t>
+        </is>
+      </c>
+      <c r="N204" t="inlineStr">
+        <is>
+          <t>-35.26103593205021,173.13058311524486</t>
+        </is>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>-35.26047335316157,173.130006682786</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>-35.25989297453477,173.12945616622247</t>
+        </is>
+      </c>
+      <c r="Q204" t="inlineStr">
+        <is>
+          <t>-35.25932890869118,173.12888188785055</t>
+        </is>
+      </c>
+      <c r="R204" t="inlineStr">
+        <is>
+          <t>-35.258731935909424,173.12835552585</t>
+        </is>
+      </c>
+      <c r="S204" t="inlineStr">
+        <is>
+          <t>-35.25814645238044,173.12781242649527</t>
+        </is>
+      </c>
+      <c r="T204" t="inlineStr">
+        <is>
+          <t>-35.257625149992904,173.12717585508884</t>
+        </is>
+      </c>
+      <c r="U204" t="inlineStr">
+        <is>
+          <t>-35.25708616363109,173.12656503089994</t>
+        </is>
+      </c>
+      <c r="V204" t="inlineStr">
+        <is>
+          <t>-35.25650659817575,173.12601329611888</t>
+        </is>
+      </c>
+      <c r="W204" t="inlineStr">
+        <is>
+          <t>-35.25585621431372,173.12556468799275</t>
+        </is>
+      </c>
+      <c r="X204" t="inlineStr">
+        <is>
+          <t>-35.25537714898984,173.12486658418618</t>
+        </is>
+      </c>
+      <c r="Y204" t="inlineStr"/>
+      <c r="Z204" t="inlineStr">
+        <is>
+          <t>-35.2542619228859,173.12369913647512</t>
+        </is>
+      </c>
+      <c r="AA204" t="inlineStr">
+        <is>
+          <t>-35.25352373715782,173.1233783711594</t>
+        </is>
+      </c>
+      <c r="AB204" t="inlineStr">
+        <is>
+          <t>-35.253134931346814,173.1225488000012</t>
+        </is>
+      </c>
+      <c r="AC204" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0065/nzd0065.xlsx
+++ b/data/nzd0065/nzd0065.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC204"/>
+  <dimension ref="A1:AC206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17696,6 +17696,160 @@
         </is>
       </c>
     </row>
+    <row r="205">
+      <c r="A205" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:17:36+00:00</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr"/>
+      <c r="C205" t="inlineStr"/>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr"/>
+      <c r="F205" t="inlineStr"/>
+      <c r="G205" t="inlineStr"/>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>347.48</v>
+      </c>
+      <c r="L205" t="n">
+        <v>347.8666666666667</v>
+      </c>
+      <c r="M205" t="n">
+        <v>345.7585714285714</v>
+      </c>
+      <c r="N205" t="n">
+        <v>339.56</v>
+      </c>
+      <c r="O205" t="n">
+        <v>334.03</v>
+      </c>
+      <c r="P205" t="n">
+        <v>330.6477777777778</v>
+      </c>
+      <c r="Q205" t="n">
+        <v>334.3985714285715</v>
+      </c>
+      <c r="R205" t="n">
+        <v>317.47</v>
+      </c>
+      <c r="S205" t="n">
+        <v>321.4177777777778</v>
+      </c>
+      <c r="T205" t="n">
+        <v>333.93</v>
+      </c>
+      <c r="U205" t="n">
+        <v>334.6385714285714</v>
+      </c>
+      <c r="V205" t="inlineStr"/>
+      <c r="W205" t="inlineStr"/>
+      <c r="X205" t="inlineStr"/>
+      <c r="Y205" t="inlineStr"/>
+      <c r="Z205" t="inlineStr"/>
+      <c r="AA205" t="inlineStr"/>
+      <c r="AB205" t="inlineStr"/>
+      <c r="AC205" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:17:43+00:00</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>389.7</v>
+      </c>
+      <c r="C206" t="n">
+        <v>378.96</v>
+      </c>
+      <c r="D206" t="n">
+        <v>385.11</v>
+      </c>
+      <c r="E206" t="n">
+        <v>387.65</v>
+      </c>
+      <c r="F206" t="n">
+        <v>386.3442857142857</v>
+      </c>
+      <c r="G206" t="n">
+        <v>375.98</v>
+      </c>
+      <c r="H206" t="n">
+        <v>376.2242857142857</v>
+      </c>
+      <c r="I206" t="n">
+        <v>364.9142857142857</v>
+      </c>
+      <c r="J206" t="n">
+        <v>363.68</v>
+      </c>
+      <c r="K206" t="n">
+        <v>349.94</v>
+      </c>
+      <c r="L206" t="n">
+        <v>356.7566666666667</v>
+      </c>
+      <c r="M206" t="n">
+        <v>354.3742857142857</v>
+      </c>
+      <c r="N206" t="n">
+        <v>350.84</v>
+      </c>
+      <c r="O206" t="n">
+        <v>347.75</v>
+      </c>
+      <c r="P206" t="n">
+        <v>342.6677777777778</v>
+      </c>
+      <c r="Q206" t="n">
+        <v>343.9942857142857</v>
+      </c>
+      <c r="R206" t="n">
+        <v>332.93</v>
+      </c>
+      <c r="S206" t="n">
+        <v>335.6577777777778</v>
+      </c>
+      <c r="T206" t="n">
+        <v>338.78</v>
+      </c>
+      <c r="U206" t="n">
+        <v>348.8942857142857</v>
+      </c>
+      <c r="V206" t="n">
+        <v>350.4242857142857</v>
+      </c>
+      <c r="W206" t="n">
+        <v>335.9377777777778</v>
+      </c>
+      <c r="X206" t="n">
+        <v>338.76</v>
+      </c>
+      <c r="Y206" t="n">
+        <v>351.8342857142857</v>
+      </c>
+      <c r="Z206" t="n">
+        <v>348.53</v>
+      </c>
+      <c r="AA206" t="n">
+        <v>310.6015384615384</v>
+      </c>
+      <c r="AB206" t="n">
+        <v>363.48</v>
+      </c>
+      <c r="AC206" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17707,7 +17861,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B207"/>
+  <dimension ref="A1:B209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19785,6 +19939,26 @@
       </c>
       <c r="B207" t="n">
         <v>0.7</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>
@@ -19952,28 +20126,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>-1.112778955990724</v>
+        <v>-1.088647058960206</v>
       </c>
       <c r="J2" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K2" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1461247074231625</v>
+        <v>0.1419463834301823</v>
       </c>
       <c r="M2" t="n">
-        <v>17.01329909974984</v>
+        <v>17.02077712783492</v>
       </c>
       <c r="N2" t="n">
-        <v>445.052915680454</v>
+        <v>444.245202851814</v>
       </c>
       <c r="O2" t="n">
-        <v>21.09627729435822</v>
+        <v>21.07712510879541</v>
       </c>
       <c r="P2" t="n">
-        <v>400.1061768990687</v>
+        <v>399.8886198390539</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20024,28 +20198,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.7718992214260448</v>
+        <v>-0.7575472345752184</v>
       </c>
       <c r="J3" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K3" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08399821601810364</v>
+        <v>0.08178288264652245</v>
       </c>
       <c r="M3" t="n">
-        <v>15.10828700620288</v>
+        <v>15.09047933262056</v>
       </c>
       <c r="N3" t="n">
-        <v>398.4737581653804</v>
+        <v>397.2818298425756</v>
       </c>
       <c r="O3" t="n">
-        <v>19.96180748743411</v>
+        <v>19.9319299076275</v>
       </c>
       <c r="P3" t="n">
-        <v>384.9155783448717</v>
+        <v>384.7812982027361</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20102,28 +20276,28 @@
         <v>0.0446</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2998767013310973</v>
+        <v>-0.2813266769864347</v>
       </c>
       <c r="J4" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K4" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0233668153730815</v>
+        <v>0.02068877587090356</v>
       </c>
       <c r="M4" t="n">
-        <v>11.95015374243652</v>
+        <v>11.98180569786457</v>
       </c>
       <c r="N4" t="n">
-        <v>227.8832247402034</v>
+        <v>228.4289007171303</v>
       </c>
       <c r="O4" t="n">
-        <v>15.09580156004322</v>
+        <v>15.11386451961014</v>
       </c>
       <c r="P4" t="n">
-        <v>374.7217665385804</v>
+        <v>374.5480929309426</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20180,28 +20354,28 @@
         <v>0.0489</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.02053441311782783</v>
+        <v>0.0002835807679714572</v>
       </c>
       <c r="J5" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K5" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0001065939122117943</v>
+        <v>2.034490764746266e-08</v>
       </c>
       <c r="M5" t="n">
-        <v>12.41078170545259</v>
+        <v>12.46232474631573</v>
       </c>
       <c r="N5" t="n">
-        <v>235.780212914105</v>
+        <v>236.860621428006</v>
       </c>
       <c r="O5" t="n">
-        <v>15.35513636911457</v>
+        <v>15.3902768470228</v>
       </c>
       <c r="P5" t="n">
-        <v>367.2685089700759</v>
+        <v>367.0692587407944</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20258,28 +20432,28 @@
         <v>0.0401</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.03154877761748855</v>
+        <v>-0.01104802224066477</v>
       </c>
       <c r="J6" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K6" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0002339523393523057</v>
+        <v>2.873806769254639e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>12.23214616629332</v>
+        <v>12.27562009357839</v>
       </c>
       <c r="N6" t="n">
-        <v>250.7686740449544</v>
+        <v>251.7052601116837</v>
       </c>
       <c r="O6" t="n">
-        <v>15.83567725248764</v>
+        <v>15.86522171643636</v>
       </c>
       <c r="P6" t="n">
-        <v>366.4701688031926</v>
+        <v>366.2721999061181</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20336,28 +20510,28 @@
         <v>0.0424</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1742627822597677</v>
+        <v>-0.1583299540825346</v>
       </c>
       <c r="J7" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K7" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00923543541868288</v>
+        <v>0.007660989089979031</v>
       </c>
       <c r="M7" t="n">
-        <v>10.93701034010706</v>
+        <v>10.96147886210841</v>
       </c>
       <c r="N7" t="n">
-        <v>190.0369277250153</v>
+        <v>190.3691251824373</v>
       </c>
       <c r="O7" t="n">
-        <v>13.78538819638444</v>
+        <v>13.79743183286068</v>
       </c>
       <c r="P7" t="n">
-        <v>364.5672851319824</v>
+        <v>364.4110525936591</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20414,28 +20588,28 @@
         <v>0.0369</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1480875026350467</v>
+        <v>-0.1295775732565289</v>
       </c>
       <c r="J8" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K8" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L8" t="n">
-        <v>0.007207636098490289</v>
+        <v>0.00552886206347547</v>
       </c>
       <c r="M8" t="n">
-        <v>10.57679479382315</v>
+        <v>10.62627777120414</v>
       </c>
       <c r="N8" t="n">
-        <v>176.0303966825935</v>
+        <v>176.9093308646062</v>
       </c>
       <c r="O8" t="n">
-        <v>13.26764473004133</v>
+        <v>13.30072670437996</v>
       </c>
       <c r="P8" t="n">
-        <v>361.6261421635419</v>
+        <v>361.4453310841772</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -20492,28 +20666,28 @@
         <v>0.038</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.5667833581663969</v>
+        <v>-0.5485858763570197</v>
       </c>
       <c r="J9" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K9" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0708363451432551</v>
+        <v>0.06683343126137031</v>
       </c>
       <c r="M9" t="n">
-        <v>13.27235178800845</v>
+        <v>13.29244823498585</v>
       </c>
       <c r="N9" t="n">
-        <v>247.2024616130398</v>
+        <v>247.6999101402314</v>
       </c>
       <c r="O9" t="n">
-        <v>15.72267348808846</v>
+        <v>15.73848500142982</v>
       </c>
       <c r="P9" t="n">
-        <v>361.0902988477028</v>
+        <v>360.9119020662485</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -20570,28 +20744,28 @@
         <v>0.0273</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.4803414966877945</v>
+        <v>-0.453048750745782</v>
       </c>
       <c r="J10" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K10" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03567471414922141</v>
+        <v>0.03189320935004014</v>
       </c>
       <c r="M10" t="n">
-        <v>15.40676546144442</v>
+        <v>15.45335260867055</v>
       </c>
       <c r="N10" t="n">
-        <v>361.7111952731685</v>
+        <v>363.3139942573515</v>
       </c>
       <c r="O10" t="n">
-        <v>19.01870645635945</v>
+        <v>19.06079731431378</v>
       </c>
       <c r="P10" t="n">
-        <v>350.8081524815015</v>
+        <v>350.5397442808626</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -20648,28 +20822,28 @@
         <v>0.0212</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.5730602540207506</v>
+        <v>-0.5381357472331669</v>
       </c>
       <c r="J11" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K11" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03774486321031401</v>
+        <v>0.03399842679279752</v>
       </c>
       <c r="M11" t="n">
-        <v>17.96349821538863</v>
+        <v>17.93395084311042</v>
       </c>
       <c r="N11" t="n">
-        <v>496.5568787683173</v>
+        <v>493.6196445545432</v>
       </c>
       <c r="O11" t="n">
-        <v>22.28355624150502</v>
+        <v>22.2175526229723</v>
       </c>
       <c r="P11" t="n">
-        <v>347.3500715568811</v>
+        <v>347.0157975712639</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -20726,28 +20900,28 @@
         <v>0.0314</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.6545003466482011</v>
+        <v>-0.6155455610694693</v>
       </c>
       <c r="J12" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K12" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L12" t="n">
-        <v>0.07714218203692191</v>
+        <v>0.06930154500584063</v>
       </c>
       <c r="M12" t="n">
-        <v>13.83750106311733</v>
+        <v>13.87804549381082</v>
       </c>
       <c r="N12" t="n">
-        <v>298.3248681358905</v>
+        <v>299.3006098707347</v>
       </c>
       <c r="O12" t="n">
-        <v>17.27208349145784</v>
+        <v>17.30030664094526</v>
       </c>
       <c r="P12" t="n">
-        <v>349.800063987664</v>
+        <v>349.4203378242061</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -20804,28 +20978,28 @@
         <v>0.0377</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.5193983214737525</v>
+        <v>-0.4874703302209107</v>
       </c>
       <c r="J13" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K13" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L13" t="n">
-        <v>0.05676261431033847</v>
+        <v>0.05086396126594095</v>
       </c>
       <c r="M13" t="n">
-        <v>12.71517255381582</v>
+        <v>12.75429320422101</v>
       </c>
       <c r="N13" t="n">
-        <v>259.2540822894215</v>
+        <v>259.2478647484862</v>
       </c>
       <c r="O13" t="n">
-        <v>16.10136895699933</v>
+        <v>16.10117588092517</v>
       </c>
       <c r="P13" t="n">
-        <v>347.7487203878723</v>
+        <v>347.4381773641412</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -20882,28 +21056,28 @@
         <v>0.0462</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.514556001833323</v>
+        <v>-0.4809064349488871</v>
       </c>
       <c r="J14" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K14" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0546144073882836</v>
+        <v>0.04851136010563961</v>
       </c>
       <c r="M14" t="n">
-        <v>13.2770405876611</v>
+        <v>13.30203323774557</v>
       </c>
       <c r="N14" t="n">
-        <v>266.2081438109603</v>
+        <v>266.5381679939596</v>
       </c>
       <c r="O14" t="n">
-        <v>16.31588624043941</v>
+        <v>16.32599669220718</v>
       </c>
       <c r="P14" t="n">
-        <v>341.9764686423069</v>
+        <v>341.6536772035906</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -20960,28 +21134,28 @@
         <v>0.0426</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.4962304623736912</v>
+        <v>-0.4654785978988303</v>
       </c>
       <c r="J15" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K15" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L15" t="n">
-        <v>0.04032025283137564</v>
+        <v>0.03609581390439154</v>
       </c>
       <c r="M15" t="n">
-        <v>15.13480361251025</v>
+        <v>15.1191078478874</v>
       </c>
       <c r="N15" t="n">
-        <v>340.660216899309</v>
+        <v>339.8321969376145</v>
       </c>
       <c r="O15" t="n">
-        <v>18.45698287638879</v>
+        <v>18.4345381536293</v>
       </c>
       <c r="P15" t="n">
-        <v>338.6242761960562</v>
+        <v>338.3237727500891</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -21038,28 +21212,28 @@
         <v>0.0499</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.4956605058636253</v>
+        <v>-0.463974597117408</v>
       </c>
       <c r="J16" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K16" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L16" t="n">
-        <v>0.03662040126201016</v>
+        <v>0.03264779807379137</v>
       </c>
       <c r="M16" t="n">
-        <v>15.59554986465011</v>
+        <v>15.58401706815047</v>
       </c>
       <c r="N16" t="n">
-        <v>381.5252178487651</v>
+        <v>380.3025041797096</v>
       </c>
       <c r="O16" t="n">
-        <v>19.53267052527035</v>
+        <v>19.50134621454913</v>
       </c>
       <c r="P16" t="n">
-        <v>333.7646584356851</v>
+        <v>333.4567995467176</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -21116,28 +21290,28 @@
         <v>0.0388</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.5409292947386327</v>
+        <v>-0.5180540630667255</v>
       </c>
       <c r="J17" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K17" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L17" t="n">
-        <v>0.05546000894266256</v>
+        <v>0.05190958078219021</v>
       </c>
       <c r="M17" t="n">
-        <v>13.73091769216905</v>
+        <v>13.69261465732091</v>
       </c>
       <c r="N17" t="n">
-        <v>295.8432773997767</v>
+        <v>294.106126498833</v>
       </c>
       <c r="O17" t="n">
-        <v>17.20009527298546</v>
+        <v>17.1495226318062</v>
       </c>
       <c r="P17" t="n">
-        <v>341.9747155638496</v>
+        <v>341.7552580805992</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -21188,28 +21362,28 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>-0.9502710692360838</v>
+        <v>-0.9322075970509024</v>
       </c>
       <c r="J18" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K18" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1187659723685539</v>
+        <v>0.1166950870651582</v>
       </c>
       <c r="M18" t="n">
-        <v>14.59636158758523</v>
+        <v>14.50768995013319</v>
       </c>
       <c r="N18" t="n">
-        <v>361.0158233830304</v>
+        <v>358.0479159920504</v>
       </c>
       <c r="O18" t="n">
-        <v>19.00041640025372</v>
+        <v>18.92215410549365</v>
       </c>
       <c r="P18" t="n">
-        <v>341.7651266755647</v>
+        <v>341.5754330164129</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -21266,28 +21440,28 @@
         <v>0.0528</v>
       </c>
       <c r="I19" t="n">
-        <v>-1.008019877592479</v>
+        <v>-0.9743457366434058</v>
       </c>
       <c r="J19" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K19" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1165598520705163</v>
+        <v>0.1113246355378297</v>
       </c>
       <c r="M19" t="n">
-        <v>16.15200900994949</v>
+        <v>16.11515567142136</v>
       </c>
       <c r="N19" t="n">
-        <v>433.8010674430477</v>
+        <v>431.9286693917916</v>
       </c>
       <c r="O19" t="n">
-        <v>20.82789157459409</v>
+        <v>20.78289367224381</v>
       </c>
       <c r="P19" t="n">
-        <v>339.3244886086866</v>
+        <v>338.9901924070122</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -21338,28 +21512,28 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>-0.9902036289021701</v>
+        <v>-0.9527414700555743</v>
       </c>
       <c r="J20" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K20" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1373335407586429</v>
+        <v>0.1301615983012492</v>
       </c>
       <c r="M20" t="n">
-        <v>14.76000629455146</v>
+        <v>14.75614171563506</v>
       </c>
       <c r="N20" t="n">
-        <v>356.8696714633041</v>
+        <v>355.7710340734442</v>
       </c>
       <c r="O20" t="n">
-        <v>18.89099445405943</v>
+        <v>18.86189370326968</v>
       </c>
       <c r="P20" t="n">
-        <v>345.4464145478012</v>
+        <v>345.0823170850539</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -21416,28 +21590,28 @@
         <v>0.0369</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.810671074802928</v>
+        <v>-0.7737152403071299</v>
       </c>
       <c r="J21" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K21" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1203783623645611</v>
+        <v>0.1116223081523459</v>
       </c>
       <c r="M21" t="n">
-        <v>13.25418441252219</v>
+        <v>13.31457220866515</v>
       </c>
       <c r="N21" t="n">
-        <v>284.6867446072908</v>
+        <v>285.4561194458626</v>
       </c>
       <c r="O21" t="n">
-        <v>16.87266264130504</v>
+        <v>16.89544670749675</v>
       </c>
       <c r="P21" t="n">
-        <v>345.1750330976337</v>
+        <v>344.8181439215678</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -21494,28 +21668,28 @@
         <v>0.0414</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.833175735487066</v>
+        <v>-0.807767294732267</v>
       </c>
       <c r="J22" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K22" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1242023573076948</v>
+        <v>0.1174912562812315</v>
       </c>
       <c r="M22" t="n">
-        <v>14.08873098287989</v>
+        <v>14.15315768742178</v>
       </c>
       <c r="N22" t="n">
-        <v>291.7827054097692</v>
+        <v>293.6900305054724</v>
       </c>
       <c r="O22" t="n">
-        <v>17.08164820530411</v>
+        <v>17.13738692174137</v>
       </c>
       <c r="P22" t="n">
-        <v>346.6229316475955</v>
+        <v>346.3798089063078</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -21572,28 +21746,28 @@
         <v>0.0554</v>
       </c>
       <c r="I23" t="n">
-        <v>-1.077043184649055</v>
+        <v>-1.055478273626013</v>
       </c>
       <c r="J23" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K23" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L23" t="n">
-        <v>0.1915904821441959</v>
+        <v>0.1858600703055783</v>
       </c>
       <c r="M23" t="n">
-        <v>13.4109489789298</v>
+        <v>13.44845923629049</v>
       </c>
       <c r="N23" t="n">
-        <v>288.3967082826624</v>
+        <v>289.1560686798543</v>
       </c>
       <c r="O23" t="n">
-        <v>16.98224685613368</v>
+        <v>17.00458963573818</v>
       </c>
       <c r="P23" t="n">
-        <v>343.119881472806</v>
+        <v>342.9128231668244</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -21650,28 +21824,28 @@
         <v>0.0559</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.7879887070028766</v>
+        <v>-0.7723030581919273</v>
       </c>
       <c r="J24" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K24" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L24" t="n">
-        <v>0.09843968609520903</v>
+        <v>0.09552207226097098</v>
       </c>
       <c r="M24" t="n">
-        <v>14.35041220530136</v>
+        <v>14.35524893387062</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1093965790312</v>
+        <v>332.5723298459569</v>
       </c>
       <c r="O24" t="n">
-        <v>18.25128479255724</v>
+        <v>18.23656573606875</v>
       </c>
       <c r="P24" t="n">
-        <v>343.6389347821613</v>
+        <v>343.4866462462583</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -21728,28 +21902,28 @@
         <v>0.0414</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.2674689560593445</v>
+        <v>-0.2651104350053333</v>
       </c>
       <c r="J25" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K25" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L25" t="n">
-        <v>0.017441511597728</v>
+        <v>0.01734906520583612</v>
       </c>
       <c r="M25" t="n">
-        <v>12.38735956991778</v>
+        <v>12.32058027632638</v>
       </c>
       <c r="N25" t="n">
-        <v>242.8811071490688</v>
+        <v>241.3708784459693</v>
       </c>
       <c r="O25" t="n">
-        <v>15.58464331157659</v>
+        <v>15.53611529456348</v>
       </c>
       <c r="P25" t="n">
-        <v>356.6741705456453</v>
+        <v>356.6518674840553</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -21806,28 +21980,28 @@
         <v>0.0474</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.5497364074561041</v>
+        <v>-0.5263394367708871</v>
       </c>
       <c r="J26" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K26" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L26" t="n">
-        <v>0.08677991959385545</v>
+        <v>0.07986086235077072</v>
       </c>
       <c r="M26" t="n">
-        <v>10.72410258360976</v>
+        <v>10.78260038932741</v>
       </c>
       <c r="N26" t="n">
-        <v>187.1997728111473</v>
+        <v>188.948227345461</v>
       </c>
       <c r="O26" t="n">
-        <v>13.68209679877859</v>
+        <v>13.7458440026599</v>
       </c>
       <c r="P26" t="n">
-        <v>340.4027951166878</v>
+        <v>340.1777442680062</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -21878,28 +22052,28 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>-0.8917807807654577</v>
+        <v>-0.880990160102277</v>
       </c>
       <c r="J27" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K27" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0844498697398014</v>
+        <v>0.0834075041436132</v>
       </c>
       <c r="M27" t="n">
-        <v>17.3034532680496</v>
+        <v>17.24281458606781</v>
       </c>
       <c r="N27" t="n">
-        <v>492.2633308825806</v>
+        <v>489.6849817219559</v>
       </c>
       <c r="O27" t="n">
-        <v>22.18700815528269</v>
+        <v>22.12882693958168</v>
       </c>
       <c r="P27" t="n">
-        <v>324.2507654790288</v>
+        <v>324.1427223371984</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -21956,28 +22130,28 @@
         <v>0.0321</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.3566784145747566</v>
+        <v>-0.3168764831155706</v>
       </c>
       <c r="J28" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K28" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01370013161324324</v>
+        <v>0.01079102103164242</v>
       </c>
       <c r="M28" t="n">
-        <v>17.81613629576876</v>
+        <v>17.92910691250263</v>
       </c>
       <c r="N28" t="n">
-        <v>534.5630613904783</v>
+        <v>539.9359051205086</v>
       </c>
       <c r="O28" t="n">
-        <v>23.12061983145085</v>
+        <v>23.23652093409228</v>
       </c>
       <c r="P28" t="n">
-        <v>334.271243597809</v>
+        <v>333.8789759460644</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -22015,7 +22189,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC204"/>
+  <dimension ref="A1:AC206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48479,6 +48653,236 @@
         </is>
       </c>
     </row>
+    <row r="205">
+      <c r="A205" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:17:36+00:00</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr"/>
+      <c r="C205" t="inlineStr"/>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr"/>
+      <c r="F205" t="inlineStr"/>
+      <c r="G205" t="inlineStr"/>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>-35.262718493591464,173.13231991497125</t>
+        </is>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>-35.262158280387524,173.1317400544577</t>
+        </is>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>-35.26158362261523,173.1311812236914</t>
+        </is>
+      </c>
+      <c r="N205" t="inlineStr">
+        <is>
+          <t>-35.260985283881205,173.13065687351127</t>
+        </is>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>-35.26039081145851,173.1301268871918</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>-35.25980876742101,173.12957879593307</t>
+        </is>
+      </c>
+      <c r="Q205" t="inlineStr">
+        <is>
+          <t>-35.25926800763308,173.12897057735898</t>
+        </is>
+      </c>
+      <c r="R205" t="inlineStr">
+        <is>
+          <t>-35.258607546006296,173.12853667305157</t>
+        </is>
+      </c>
+      <c r="S205" t="inlineStr">
+        <is>
+          <t>-35.25806791877849,173.12792679391396</t>
+        </is>
+      </c>
+      <c r="T205" t="inlineStr">
+        <is>
+          <t>-35.25757786029959,173.12724472264063</t>
+        </is>
+      </c>
+      <c r="U205" t="inlineStr">
+        <is>
+          <t>-35.25701947546916,173.12666214839027</t>
+        </is>
+      </c>
+      <c r="V205" t="inlineStr"/>
+      <c r="W205" t="inlineStr"/>
+      <c r="X205" t="inlineStr"/>
+      <c r="Y205" t="inlineStr"/>
+      <c r="Z205" t="inlineStr"/>
+      <c r="AA205" t="inlineStr"/>
+      <c r="AB205" t="inlineStr"/>
+      <c r="AC205" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:17:43+00:00</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>-35.26802477742516,173.1371534133356</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>-35.267400190313424,173.13666735081307</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>-35.26687336921197,173.13603890699173</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>-35.26632564714767,173.13544089527986</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>-35.265755659971965,173.13487530239945</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>-35.26513323323899,173.1343860711951</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>-35.26457221078247,173.1338074117484</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>-35.263944302723445,173.1333261515374</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>-35.263374714091114,173.13275995562583</t>
+        </is>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>-35.26273273314431,173.132299178116</t>
+        </is>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>-35.26220973933822,173.13166511541218</t>
+        </is>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>-35.26163349367914,173.13110859705506</t>
+        </is>
+      </c>
+      <c r="N206" t="inlineStr">
+        <is>
+          <t>-35.26105057659807,173.13056178855183</t>
+        </is>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>-35.26047022746112,173.1300112347104</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>-35.25987834297085,173.12947747400756</t>
+        </is>
+      </c>
+      <c r="Q206" t="inlineStr">
+        <is>
+          <t>-35.25932355039297,173.12888969108758</t>
+        </is>
+      </c>
+      <c r="R206" t="inlineStr">
+        <is>
+          <t>-35.25869703267422,173.12840635501829</t>
+        </is>
+      </c>
+      <c r="S206" t="inlineStr">
+        <is>
+          <t>-35.25815034336355,173.12780676009953</t>
+        </is>
+      </c>
+      <c r="T206" t="inlineStr">
+        <is>
+          <t>-35.2576059331333,173.12720384044388</t>
+        </is>
+      </c>
+      <c r="U206" t="inlineStr">
+        <is>
+          <t>-35.25710199017159,173.12654198278278</t>
+        </is>
+      </c>
+      <c r="V206" t="inlineStr">
+        <is>
+          <t>-35.2565483555854,173.1259524849659</t>
+        </is>
+      </c>
+      <c r="W206" t="inlineStr">
+        <is>
+          <t>-35.255902011355474,173.12549799413424</t>
+        </is>
+      </c>
+      <c r="X206" t="inlineStr">
+        <is>
+          <t>-35.2553558487513,173.12489760363687</t>
+        </is>
+      </c>
+      <c r="Y206" t="inlineStr">
+        <is>
+          <t>-35.25486902184916,173.12421079687462</t>
+        </is>
+      </c>
+      <c r="Z206" t="inlineStr">
+        <is>
+          <t>-35.25428739032242,173.12366204824727</t>
+        </is>
+      </c>
+      <c r="AA206" t="inlineStr">
+        <is>
+          <t>-35.25350534897355,173.12340514966763</t>
+        </is>
+      </c>
+      <c r="AB206" t="inlineStr">
+        <is>
+          <t>-35.25324889703288,173.12238283124438</t>
+        </is>
+      </c>
+      <c r="AC206" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0065/nzd0065.xlsx
+++ b/data/nzd0065/nzd0065.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC206"/>
+  <dimension ref="A1:AC207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17850,6 +17850,99 @@
         </is>
       </c>
     </row>
+    <row r="207">
+      <c r="A207" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:17:52+00:00</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>368.51</v>
+      </c>
+      <c r="C207" t="n">
+        <v>364.39</v>
+      </c>
+      <c r="D207" t="n">
+        <v>366.55</v>
+      </c>
+      <c r="E207" t="n">
+        <v>366.87</v>
+      </c>
+      <c r="F207" t="n">
+        <v>371.8485714285715</v>
+      </c>
+      <c r="G207" t="n">
+        <v>368.09</v>
+      </c>
+      <c r="H207" t="n">
+        <v>361.6785714285714</v>
+      </c>
+      <c r="I207" t="n">
+        <v>342.4685714285715</v>
+      </c>
+      <c r="J207" t="n">
+        <v>336.99</v>
+      </c>
+      <c r="K207" t="n">
+        <v>326.72</v>
+      </c>
+      <c r="L207" t="n">
+        <v>330.04</v>
+      </c>
+      <c r="M207" t="n">
+        <v>342.1385714285714</v>
+      </c>
+      <c r="N207" t="n">
+        <v>343.3</v>
+      </c>
+      <c r="O207" t="n">
+        <v>341.9</v>
+      </c>
+      <c r="P207" t="n">
+        <v>329.7466666666667</v>
+      </c>
+      <c r="Q207" t="n">
+        <v>326.4385714285714</v>
+      </c>
+      <c r="R207" t="n">
+        <v>310.33</v>
+      </c>
+      <c r="S207" t="n">
+        <v>311.2466666666667</v>
+      </c>
+      <c r="T207" t="n">
+        <v>307.48</v>
+      </c>
+      <c r="U207" t="n">
+        <v>325.2285714285715</v>
+      </c>
+      <c r="V207" t="n">
+        <v>318.9285714285714</v>
+      </c>
+      <c r="W207" t="n">
+        <v>307.9566666666667</v>
+      </c>
+      <c r="X207" t="n">
+        <v>318.16</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>334.4985714285714</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>317.08</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>284.1269230769231</v>
+      </c>
+      <c r="AB207" t="n">
+        <v>343.34</v>
+      </c>
+      <c r="AC207" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17861,7 +17954,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B209"/>
+  <dimension ref="A1:B210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19959,6 +20052,16 @@
       </c>
       <c r="B209" t="n">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
@@ -20126,28 +20229,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>-1.088647058960206</v>
+        <v>-1.092652527101799</v>
       </c>
       <c r="J2" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K2" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1419463834301823</v>
+        <v>0.1446767140395843</v>
       </c>
       <c r="M2" t="n">
-        <v>17.02077712783492</v>
+        <v>16.92258532225783</v>
       </c>
       <c r="N2" t="n">
-        <v>444.245202851814</v>
+        <v>441.182874467956</v>
       </c>
       <c r="O2" t="n">
-        <v>21.07712510879541</v>
+        <v>21.00435370269592</v>
       </c>
       <c r="P2" t="n">
-        <v>399.8886198390539</v>
+        <v>399.9248947455745</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20198,28 +20301,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.7575472345752184</v>
+        <v>-0.7582699172183864</v>
       </c>
       <c r="J3" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K3" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08178288264652245</v>
+        <v>0.08276842922002992</v>
       </c>
       <c r="M3" t="n">
-        <v>15.09047933262056</v>
+        <v>15.00784744127379</v>
       </c>
       <c r="N3" t="n">
-        <v>397.2818298425756</v>
+        <v>394.98828980641</v>
       </c>
       <c r="O3" t="n">
-        <v>19.9319299076275</v>
+        <v>19.87431231027655</v>
       </c>
       <c r="P3" t="n">
-        <v>384.7812982027361</v>
+        <v>384.7880926661667</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20276,28 +20379,28 @@
         <v>0.0446</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2813266769864347</v>
+        <v>-0.2820256682546355</v>
       </c>
       <c r="J4" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K4" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02068877587090356</v>
+        <v>0.0210197816239327</v>
       </c>
       <c r="M4" t="n">
-        <v>11.98180569786457</v>
+        <v>11.91807988178537</v>
       </c>
       <c r="N4" t="n">
-        <v>228.4289007171303</v>
+        <v>227.1409877657503</v>
       </c>
       <c r="O4" t="n">
-        <v>15.11386451961014</v>
+        <v>15.0711972903864</v>
       </c>
       <c r="P4" t="n">
-        <v>374.5480929309426</v>
+        <v>374.5546679995981</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20354,28 +20457,28 @@
         <v>0.0489</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0002835807679714572</v>
+        <v>7.956665989850871e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K5" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L5" t="n">
-        <v>2.034490764746266e-08</v>
+        <v>1.618939649006279e-09</v>
       </c>
       <c r="M5" t="n">
-        <v>12.46232474631573</v>
+        <v>12.3945534786281</v>
       </c>
       <c r="N5" t="n">
-        <v>236.860621428006</v>
+        <v>235.5522312782504</v>
       </c>
       <c r="O5" t="n">
-        <v>15.3902768470228</v>
+        <v>15.34771094587888</v>
       </c>
       <c r="P5" t="n">
-        <v>367.0692587407944</v>
+        <v>367.0712205869902</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20432,28 +20535,28 @@
         <v>0.0401</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.01104802224066477</v>
+        <v>-0.005284612078061096</v>
       </c>
       <c r="J6" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K6" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L6" t="n">
-        <v>2.873806769254639e-05</v>
+        <v>6.640913564615047e-06</v>
       </c>
       <c r="M6" t="n">
-        <v>12.27562009357839</v>
+        <v>12.23923686062685</v>
       </c>
       <c r="N6" t="n">
-        <v>251.7052601116837</v>
+        <v>250.5146797066581</v>
       </c>
       <c r="O6" t="n">
-        <v>15.86522171643636</v>
+        <v>15.8276555341168</v>
       </c>
       <c r="P6" t="n">
-        <v>366.2721999061181</v>
+        <v>366.2162847114706</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20510,28 +20613,28 @@
         <v>0.0424</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1583299540825346</v>
+        <v>-0.150594690413913</v>
       </c>
       <c r="J7" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K7" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L7" t="n">
-        <v>0.007660989089979031</v>
+        <v>0.006996755782253894</v>
       </c>
       <c r="M7" t="n">
-        <v>10.96147886210841</v>
+        <v>10.94156450742785</v>
       </c>
       <c r="N7" t="n">
-        <v>190.3691251824373</v>
+        <v>189.6434129367578</v>
       </c>
       <c r="O7" t="n">
-        <v>13.79743183286068</v>
+        <v>13.77110790520348</v>
       </c>
       <c r="P7" t="n">
-        <v>364.4110525936591</v>
+        <v>364.334845515226</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20588,28 +20691,28 @@
         <v>0.0369</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1295775732565289</v>
+        <v>-0.1259918894208308</v>
       </c>
       <c r="J8" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K8" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L8" t="n">
-        <v>0.00552886206347547</v>
+        <v>0.005282493024727719</v>
       </c>
       <c r="M8" t="n">
-        <v>10.62627777120414</v>
+        <v>10.5882562002908</v>
       </c>
       <c r="N8" t="n">
-        <v>176.9093308646062</v>
+        <v>176.0023508358916</v>
       </c>
       <c r="O8" t="n">
-        <v>13.30072670437996</v>
+        <v>13.26658776158706</v>
       </c>
       <c r="P8" t="n">
-        <v>361.4453310841772</v>
+        <v>361.4101421619766</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -20666,28 +20769,28 @@
         <v>0.038</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.5485858763570197</v>
+        <v>-0.552679858084586</v>
       </c>
       <c r="J9" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K9" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06683343126137031</v>
+        <v>0.06839768759801335</v>
       </c>
       <c r="M9" t="n">
-        <v>13.29244823498585</v>
+        <v>13.24379519693672</v>
       </c>
       <c r="N9" t="n">
-        <v>247.6999101402314</v>
+        <v>246.4270006634146</v>
       </c>
       <c r="O9" t="n">
-        <v>15.73848500142982</v>
+        <v>15.6979935234862</v>
       </c>
       <c r="P9" t="n">
-        <v>360.9119020662485</v>
+        <v>360.9522293399625</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -20744,28 +20847,28 @@
         <v>0.0273</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.453048750745782</v>
+        <v>-0.4549521908884359</v>
       </c>
       <c r="J10" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K10" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03189320935004014</v>
+        <v>0.03250761550645775</v>
       </c>
       <c r="M10" t="n">
-        <v>15.45335260867055</v>
+        <v>15.37254771884893</v>
       </c>
       <c r="N10" t="n">
-        <v>363.3139942573515</v>
+        <v>361.1699672941758</v>
       </c>
       <c r="O10" t="n">
-        <v>19.06079731431378</v>
+        <v>19.0044722971772</v>
       </c>
       <c r="P10" t="n">
-        <v>350.5397442808626</v>
+        <v>350.5585509385825</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -20822,28 +20925,28 @@
         <v>0.0212</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.5381357472331669</v>
+        <v>-0.5448999863774113</v>
       </c>
       <c r="J11" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K11" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03399842679279752</v>
+        <v>0.03520493350123211</v>
       </c>
       <c r="M11" t="n">
-        <v>17.93395084311042</v>
+        <v>17.86460471306706</v>
       </c>
       <c r="N11" t="n">
-        <v>493.6196445545432</v>
+        <v>490.882196568909</v>
       </c>
       <c r="O11" t="n">
-        <v>22.2175526229723</v>
+        <v>22.15586144948801</v>
       </c>
       <c r="P11" t="n">
-        <v>347.0157975712639</v>
+        <v>347.0809200778737</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -20900,28 +21003,28 @@
         <v>0.0314</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.6155455610694693</v>
+        <v>-0.6189206796192012</v>
       </c>
       <c r="J12" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K12" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L12" t="n">
-        <v>0.06930154500584063</v>
+        <v>0.07069369322753494</v>
       </c>
       <c r="M12" t="n">
-        <v>13.87804549381082</v>
+        <v>13.82108252476328</v>
       </c>
       <c r="N12" t="n">
-        <v>299.3006098707347</v>
+        <v>297.7006634613455</v>
       </c>
       <c r="O12" t="n">
-        <v>17.30030664094526</v>
+        <v>17.25400427325047</v>
       </c>
       <c r="P12" t="n">
-        <v>349.4203378242061</v>
+        <v>349.4534226525914</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -20978,28 +21081,28 @@
         <v>0.0377</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.4874703302209107</v>
+        <v>-0.480058886888848</v>
       </c>
       <c r="J13" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K13" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L13" t="n">
-        <v>0.05086396126594095</v>
+        <v>0.04986506998395912</v>
       </c>
       <c r="M13" t="n">
-        <v>12.75429320422101</v>
+        <v>12.72569905914598</v>
       </c>
       <c r="N13" t="n">
-        <v>259.2478647484862</v>
+        <v>258.110218647278</v>
       </c>
       <c r="O13" t="n">
-        <v>16.10117588092517</v>
+        <v>16.06580899448509</v>
       </c>
       <c r="P13" t="n">
-        <v>347.4381773641412</v>
+        <v>347.3657004645106</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -21056,28 +21159,28 @@
         <v>0.0462</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.4809064349488871</v>
+        <v>-0.466623523734888</v>
       </c>
       <c r="J14" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K14" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L14" t="n">
-        <v>0.04851136010563961</v>
+        <v>0.04611452199482957</v>
       </c>
       <c r="M14" t="n">
-        <v>13.30203323774557</v>
+        <v>13.30240683582901</v>
       </c>
       <c r="N14" t="n">
-        <v>266.5381679939596</v>
+        <v>266.1560157800329</v>
       </c>
       <c r="O14" t="n">
-        <v>16.32599669220718</v>
+        <v>16.31428869978808</v>
       </c>
       <c r="P14" t="n">
-        <v>341.6536772035906</v>
+        <v>341.515948687435</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -21134,28 +21237,28 @@
         <v>0.0426</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.4654785978988303</v>
+        <v>-0.4496384594848356</v>
       </c>
       <c r="J15" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K15" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03609581390439154</v>
+        <v>0.03398403630705393</v>
       </c>
       <c r="M15" t="n">
-        <v>15.1191078478874</v>
+        <v>15.11299017866734</v>
       </c>
       <c r="N15" t="n">
-        <v>339.8321969376145</v>
+        <v>339.2764918842398</v>
       </c>
       <c r="O15" t="n">
-        <v>18.4345381536293</v>
+        <v>18.41945959805118</v>
       </c>
       <c r="P15" t="n">
-        <v>338.3237727500891</v>
+        <v>338.1681565959018</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -21212,28 +21315,28 @@
         <v>0.0499</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.463974597117408</v>
+        <v>-0.4556204805017053</v>
       </c>
       <c r="J16" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K16" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L16" t="n">
-        <v>0.03264779807379137</v>
+        <v>0.03181370907074321</v>
       </c>
       <c r="M16" t="n">
-        <v>15.58401706815047</v>
+        <v>15.53998446630673</v>
       </c>
       <c r="N16" t="n">
-        <v>380.3025041797096</v>
+        <v>378.5205831576906</v>
       </c>
       <c r="O16" t="n">
-        <v>19.50134621454913</v>
+        <v>19.45560544310278</v>
       </c>
       <c r="P16" t="n">
-        <v>333.4567995467176</v>
+        <v>333.3751752955218</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -21290,28 +21393,28 @@
         <v>0.0388</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.5180540630667255</v>
+        <v>-0.5199366484111803</v>
       </c>
       <c r="J17" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K17" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L17" t="n">
-        <v>0.05190958078219021</v>
+        <v>0.05280916193528795</v>
       </c>
       <c r="M17" t="n">
-        <v>13.69261465732091</v>
+        <v>13.62537401393042</v>
       </c>
       <c r="N17" t="n">
-        <v>294.106126498833</v>
+        <v>292.4449484691551</v>
       </c>
       <c r="O17" t="n">
-        <v>17.1495226318062</v>
+        <v>17.10102185453124</v>
       </c>
       <c r="P17" t="n">
-        <v>341.7552580805992</v>
+        <v>341.7734178010837</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -21362,28 +21465,28 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>-0.9322075970509024</v>
+        <v>-0.9400614705855072</v>
       </c>
       <c r="J18" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K18" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1166950870651582</v>
+        <v>0.1195208397836187</v>
       </c>
       <c r="M18" t="n">
-        <v>14.50768995013319</v>
+        <v>14.46368631712762</v>
       </c>
       <c r="N18" t="n">
-        <v>358.0479159920504</v>
+        <v>356.1375300910081</v>
       </c>
       <c r="O18" t="n">
-        <v>18.92215410549365</v>
+        <v>18.8716064523137</v>
       </c>
       <c r="P18" t="n">
-        <v>341.5754330164129</v>
+        <v>341.6582943857515</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -21440,28 +21543,28 @@
         <v>0.0528</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.9743457366434058</v>
+        <v>-0.9770034622009733</v>
       </c>
       <c r="J19" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K19" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1113246355378297</v>
+        <v>0.1130239055754707</v>
       </c>
       <c r="M19" t="n">
-        <v>16.11515567142136</v>
+        <v>16.03602544946551</v>
       </c>
       <c r="N19" t="n">
-        <v>431.9286693917916</v>
+        <v>429.4072988936661</v>
       </c>
       <c r="O19" t="n">
-        <v>20.78289367224381</v>
+        <v>20.72214513253071</v>
       </c>
       <c r="P19" t="n">
-        <v>338.9901924070122</v>
+        <v>339.0167106497136</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -21512,28 +21615,28 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>-0.9527414700555743</v>
+        <v>-0.9671903696173002</v>
       </c>
       <c r="J20" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K20" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1301615983012492</v>
+        <v>0.1346890146618419</v>
       </c>
       <c r="M20" t="n">
-        <v>14.75614171563506</v>
+        <v>14.75276403741469</v>
       </c>
       <c r="N20" t="n">
-        <v>355.7710340734442</v>
+        <v>354.5687038503337</v>
       </c>
       <c r="O20" t="n">
-        <v>18.86189370326968</v>
+        <v>18.82999479156417</v>
       </c>
       <c r="P20" t="n">
-        <v>345.0823170850539</v>
+        <v>345.2235348528736</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -21590,28 +21693,28 @@
         <v>0.0369</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.7737152403071299</v>
+        <v>-0.7731837167097079</v>
       </c>
       <c r="J21" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K21" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1116223081523459</v>
+        <v>0.1125958908624699</v>
       </c>
       <c r="M21" t="n">
-        <v>13.31457220866515</v>
+        <v>13.2384846129384</v>
       </c>
       <c r="N21" t="n">
-        <v>285.4561194458626</v>
+        <v>283.7584919409687</v>
       </c>
       <c r="O21" t="n">
-        <v>16.89544670749675</v>
+        <v>16.84513258899937</v>
       </c>
       <c r="P21" t="n">
-        <v>344.8181439215678</v>
+        <v>344.8129822710429</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -21668,28 +21771,28 @@
         <v>0.0414</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.807767294732267</v>
+        <v>-0.8141914876122568</v>
       </c>
       <c r="J22" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K22" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1174912562812315</v>
+        <v>0.1202008259623967</v>
       </c>
       <c r="M22" t="n">
-        <v>14.15315768742178</v>
+        <v>14.1091702247588</v>
       </c>
       <c r="N22" t="n">
-        <v>293.6900305054724</v>
+        <v>292.2870648698182</v>
       </c>
       <c r="O22" t="n">
-        <v>17.13738692174137</v>
+        <v>17.09640502766059</v>
       </c>
       <c r="P22" t="n">
-        <v>346.3798089063078</v>
+        <v>346.4415692412518</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -21746,28 +21849,28 @@
         <v>0.0554</v>
       </c>
       <c r="I23" t="n">
-        <v>-1.055478273626013</v>
+        <v>-1.063261140764778</v>
       </c>
       <c r="J23" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K23" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L23" t="n">
-        <v>0.1858600703055783</v>
+        <v>0.1896568229647969</v>
       </c>
       <c r="M23" t="n">
-        <v>13.44845923629049</v>
+        <v>13.41554320345139</v>
       </c>
       <c r="N23" t="n">
-        <v>289.1560686798543</v>
+        <v>287.8305660148393</v>
       </c>
       <c r="O23" t="n">
-        <v>17.00458963573818</v>
+        <v>16.96557001738637</v>
       </c>
       <c r="P23" t="n">
-        <v>342.9128231668244</v>
+        <v>342.9878948648036</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -21824,28 +21927,28 @@
         <v>0.0559</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.7723030581919273</v>
+        <v>-0.7775800444414365</v>
       </c>
       <c r="J24" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K24" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L24" t="n">
-        <v>0.09552207226097098</v>
+        <v>0.09761446358436721</v>
       </c>
       <c r="M24" t="n">
-        <v>14.35524893387062</v>
+        <v>14.30482111505159</v>
       </c>
       <c r="N24" t="n">
-        <v>332.5723298459569</v>
+        <v>330.8761879028972</v>
       </c>
       <c r="O24" t="n">
-        <v>18.23656573606875</v>
+        <v>18.1900024162422</v>
       </c>
       <c r="P24" t="n">
-        <v>343.4866462462583</v>
+        <v>343.5381173225867</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -21902,28 +22005,28 @@
         <v>0.0414</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.2651104350053333</v>
+        <v>-0.2822011481994005</v>
       </c>
       <c r="J25" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K25" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01734906520583612</v>
+        <v>0.0197347580032351</v>
       </c>
       <c r="M25" t="n">
-        <v>12.32058027632638</v>
+        <v>12.34856291627726</v>
       </c>
       <c r="N25" t="n">
-        <v>241.3708784459693</v>
+        <v>241.2916286797464</v>
       </c>
       <c r="O25" t="n">
-        <v>15.53611529456348</v>
+        <v>15.53356458382127</v>
       </c>
       <c r="P25" t="n">
-        <v>356.6518674840553</v>
+        <v>356.8142503261973</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -21980,28 +22083,28 @@
         <v>0.0474</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.5263394367708871</v>
+        <v>-0.5361139301733183</v>
       </c>
       <c r="J26" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K26" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L26" t="n">
-        <v>0.07986086235077072</v>
+        <v>0.08326740306989211</v>
       </c>
       <c r="M26" t="n">
-        <v>10.78260038932741</v>
+        <v>10.77738681686094</v>
       </c>
       <c r="N26" t="n">
-        <v>188.948227345461</v>
+        <v>188.3675567469073</v>
       </c>
       <c r="O26" t="n">
-        <v>13.7458440026599</v>
+        <v>13.72470607142125</v>
       </c>
       <c r="P26" t="n">
-        <v>340.1777442680062</v>
+        <v>340.2721960545954</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -22052,28 +22155,28 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>-0.880990160102277</v>
+        <v>-0.9003859558648243</v>
       </c>
       <c r="J27" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K27" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0834075041436132</v>
+        <v>0.08744208672880061</v>
       </c>
       <c r="M27" t="n">
-        <v>17.24281458606781</v>
+        <v>17.25924110477401</v>
       </c>
       <c r="N27" t="n">
-        <v>489.6849817219559</v>
+        <v>488.4095538159732</v>
       </c>
       <c r="O27" t="n">
-        <v>22.12882693958168</v>
+        <v>22.09998990533645</v>
       </c>
       <c r="P27" t="n">
-        <v>324.1427223371984</v>
+        <v>324.3378373353575</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -22130,28 +22233,28 @@
         <v>0.0321</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.3168764831155706</v>
+        <v>-0.2987089257642757</v>
       </c>
       <c r="J28" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K28" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01079102103164242</v>
+        <v>0.009672082880327171</v>
       </c>
       <c r="M28" t="n">
-        <v>17.92910691250263</v>
+        <v>17.92774984930842</v>
       </c>
       <c r="N28" t="n">
-        <v>539.9359051205086</v>
+        <v>538.5866018330819</v>
       </c>
       <c r="O28" t="n">
-        <v>23.23652093409228</v>
+        <v>23.20746866491652</v>
       </c>
       <c r="P28" t="n">
-        <v>333.8789759460644</v>
+        <v>333.6990672902118</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -22189,7 +22292,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC206"/>
+  <dimension ref="A1:AC207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48883,6 +48986,153 @@
         </is>
       </c>
     </row>
+    <row r="207">
+      <c r="A207" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:17:52+00:00</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>-35.26790211596395,173.13733204364982</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>-35.26731585001409,173.13679017437354</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>-35.26676593281029,173.13619536534128</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>-35.26620536060499,173.13561606732046</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>-35.26567175086125,173.13499749850484</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>-35.265087561779104,173.13445258207534</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>-35.26448801290178,173.1339300282551</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>-35.26381437605758,173.13351536183046</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>-35.26322022007391,173.1329849429647</t>
+        </is>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>-35.26259832551549,173.13249491350948</t>
+        </is>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>-35.262055092219896,173.13189032564398</t>
+        </is>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>-35.261562668651564,173.13121173865352</t>
+        </is>
+      </c>
+      <c r="N207" t="inlineStr">
+        <is>
+          <t>-35.261006932361255,173.13062534713208</t>
+        </is>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>-35.26043636569517,173.13006054720276</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>-35.259803551502344,173.1295863917924</t>
+        </is>
+      </c>
+      <c r="Q207" t="inlineStr">
+        <is>
+          <t>-35.25922193281768,173.12903767542977</t>
+        </is>
+      </c>
+      <c r="R207" t="inlineStr">
+        <is>
+          <t>-35.25856621770455,173.1285968586442</t>
+        </is>
+      </c>
+      <c r="S207" t="inlineStr">
+        <is>
+          <t>-35.25800904583914,173.128012529528</t>
+        </is>
+      </c>
+      <c r="T207" t="inlineStr">
+        <is>
+          <t>-35.25742476181786,173.12746767762954</t>
+        </is>
+      </c>
+      <c r="U207" t="inlineStr">
+        <is>
+          <t>-35.25696500858863,173.12674146791366</t>
+        </is>
+      </c>
+      <c r="V207" t="inlineStr">
+        <is>
+          <t>-35.2563660532586,173.12621797034708</t>
+        </is>
+      </c>
+      <c r="W207" t="inlineStr">
+        <is>
+          <t>-35.255740052630216,173.1257338527273</t>
+        </is>
+      </c>
+      <c r="X207" t="inlineStr">
+        <is>
+          <t>-35.25523661357279,173.12507124482718</t>
+        </is>
+      </c>
+      <c r="Y207" t="inlineStr">
+        <is>
+          <t>-35.25476868132721,173.124356922562</t>
+        </is>
+      </c>
+      <c r="Z207" t="inlineStr">
+        <is>
+          <t>-35.25410535578088,173.12392714427492</t>
+        </is>
+      </c>
+      <c r="AA207" t="inlineStr">
+        <is>
+          <t>-35.253352112388804,173.12362830559383</t>
+        </is>
+      </c>
+      <c r="AB207" t="inlineStr">
+        <is>
+          <t>-35.25313232674492,173.1225525930857</t>
+        </is>
+      </c>
+      <c r="AC207" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0065/nzd0065.xlsx
+++ b/data/nzd0065/nzd0065.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC207"/>
+  <dimension ref="A1:AC208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17943,6 +17943,97 @@
         </is>
       </c>
     </row>
+    <row r="208">
+      <c r="A208" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:17:57+00:00</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>387.6</v>
+      </c>
+      <c r="C208" t="n">
+        <v>358.38</v>
+      </c>
+      <c r="D208" t="n">
+        <v>355.98</v>
+      </c>
+      <c r="E208" t="n">
+        <v>354.3</v>
+      </c>
+      <c r="F208" t="n">
+        <v>357.2114285714285</v>
+      </c>
+      <c r="G208" t="n">
+        <v>352.42</v>
+      </c>
+      <c r="H208" t="n">
+        <v>344.5714285714286</v>
+      </c>
+      <c r="I208" t="n">
+        <v>330.4614285714285</v>
+      </c>
+      <c r="J208" t="n">
+        <v>330.75</v>
+      </c>
+      <c r="K208" t="n">
+        <v>315.56</v>
+      </c>
+      <c r="L208" t="n">
+        <v>326.9466666666667</v>
+      </c>
+      <c r="M208" t="n">
+        <v>340.1414285714285</v>
+      </c>
+      <c r="N208" t="n">
+        <v>332.17</v>
+      </c>
+      <c r="O208" t="n">
+        <v>332.66</v>
+      </c>
+      <c r="P208" t="n">
+        <v>323.4811111111111</v>
+      </c>
+      <c r="Q208" t="n">
+        <v>325.3614285714286</v>
+      </c>
+      <c r="R208" t="n">
+        <v>312.68</v>
+      </c>
+      <c r="S208" t="n">
+        <v>308.4111111111111</v>
+      </c>
+      <c r="T208" t="n">
+        <v>311.3</v>
+      </c>
+      <c r="U208" t="n">
+        <v>312.7314285714286</v>
+      </c>
+      <c r="V208" t="n">
+        <v>315.7614285714285</v>
+      </c>
+      <c r="W208" t="n">
+        <v>306.0411111111111</v>
+      </c>
+      <c r="X208" t="n">
+        <v>316.36</v>
+      </c>
+      <c r="Y208" t="inlineStr"/>
+      <c r="Z208" t="n">
+        <v>320.37</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>303.2469230769231</v>
+      </c>
+      <c r="AB208" t="n">
+        <v>324.37</v>
+      </c>
+      <c r="AC208" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17954,7 +18045,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B210"/>
+  <dimension ref="A1:B211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20062,6 +20153,16 @@
       </c>
       <c r="B210" t="n">
         <v>0.75</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>0.23</v>
       </c>
     </row>
   </sheetData>
@@ -22292,7 +22393,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC207"/>
+  <dimension ref="A1:AC208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49133,6 +49234,149 @@
         </is>
       </c>
     </row>
+    <row r="208">
+      <c r="A208" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:17:57+00:00</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>-35.26801262127521,173.1371711162223</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>-35.26728106032771,173.13684083796431</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>-35.26670474722559,173.13628446886102</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>-35.26613259812126,173.13572203013683</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>-35.26558702295889,173.13512088657038</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>-35.2649968554881,173.13458467633976</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>-35.264388988029616,173.13407423659936</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>-35.26374487277701,173.13361657801013</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>-35.26318410001823,173.13303754385288</t>
+        </is>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>-35.262533726386884,173.13258898765454</t>
+        </is>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>-35.26203718669976,173.131916401084</t>
+        </is>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>-35.261551108411005,173.13122857365744</t>
+        </is>
+      </c>
+      <c r="N208" t="inlineStr">
+        <is>
+          <t>-35.260942507849556,173.1307191675642</t>
+        </is>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>-35.26038288142882,173.1301384355686</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>-35.25976728445415,173.1296392068711</t>
+        </is>
+      </c>
+      <c r="Q208" t="inlineStr">
+        <is>
+          <t>-35.25921569799593,173.12904675509827</t>
+        </is>
+      </c>
+      <c r="R208" t="inlineStr">
+        <is>
+          <t>-35.25857982016012,173.12857704966737</t>
+        </is>
+      </c>
+      <c r="S208" t="inlineStr">
+        <is>
+          <t>-35.25799263292228,173.1280364313288</t>
+        </is>
+      </c>
+      <c r="T208" t="inlineStr">
+        <is>
+          <t>-35.25744687285283,173.1274354777548</t>
+        </is>
+      </c>
+      <c r="U208" t="inlineStr">
+        <is>
+          <t>-35.256892672653755,173.12684680966402</t>
+        </is>
+      </c>
+      <c r="V208" t="inlineStr">
+        <is>
+          <t>-35.256347721287234,173.12624466693342</t>
+        </is>
+      </c>
+      <c r="W208" t="inlineStr">
+        <is>
+          <t>-35.25572896510022,173.12574999930834</t>
+        </is>
+      </c>
+      <c r="X208" t="inlineStr">
+        <is>
+          <t>-35.25522619495305,173.1250864173342</t>
+        </is>
+      </c>
+      <c r="Y208" t="inlineStr"/>
+      <c r="Z208" t="inlineStr">
+        <is>
+          <t>-35.254124398531324,173.1238994125044</t>
+        </is>
+      </c>
+      <c r="AA208" t="inlineStr">
+        <is>
+          <t>-35.25346278008146,173.123467142192</t>
+        </is>
+      </c>
+      <c r="AB208" t="inlineStr">
+        <is>
+          <t>-35.253022528196134,173.12271249244876</t>
+        </is>
+      </c>
+      <c r="AC208" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0065/nzd0065.xlsx
+++ b/data/nzd0065/nzd0065.xlsx
@@ -20330,28 +20330,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>-1.092652527101799</v>
+        <v>-1.072205666197444</v>
       </c>
       <c r="J2" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K2" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1446767140395843</v>
+        <v>0.1413556566326791</v>
       </c>
       <c r="M2" t="n">
-        <v>16.92258532225783</v>
+        <v>16.91731725139923</v>
       </c>
       <c r="N2" t="n">
-        <v>441.182874467956</v>
+        <v>439.8727818605551</v>
       </c>
       <c r="O2" t="n">
-        <v>21.00435370269592</v>
+        <v>20.97314430076127</v>
       </c>
       <c r="P2" t="n">
-        <v>399.9248947455745</v>
+        <v>399.7392970791511</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20402,28 +20402,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.7582699172183864</v>
+        <v>-0.7649552751983003</v>
       </c>
       <c r="J3" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K3" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08276842922002992</v>
+        <v>0.08491179057778619</v>
       </c>
       <c r="M3" t="n">
-        <v>15.00784744127379</v>
+        <v>14.96370522760609</v>
       </c>
       <c r="N3" t="n">
-        <v>394.98828980641</v>
+        <v>392.9702433127226</v>
       </c>
       <c r="O3" t="n">
-        <v>19.87431231027655</v>
+        <v>19.82347707423505</v>
       </c>
       <c r="P3" t="n">
-        <v>384.7880926661667</v>
+        <v>384.8510994645069</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20480,28 +20480,28 @@
         <v>0.0446</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2820256682546355</v>
+        <v>-0.2932616668042084</v>
       </c>
       <c r="J4" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K4" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0210197816239327</v>
+        <v>0.02286763350393795</v>
       </c>
       <c r="M4" t="n">
-        <v>11.91807988178537</v>
+        <v>11.91430404344386</v>
       </c>
       <c r="N4" t="n">
-        <v>227.1409877657503</v>
+        <v>226.5624298532478</v>
       </c>
       <c r="O4" t="n">
-        <v>15.0711972903864</v>
+        <v>15.05199089334191</v>
       </c>
       <c r="P4" t="n">
-        <v>374.5546679995981</v>
+        <v>374.6606083276995</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20558,28 +20558,28 @@
         <v>0.0489</v>
       </c>
       <c r="I5" t="n">
-        <v>7.956665989850871e-05</v>
+        <v>-0.01238125976806667</v>
       </c>
       <c r="J5" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K5" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L5" t="n">
-        <v>1.618939649006279e-09</v>
+        <v>3.946865248771747e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>12.3945534786281</v>
+        <v>12.39186591061191</v>
       </c>
       <c r="N5" t="n">
-        <v>235.5522312782504</v>
+        <v>235.1401287299581</v>
       </c>
       <c r="O5" t="n">
-        <v>15.34771094587888</v>
+        <v>15.33427953084064</v>
       </c>
       <c r="P5" t="n">
-        <v>367.0712205869902</v>
+        <v>367.1913293193155</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20636,28 +20636,28 @@
         <v>0.0401</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.005284612078061096</v>
+        <v>-0.01389789498836888</v>
       </c>
       <c r="J6" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K6" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L6" t="n">
-        <v>6.640913564615047e-06</v>
+        <v>4.633538183085317e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>12.23923686062685</v>
+        <v>12.22213814696909</v>
       </c>
       <c r="N6" t="n">
-        <v>250.5146797066581</v>
+        <v>249.5737586495202</v>
       </c>
       <c r="O6" t="n">
-        <v>15.8276555341168</v>
+        <v>15.79790361565484</v>
       </c>
       <c r="P6" t="n">
-        <v>366.2162847114706</v>
+        <v>366.3000436230924</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20714,28 +20714,28 @@
         <v>0.0424</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.150594690413913</v>
+        <v>-0.158439682812989</v>
       </c>
       <c r="J7" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K7" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L7" t="n">
-        <v>0.006996755782253894</v>
+        <v>0.007805126912232452</v>
       </c>
       <c r="M7" t="n">
-        <v>10.94156450742785</v>
+        <v>10.92690346910902</v>
       </c>
       <c r="N7" t="n">
-        <v>189.6434129367578</v>
+        <v>188.9433269916049</v>
       </c>
       <c r="O7" t="n">
-        <v>13.77110790520348</v>
+        <v>13.74566575294208</v>
       </c>
       <c r="P7" t="n">
-        <v>364.334845515226</v>
+        <v>364.4123155335099</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20792,28 +20792,28 @@
         <v>0.0369</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1259918894208308</v>
+        <v>-0.1393407715417817</v>
       </c>
       <c r="J8" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K8" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L8" t="n">
-        <v>0.005282493024727719</v>
+        <v>0.006484953345830435</v>
       </c>
       <c r="M8" t="n">
-        <v>10.5882562002908</v>
+        <v>10.60043562301836</v>
       </c>
       <c r="N8" t="n">
-        <v>176.0023508358916</v>
+        <v>176.0295532680261</v>
       </c>
       <c r="O8" t="n">
-        <v>13.26658776158706</v>
+        <v>13.26761294536535</v>
       </c>
       <c r="P8" t="n">
-        <v>361.4101421619766</v>
+        <v>361.5414486295949</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -20870,28 +20870,28 @@
         <v>0.038</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.552679858084586</v>
+        <v>-0.5682293568353536</v>
       </c>
       <c r="J9" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K9" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06839768759801335</v>
+        <v>0.07231987645671978</v>
       </c>
       <c r="M9" t="n">
-        <v>13.24379519693672</v>
+        <v>13.26426326504518</v>
       </c>
       <c r="N9" t="n">
-        <v>246.4270006634146</v>
+        <v>246.4767433870227</v>
       </c>
       <c r="O9" t="n">
-        <v>15.6979935234862</v>
+        <v>15.69957780919674</v>
       </c>
       <c r="P9" t="n">
-        <v>360.9522293399625</v>
+        <v>361.1057644552205</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -20948,28 +20948,28 @@
         <v>0.0273</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.4549521908884359</v>
+        <v>-0.4633605118573924</v>
       </c>
       <c r="J10" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K10" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03250761550645775</v>
+        <v>0.03401253464815135</v>
       </c>
       <c r="M10" t="n">
-        <v>15.37254771884893</v>
+        <v>15.33084916616296</v>
       </c>
       <c r="N10" t="n">
-        <v>361.1699672941758</v>
+        <v>359.4023814989883</v>
       </c>
       <c r="O10" t="n">
-        <v>19.0044722971772</v>
+        <v>18.95791078940368</v>
       </c>
       <c r="P10" t="n">
-        <v>350.5585509385825</v>
+        <v>350.6418221755293</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -21026,28 +21026,28 @@
         <v>0.0212</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.5448999863774113</v>
+        <v>-0.5632240873132724</v>
       </c>
       <c r="J11" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K11" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03520493350123211</v>
+        <v>0.03780567823645375</v>
       </c>
       <c r="M11" t="n">
-        <v>17.86460471306706</v>
+        <v>17.86190628440523</v>
       </c>
       <c r="N11" t="n">
-        <v>490.882196568909</v>
+        <v>489.7125684725542</v>
       </c>
       <c r="O11" t="n">
-        <v>22.15586144948801</v>
+        <v>22.12945025237984</v>
       </c>
       <c r="P11" t="n">
-        <v>347.0809200778737</v>
+        <v>347.2577541833397</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -21104,28 +21104,28 @@
         <v>0.0314</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.6189206796192012</v>
+        <v>-0.6252181945211005</v>
       </c>
       <c r="J12" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K12" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L12" t="n">
-        <v>0.07069369322753494</v>
+        <v>0.07269102961639917</v>
       </c>
       <c r="M12" t="n">
-        <v>13.82108252476328</v>
+        <v>13.78194967588689</v>
       </c>
       <c r="N12" t="n">
-        <v>297.7006634613455</v>
+        <v>296.2787485604925</v>
       </c>
       <c r="O12" t="n">
-        <v>17.25400427325047</v>
+        <v>17.2127495932664</v>
       </c>
       <c r="P12" t="n">
-        <v>349.4534226525914</v>
+        <v>349.5152992044632</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -21182,28 +21182,28 @@
         <v>0.0377</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.480058886888848</v>
+        <v>-0.4748214814288865</v>
       </c>
       <c r="J13" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K13" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L13" t="n">
-        <v>0.04986506998395912</v>
+        <v>0.04931016400944566</v>
       </c>
       <c r="M13" t="n">
-        <v>12.72569905914598</v>
+        <v>12.68509095666552</v>
       </c>
       <c r="N13" t="n">
-        <v>258.110218647278</v>
+        <v>256.8420036913033</v>
       </c>
       <c r="O13" t="n">
-        <v>16.06580899448509</v>
+        <v>16.02629101480762</v>
       </c>
       <c r="P13" t="n">
-        <v>347.3657004645106</v>
+        <v>347.3143664787056</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -21260,28 +21260,28 @@
         <v>0.0462</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.466623523734888</v>
+        <v>-0.4638341107005806</v>
       </c>
       <c r="J14" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K14" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L14" t="n">
-        <v>0.04611452199482957</v>
+        <v>0.04606413615177574</v>
       </c>
       <c r="M14" t="n">
-        <v>13.30240683582901</v>
+        <v>13.2442461323186</v>
       </c>
       <c r="N14" t="n">
-        <v>266.1560157800329</v>
+        <v>264.7513047685077</v>
       </c>
       <c r="O14" t="n">
-        <v>16.31428869978808</v>
+        <v>16.27118018978672</v>
       </c>
       <c r="P14" t="n">
-        <v>341.515948687435</v>
+        <v>341.4889904274016</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -21338,28 +21338,28 @@
         <v>0.0426</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.4496384594848356</v>
+        <v>-0.443454274363368</v>
       </c>
       <c r="J15" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K15" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03398403630705393</v>
+        <v>0.03340855722675384</v>
       </c>
       <c r="M15" t="n">
-        <v>15.11299017866734</v>
+        <v>15.05874362316299</v>
       </c>
       <c r="N15" t="n">
-        <v>339.2764918842398</v>
+        <v>337.5823406426937</v>
       </c>
       <c r="O15" t="n">
-        <v>18.41945959805118</v>
+        <v>18.37341396264433</v>
       </c>
       <c r="P15" t="n">
-        <v>338.1681565959018</v>
+        <v>338.1072594237863</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -21416,28 +21416,28 @@
         <v>0.0499</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.4556204805017053</v>
+        <v>-0.4536797755783104</v>
       </c>
       <c r="J16" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K16" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L16" t="n">
-        <v>0.03181370907074321</v>
+        <v>0.0318720633491073</v>
       </c>
       <c r="M16" t="n">
-        <v>15.53998446630673</v>
+        <v>15.46204441463129</v>
       </c>
       <c r="N16" t="n">
-        <v>378.5205831576906</v>
+        <v>376.3914060823068</v>
       </c>
       <c r="O16" t="n">
-        <v>19.45560544310278</v>
+        <v>19.40080941822549</v>
       </c>
       <c r="P16" t="n">
-        <v>333.3751752955218</v>
+        <v>333.356167546034</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -21494,28 +21494,28 @@
         <v>0.0388</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.5199366484111803</v>
+        <v>-0.5228196940457742</v>
       </c>
       <c r="J17" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K17" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L17" t="n">
-        <v>0.05280916193528795</v>
+        <v>0.05390461438329386</v>
       </c>
       <c r="M17" t="n">
-        <v>13.62537401393042</v>
+        <v>13.564636762293</v>
       </c>
       <c r="N17" t="n">
-        <v>292.4449484691551</v>
+        <v>290.829781439217</v>
       </c>
       <c r="O17" t="n">
-        <v>17.10102185453124</v>
+        <v>17.05373218504434</v>
       </c>
       <c r="P17" t="n">
-        <v>341.7734178010837</v>
+        <v>341.8012945454559</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -21566,28 +21566,28 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>-0.9400614705855072</v>
+        <v>-0.9450444286037039</v>
       </c>
       <c r="J18" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K18" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1195208397836187</v>
+        <v>0.1217759170443139</v>
       </c>
       <c r="M18" t="n">
-        <v>14.46368631712762</v>
+        <v>14.40364908426086</v>
       </c>
       <c r="N18" t="n">
-        <v>356.1375300910081</v>
+        <v>354.0756995683733</v>
       </c>
       <c r="O18" t="n">
-        <v>18.8716064523137</v>
+        <v>18.81689930802557</v>
       </c>
       <c r="P18" t="n">
-        <v>341.6582943857515</v>
+        <v>341.710987767362</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -21644,28 +21644,28 @@
         <v>0.0528</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.9770034622009733</v>
+        <v>-0.9825904595657575</v>
       </c>
       <c r="J19" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K19" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1130239055754707</v>
+        <v>0.1153052939743429</v>
       </c>
       <c r="M19" t="n">
-        <v>16.03602544946551</v>
+        <v>15.97547680882938</v>
       </c>
       <c r="N19" t="n">
-        <v>429.4072988936661</v>
+        <v>427.0366923245542</v>
       </c>
       <c r="O19" t="n">
-        <v>20.72214513253071</v>
+        <v>20.66486613371967</v>
       </c>
       <c r="P19" t="n">
-        <v>339.0167106497136</v>
+        <v>339.0725813479621</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -21716,28 +21716,28 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>-0.9671903696173002</v>
+        <v>-0.9768968422214549</v>
       </c>
       <c r="J20" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K20" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1346890146618419</v>
+        <v>0.1382964804161599</v>
       </c>
       <c r="M20" t="n">
-        <v>14.75276403741469</v>
+        <v>14.72040858114595</v>
       </c>
       <c r="N20" t="n">
-        <v>354.5687038503337</v>
+        <v>352.8448304533313</v>
       </c>
       <c r="O20" t="n">
-        <v>18.82999479156417</v>
+        <v>18.78416435334112</v>
       </c>
       <c r="P20" t="n">
-        <v>345.2235348528736</v>
+        <v>345.3186211538974</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -21794,28 +21794,28 @@
         <v>0.0369</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.7731837167097079</v>
+        <v>-0.785516728787232</v>
       </c>
       <c r="J21" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K21" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1125958908624699</v>
+        <v>0.1166241107829893</v>
       </c>
       <c r="M21" t="n">
-        <v>13.2384846129384</v>
+        <v>13.22720191527481</v>
       </c>
       <c r="N21" t="n">
-        <v>283.7584919409687</v>
+        <v>282.9120404182074</v>
       </c>
       <c r="O21" t="n">
-        <v>16.84513258899937</v>
+        <v>16.81998931088268</v>
       </c>
       <c r="P21" t="n">
-        <v>344.8129822710429</v>
+        <v>344.9330390104086</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -21872,28 +21872,28 @@
         <v>0.0414</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.8141914876122568</v>
+        <v>-0.8235076398128621</v>
       </c>
       <c r="J22" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K22" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1202008259623967</v>
+        <v>0.1235977567771555</v>
       </c>
       <c r="M22" t="n">
-        <v>14.1091702247588</v>
+        <v>14.08096237337693</v>
       </c>
       <c r="N22" t="n">
-        <v>292.2870648698182</v>
+        <v>291.1622482145603</v>
       </c>
       <c r="O22" t="n">
-        <v>17.09640502766059</v>
+        <v>17.0634770259335</v>
       </c>
       <c r="P22" t="n">
-        <v>346.4415692412518</v>
+        <v>346.5313431399006</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -21950,28 +21950,28 @@
         <v>0.0554</v>
       </c>
       <c r="I23" t="n">
-        <v>-1.063261140764778</v>
+        <v>-1.07272080853539</v>
       </c>
       <c r="J23" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K23" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L23" t="n">
-        <v>0.1896568229647969</v>
+        <v>0.1938706156574698</v>
       </c>
       <c r="M23" t="n">
-        <v>13.41554320345139</v>
+        <v>13.39209439706045</v>
       </c>
       <c r="N23" t="n">
-        <v>287.8305660148393</v>
+        <v>286.6828557150961</v>
       </c>
       <c r="O23" t="n">
-        <v>16.96557001738637</v>
+        <v>16.9317115412204</v>
       </c>
       <c r="P23" t="n">
-        <v>342.9878948648036</v>
+        <v>343.0793503520679</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -22028,28 +22028,28 @@
         <v>0.0559</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.7775800444414365</v>
+        <v>-0.7844573864931705</v>
       </c>
       <c r="J24" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K24" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L24" t="n">
-        <v>0.09761446358436721</v>
+        <v>0.100062963717615</v>
       </c>
       <c r="M24" t="n">
-        <v>14.30482111505159</v>
+        <v>14.26362746579964</v>
       </c>
       <c r="N24" t="n">
-        <v>330.8761879028972</v>
+        <v>329.3103422041864</v>
       </c>
       <c r="O24" t="n">
-        <v>18.1900024162422</v>
+        <v>18.14690999052418</v>
       </c>
       <c r="P24" t="n">
-        <v>343.5381173225867</v>
+        <v>343.6053537814969</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -22109,7 +22109,7 @@
         <v>-0.2822011481994005</v>
       </c>
       <c r="J25" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K25" t="n">
         <v>159</v>
@@ -22184,28 +22184,28 @@
         <v>0.0474</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.5361139301733183</v>
+        <v>-0.5422081342380176</v>
       </c>
       <c r="J26" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K26" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L26" t="n">
-        <v>0.08326740306989211</v>
+        <v>0.08579923135011358</v>
       </c>
       <c r="M26" t="n">
-        <v>10.77738681686094</v>
+        <v>10.75099382949034</v>
       </c>
       <c r="N26" t="n">
-        <v>188.3675567469073</v>
+        <v>187.4952208720389</v>
       </c>
       <c r="O26" t="n">
-        <v>13.72470607142125</v>
+        <v>13.69288942743784</v>
       </c>
       <c r="P26" t="n">
-        <v>340.2721960545954</v>
+        <v>340.3312204886194</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -22256,28 +22256,28 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>-0.9003859558648243</v>
+        <v>-0.897775317162004</v>
       </c>
       <c r="J27" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K27" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L27" t="n">
-        <v>0.08744208672880061</v>
+        <v>0.08790384329236267</v>
       </c>
       <c r="M27" t="n">
-        <v>17.25924110477401</v>
+        <v>17.16274902366874</v>
       </c>
       <c r="N27" t="n">
-        <v>488.4095538159732</v>
+        <v>485.3715513157526</v>
       </c>
       <c r="O27" t="n">
-        <v>22.09998990533645</v>
+        <v>22.03114956863923</v>
       </c>
       <c r="P27" t="n">
-        <v>324.3378373353575</v>
+        <v>324.311513572444</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -22334,28 +22334,28 @@
         <v>0.0321</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.2987089257642757</v>
+        <v>-0.3002877487101844</v>
       </c>
       <c r="J28" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K28" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L28" t="n">
-        <v>0.009672082880327171</v>
+        <v>0.00987707635804369</v>
       </c>
       <c r="M28" t="n">
-        <v>17.92774984930842</v>
+        <v>17.83288279326662</v>
       </c>
       <c r="N28" t="n">
-        <v>538.5866018330819</v>
+        <v>535.4871598971141</v>
       </c>
       <c r="O28" t="n">
-        <v>23.20746866491652</v>
+        <v>23.14059549573248</v>
       </c>
       <c r="P28" t="n">
-        <v>333.6990672902118</v>
+        <v>333.7147394196236</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">

--- a/data/nzd0065/nzd0065.xlsx
+++ b/data/nzd0065/nzd0065.xlsx
@@ -20326,9 +20326,15 @@
       <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0198</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.026</v>
+      </c>
       <c r="I2" t="n">
         <v>-1.072205666197444</v>
       </c>
@@ -20398,9 +20404,15 @@
       <c r="E3" t="n">
         <v>0.9615384615389145</v>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0292</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0356</v>
+      </c>
       <c r="I3" t="n">
         <v>-0.7649552751983003</v>
       </c>
@@ -20471,13 +20483,13 @@
         <v>0.9230769230781037</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0344</v>
+        <v>0.0343</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0446</v>
+        <v>0.0412</v>
       </c>
       <c r="I4" t="n">
         <v>-0.2932616668042084</v>
@@ -20552,10 +20564,10 @@
         <v>0.04</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0363</v>
+        <v>0.035</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0489</v>
+        <v>0.0422</v>
       </c>
       <c r="I5" t="n">
         <v>-0.01238125976806667</v>
@@ -20627,13 +20639,13 @@
         <v>0.846153846155013</v>
       </c>
       <c r="F6" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0317</v>
+        <v>0.0378</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0401</v>
+        <v>0.0456</v>
       </c>
       <c r="I6" t="n">
         <v>-0.01389254528854863</v>
@@ -20708,10 +20720,10 @@
         <v>0.04</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0348</v>
+        <v>0.0343</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0424</v>
+        <v>0.0432</v>
       </c>
       <c r="I7" t="n">
         <v>-0.158439682812989</v>
@@ -20786,10 +20798,10 @@
         <v>0.035</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0336</v>
+        <v>0.0329</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0369</v>
+        <v>0.0408</v>
       </c>
       <c r="I8" t="n">
         <v>-0.139331060311203</v>
@@ -20861,13 +20873,13 @@
         <v>0.730769230770837</v>
       </c>
       <c r="F9" t="n">
-        <v>0.035</v>
+        <v>0.03</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0327</v>
+        <v>0.0297</v>
       </c>
       <c r="H9" t="n">
-        <v>0.038</v>
+        <v>0.0357</v>
       </c>
       <c r="I9" t="n">
         <v>-0.5682195624181958</v>
@@ -20942,10 +20954,10 @@
         <v>0.025</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0245</v>
+        <v>0.0246</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0273</v>
+        <v>0.0256</v>
       </c>
       <c r="I10" t="n">
         <v>-0.4633605118573921</v>
@@ -21020,10 +21032,10 @@
         <v>0.02</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0197</v>
+        <v>0.0199</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0212</v>
+        <v>0.0229</v>
       </c>
       <c r="I11" t="n">
         <v>-0.5632240873132726</v>
@@ -21098,10 +21110,10 @@
         <v>0.03</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0292</v>
+        <v>0.0294</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0314</v>
+        <v>0.0311</v>
       </c>
       <c r="I12" t="n">
         <v>-0.6252079438371388</v>
@@ -21176,10 +21188,10 @@
         <v>0.035</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0336</v>
+        <v>0.0338</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0377</v>
+        <v>0.0361</v>
       </c>
       <c r="I13" t="n">
         <v>-0.4748154738177301</v>
@@ -21254,10 +21266,10 @@
         <v>0.04</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0369</v>
+        <v>0.0349</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0462</v>
+        <v>0.0415</v>
       </c>
       <c r="I14" t="n">
         <v>-0.4638341107005806</v>
@@ -21332,10 +21344,10 @@
         <v>0.04</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0349</v>
+        <v>0.0367</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0426</v>
+        <v>0.0421</v>
       </c>
       <c r="I15" t="n">
         <v>-0.443454274363368</v>
@@ -21407,13 +21419,13 @@
         <v>0.4615384615401091</v>
       </c>
       <c r="F16" t="n">
-        <v>0.045</v>
+        <v>0.04</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0388</v>
+        <v>0.0368</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0499</v>
+        <v>0.0419</v>
       </c>
       <c r="I16" t="n">
         <v>-0.4536231064746183</v>
@@ -21488,10 +21500,10 @@
         <v>0.035</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0313</v>
+        <v>0.0299</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0388</v>
+        <v>0.0383</v>
       </c>
       <c r="I17" t="n">
         <v>-0.5228094855794191</v>
@@ -21562,9 +21574,15 @@
       <c r="E18" t="n">
         <v>0.3846153846170183</v>
       </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0298</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0385</v>
+      </c>
       <c r="I18" t="n">
         <v>-0.9450444286037039</v>
       </c>
@@ -21635,13 +21653,13 @@
         <v>0.3461538461550131</v>
       </c>
       <c r="F19" t="n">
-        <v>0.045</v>
+        <v>0.03</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0368</v>
+        <v>0.0291</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0528</v>
+        <v>0.0323</v>
       </c>
       <c r="I19" t="n">
         <v>-0.9825458134103479</v>
@@ -21712,9 +21730,15 @@
       <c r="E20" t="n">
         <v>0.3076923076939276</v>
       </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0257</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.0311</v>
+      </c>
       <c r="I20" t="n">
         <v>-0.9768968422214549</v>
       </c>
@@ -21785,13 +21809,13 @@
         <v>0.269230769232197</v>
       </c>
       <c r="F21" t="n">
-        <v>0.035</v>
+        <v>0.03</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0309</v>
+        <v>0.0296</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0369</v>
+        <v>0.0333</v>
       </c>
       <c r="I21" t="n">
         <v>-0.7854897090925803</v>
@@ -21866,10 +21890,10 @@
         <v>0.035</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0335</v>
+        <v>0.0299</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0414</v>
+        <v>0.0379</v>
       </c>
       <c r="I22" t="n">
         <v>-0.8234934551835387</v>
@@ -21941,13 +21965,13 @@
         <v>0.1923076923081866</v>
       </c>
       <c r="F23" t="n">
-        <v>0.045</v>
+        <v>0.04</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0418</v>
+        <v>0.0357</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0554</v>
+        <v>0.0515</v>
       </c>
       <c r="I23" t="n">
         <v>-1.072673070222764</v>
@@ -22019,13 +22043,13 @@
         <v>0.1538461538461814</v>
       </c>
       <c r="F24" t="n">
-        <v>0.05</v>
+        <v>0.035</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0425</v>
+        <v>0.0335</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0559</v>
+        <v>0.0404</v>
       </c>
       <c r="I24" t="n">
         <v>-0.7844573864931708</v>
@@ -22100,10 +22124,10 @@
         <v>0.035</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0334</v>
+        <v>0.034</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0414</v>
+        <v>0.0365</v>
       </c>
       <c r="I25" t="n">
         <v>-0.2821946898507368</v>
@@ -22178,10 +22202,10 @@
         <v>0.04</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0375</v>
+        <v>0.0369</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0474</v>
+        <v>0.05</v>
       </c>
       <c r="I26" t="n">
         <v>-0.5422081342380176</v>
@@ -22252,9 +22276,15 @@
       <c r="E27" t="n">
         <v>0.03846153846108551</v>
       </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0282</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.031</v>
+      </c>
       <c r="I27" t="n">
         <v>-0.8977903804259139</v>
       </c>
@@ -22325,13 +22355,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.025</v>
+        <v>0.04</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0242</v>
+        <v>0.0353</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0321</v>
+        <v>0.0479</v>
       </c>
       <c r="I28" t="n">
         <v>-0.3002877487101845</v>
